--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\BigHitGame\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5894BE08-FB38-4EEF-94A5-3EF4228C8455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C12D88-559D-4462-BEB4-EF32093A8044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="3840" windowWidth="32130" windowHeight="15420" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2520" yWindow="525" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +254,33 @@
   <si>
     <t>CollectionValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook12</t>
+  </si>
+  <si>
+    <t>magicBook13</t>
+  </si>
+  <si>
+    <t>magicBook15</t>
+  </si>
+  <si>
+    <t>magicBook14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설3</t>
+  </si>
+  <si>
+    <t>전설4</t>
   </si>
 </sst>
 </file>
@@ -670,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1374,6 +1401,218 @@
         <v>10</v>
       </c>
       <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>1.2</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="L14">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="M14">
+        <v>2.3999999999999998E-4</v>
+      </c>
+      <c r="N14">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>1.2</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="L15">
+        <v>1.2E-4</v>
+      </c>
+      <c r="M15">
+        <v>1.7999999999999998E-4</v>
+      </c>
+      <c r="N15">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+      <c r="Q15">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>1.2</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>11</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="L16">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="M16">
+        <v>1.1999999999999999E-4</v>
+      </c>
+      <c r="N16">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>10</v>
+      </c>
+      <c r="Q16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>1.2</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>12</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="L17">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="M17">
+        <v>5.9999999999999995E-5</v>
+      </c>
+      <c r="N17">
+        <v>1E-4</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>10</v>
+      </c>
+      <c r="Q17">
         <v>1</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C12D88-559D-4462-BEB4-EF32093A8044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C63EA8-22BB-48A9-986D-979F371E18E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="525" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="495" yWindow="2775" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,6 +281,21 @@
   </si>
   <si>
     <t>전설4</t>
+  </si>
+  <si>
+    <t>GachaLv6</t>
+  </si>
+  <si>
+    <t>GachaLv7</t>
+  </si>
+  <si>
+    <t>GachaLv8</t>
+  </si>
+  <si>
+    <t>GachaLv9</t>
+  </si>
+  <si>
+    <t>GachaLv10</t>
   </si>
 </sst>
 </file>
@@ -697,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -712,10 +727,10 @@
     <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="17.375" customWidth="1"/>
     <col min="9" max="9" width="13.25" customWidth="1"/>
-    <col min="16" max="16" width="29.25" customWidth="1"/>
+    <col min="16" max="16" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -759,16 +774,31 @@
         <v>8</v>
       </c>
       <c r="O1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" t="s">
         <v>58</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -812,16 +842,31 @@
         <v>0.37360000000000004</v>
       </c>
       <c r="O2">
+        <v>0.37360000000000004</v>
+      </c>
+      <c r="P2">
+        <v>0.37360000000000004</v>
+      </c>
+      <c r="Q2">
+        <v>0.37360000000000004</v>
+      </c>
+      <c r="R2">
+        <v>0.37360000000000004</v>
+      </c>
+      <c r="S2">
+        <v>0.37360000000000004</v>
+      </c>
+      <c r="T2">
         <v>11</v>
       </c>
-      <c r="P2">
+      <c r="U2">
         <v>200</v>
       </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -865,16 +910,31 @@
         <v>0.2802</v>
       </c>
       <c r="O3">
+        <v>0.2802</v>
+      </c>
+      <c r="P3">
+        <v>0.2802</v>
+      </c>
+      <c r="Q3">
+        <v>0.2802</v>
+      </c>
+      <c r="R3">
+        <v>0.2802</v>
+      </c>
+      <c r="S3">
+        <v>0.2802</v>
+      </c>
+      <c r="T3">
         <v>11</v>
       </c>
-      <c r="P3">
+      <c r="U3">
         <v>200</v>
       </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -918,16 +978,31 @@
         <v>0.18680000000000002</v>
       </c>
       <c r="O4">
+        <v>0.18680000000000002</v>
+      </c>
+      <c r="P4">
+        <v>0.18680000000000002</v>
+      </c>
+      <c r="Q4">
+        <v>0.18680000000000002</v>
+      </c>
+      <c r="R4">
+        <v>0.18680000000000002</v>
+      </c>
+      <c r="S4">
+        <v>0.18680000000000002</v>
+      </c>
+      <c r="T4">
         <v>11</v>
       </c>
-      <c r="P4">
+      <c r="U4">
         <v>200</v>
       </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -971,16 +1046,31 @@
         <v>9.3400000000000011E-2</v>
       </c>
       <c r="O5">
+        <v>9.3400000000000011E-2</v>
+      </c>
+      <c r="P5">
+        <v>9.3400000000000011E-2</v>
+      </c>
+      <c r="Q5">
+        <v>9.3400000000000011E-2</v>
+      </c>
+      <c r="R5">
+        <v>9.3400000000000011E-2</v>
+      </c>
+      <c r="S5">
+        <v>9.3400000000000011E-2</v>
+      </c>
+      <c r="T5">
         <v>11</v>
       </c>
-      <c r="P5">
+      <c r="U5">
         <v>200</v>
       </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1024,16 +1114,31 @@
         <v>2.6000000000000002E-2</v>
       </c>
       <c r="O6">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="P6">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="Q6">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="R6">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="S6">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="T6">
         <v>0</v>
       </c>
-      <c r="P6">
+      <c r="U6">
         <v>100</v>
       </c>
-      <c r="Q6">
+      <c r="V6">
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1077,16 +1182,31 @@
         <v>1.95E-2</v>
       </c>
       <c r="O7">
+        <v>1.95E-2</v>
+      </c>
+      <c r="P7">
+        <v>1.95E-2</v>
+      </c>
+      <c r="Q7">
+        <v>1.95E-2</v>
+      </c>
+      <c r="R7">
+        <v>1.95E-2</v>
+      </c>
+      <c r="S7">
+        <v>1.95E-2</v>
+      </c>
+      <c r="T7">
         <v>0</v>
       </c>
-      <c r="P7">
+      <c r="U7">
         <v>100</v>
       </c>
-      <c r="Q7">
+      <c r="V7">
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1130,16 +1250,31 @@
         <v>1.3000000000000001E-2</v>
       </c>
       <c r="O8">
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="P8">
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="Q8">
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="R8">
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="S8">
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="T8">
         <v>0</v>
       </c>
-      <c r="P8">
+      <c r="U8">
         <v>100</v>
       </c>
-      <c r="Q8">
+      <c r="V8">
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1183,16 +1318,31 @@
         <v>6.5000000000000006E-3</v>
       </c>
       <c r="O9">
+        <v>6.5000000000000006E-3</v>
+      </c>
+      <c r="P9">
+        <v>6.5000000000000006E-3</v>
+      </c>
+      <c r="Q9">
+        <v>6.5000000000000006E-3</v>
+      </c>
+      <c r="R9">
+        <v>6.5000000000000006E-3</v>
+      </c>
+      <c r="S9">
+        <v>6.5000000000000006E-3</v>
+      </c>
+      <c r="T9">
         <v>0</v>
       </c>
-      <c r="P9">
+      <c r="U9">
         <v>100</v>
       </c>
-      <c r="Q9">
+      <c r="V9">
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1236,16 +1386,31 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P10">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="Q10">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="R10">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="S10">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
         <v>10</v>
       </c>
-      <c r="Q10">
+      <c r="V10">
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1289,16 +1454,31 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P11">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="Q11">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="R11">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="S11">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
         <v>10</v>
       </c>
-      <c r="Q11">
+      <c r="V11">
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1342,16 +1522,31 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P12">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="Q12">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="R12">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="S12">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
         <v>10</v>
       </c>
-      <c r="Q12">
+      <c r="V12">
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1395,16 +1590,31 @@
         <v>1E-4</v>
       </c>
       <c r="O13">
+        <v>1E-4</v>
+      </c>
+      <c r="P13">
+        <v>1E-4</v>
+      </c>
+      <c r="Q13">
+        <v>1E-4</v>
+      </c>
+      <c r="R13">
+        <v>1E-4</v>
+      </c>
+      <c r="S13">
+        <v>1E-4</v>
+      </c>
+      <c r="T13">
         <v>2</v>
       </c>
-      <c r="P13">
+      <c r="U13">
         <v>10</v>
       </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1448,16 +1658,31 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P14">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="Q14">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="R14">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="S14">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="T14">
+        <v>4</v>
+      </c>
+      <c r="U14">
         <v>10</v>
       </c>
-      <c r="Q14">
+      <c r="V14">
         <v>0.15</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1501,16 +1726,31 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P15">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="Q15">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="R15">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="S15">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="T15">
+        <v>4</v>
+      </c>
+      <c r="U15">
         <v>10</v>
       </c>
-      <c r="Q15">
+      <c r="V15">
         <v>0.15</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1554,16 +1794,31 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P16">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="Q16">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="R16">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="S16">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
         <v>10</v>
       </c>
-      <c r="Q16">
+      <c r="V16">
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1607,12 +1862,27 @@
         <v>1E-4</v>
       </c>
       <c r="O17">
+        <v>1E-4</v>
+      </c>
+      <c r="P17">
+        <v>1E-4</v>
+      </c>
+      <c r="Q17">
+        <v>1E-4</v>
+      </c>
+      <c r="R17">
+        <v>1E-4</v>
+      </c>
+      <c r="S17">
+        <v>1E-4</v>
+      </c>
+      <c r="T17">
         <v>2</v>
       </c>
-      <c r="P17">
+      <c r="U17">
         <v>10</v>
       </c>
-      <c r="Q17">
+      <c r="V17">
         <v>1</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C63EA8-22BB-48A9-986D-979F371E18E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C75C11-9A7C-4C26-81AE-148A1D32CCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="2775" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="495" yWindow="2775" windowWidth="37665" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,6 +296,48 @@
   </si>
   <si>
     <t>GachaLv10</t>
+  </si>
+  <si>
+    <t>중급1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특급1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급3</t>
+  </si>
+  <si>
+    <t>중급4</t>
+  </si>
+  <si>
+    <t>상급2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급3</t>
+  </si>
+  <si>
+    <t>상급4</t>
+  </si>
+  <si>
+    <t>특급2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특급3</t>
+  </si>
+  <si>
+    <t>특급4</t>
   </si>
 </sst>
 </file>
@@ -715,7 +757,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -806,7 +848,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -874,7 +916,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -942,7 +984,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1010,7 +1052,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1078,7 +1120,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1146,7 +1188,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1214,7 +1256,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1282,7 +1324,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1350,7 +1392,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1418,7 +1460,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1486,7 +1528,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1554,7 +1596,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="D13">
         <v>3</v>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C75C11-9A7C-4C26-81AE-148A1D32CCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F285753-CE56-45BA-8D09-297C87CA27E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="2775" windowWidth="37665" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,20 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전설1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전설2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전설3</t>
-  </si>
-  <si>
-    <t>전설4</t>
-  </si>
-  <si>
     <t>GachaLv6</t>
   </si>
   <si>
@@ -338,15 +324,50 @@
   </si>
   <si>
     <t>특급4</t>
+  </si>
+  <si>
+    <t>GachaLv6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GachaLv7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GachaLv8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GachaLv9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GachaLv10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급3</t>
+  </si>
+  <si>
+    <t>하급4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0000000000%"/>
     <numFmt numFmtId="177" formatCode="0.0000%"/>
+    <numFmt numFmtId="178" formatCode="0.0000000000_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -419,7 +440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -436,6 +457,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -756,23 +780,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
-    <col min="8" max="8" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
     <col min="9" max="9" width="13.25" customWidth="1"/>
-    <col min="16" max="16" width="21.75" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="18" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -816,19 +844,19 @@
         <v>8</v>
       </c>
       <c r="O1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" t="s">
         <v>69</v>
-      </c>
-      <c r="P1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>71</v>
-      </c>
-      <c r="R1" t="s">
-        <v>72</v>
-      </c>
-      <c r="S1" t="s">
-        <v>73</v>
       </c>
       <c r="T1" t="s">
         <v>58</v>
@@ -840,7 +868,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -848,7 +876,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -868,35 +896,35 @@
       <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>0.39</v>
-      </c>
-      <c r="K2">
-        <v>0.38592000000000004</v>
-      </c>
-      <c r="L2">
-        <v>0.38184000000000001</v>
-      </c>
-      <c r="M2">
-        <v>0.37776000000000004</v>
-      </c>
-      <c r="N2">
-        <v>0.37360000000000004</v>
-      </c>
-      <c r="O2">
-        <v>0.37360000000000004</v>
-      </c>
-      <c r="P2">
-        <v>0.37360000000000004</v>
-      </c>
-      <c r="Q2">
-        <v>0.37360000000000004</v>
-      </c>
-      <c r="R2">
-        <v>0.37360000000000004</v>
-      </c>
-      <c r="S2">
-        <v>0.37360000000000004</v>
+      <c r="J2" s="6">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0.124</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0.10720000000000002</v>
+      </c>
+      <c r="P2" s="6">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>5.7999999999999996E-2</v>
+      </c>
+      <c r="R2" s="6">
+        <v>3.32E-2</v>
+      </c>
+      <c r="S2" s="6">
+        <v>0</v>
       </c>
       <c r="T2">
         <v>11</v>
@@ -908,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -916,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -936,35 +964,35 @@
       <c r="I3" t="b">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>0.29249999999999998</v>
-      </c>
-      <c r="K3">
-        <v>0.28943999999999998</v>
-      </c>
-      <c r="L3">
-        <v>0.28637999999999997</v>
-      </c>
-      <c r="M3">
-        <v>0.28332000000000002</v>
-      </c>
-      <c r="N3">
-        <v>0.2802</v>
-      </c>
-      <c r="O3">
-        <v>0.2802</v>
-      </c>
-      <c r="P3">
-        <v>0.2802</v>
-      </c>
-      <c r="Q3">
-        <v>0.2802</v>
-      </c>
-      <c r="R3">
-        <v>0.2802</v>
-      </c>
-      <c r="S3">
-        <v>0.2802</v>
+      <c r="J3" s="6">
+        <v>0.19650000000000001</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.156</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.1275</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0.10800000000000001</v>
+      </c>
+      <c r="N3" s="6">
+        <v>9.3000000000000013E-2</v>
+      </c>
+      <c r="O3" s="6">
+        <v>8.0399999999999985E-2</v>
+      </c>
+      <c r="P3" s="6">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="R3" s="6">
+        <v>2.4900000000000002E-2</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0</v>
       </c>
       <c r="T3">
         <v>11</v>
@@ -976,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -984,7 +1012,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1004,35 +1032,35 @@
       <c r="I4" t="b">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="K4">
-        <v>0.19296000000000002</v>
-      </c>
-      <c r="L4">
-        <v>0.19092000000000001</v>
-      </c>
-      <c r="M4">
-        <v>0.18888000000000002</v>
-      </c>
-      <c r="N4">
-        <v>0.18680000000000002</v>
-      </c>
-      <c r="O4">
-        <v>0.18680000000000002</v>
-      </c>
-      <c r="P4">
-        <v>0.18680000000000002</v>
-      </c>
-      <c r="Q4">
-        <v>0.18680000000000002</v>
-      </c>
-      <c r="R4">
-        <v>0.18680000000000002</v>
-      </c>
-      <c r="S4">
-        <v>0.18680000000000002</v>
+      <c r="J4" s="6">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="L4" s="6">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M4" s="6">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="N4" s="6">
+        <v>6.2E-2</v>
+      </c>
+      <c r="O4" s="6">
+        <v>5.3600000000000009E-2</v>
+      </c>
+      <c r="P4" s="6">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="R4" s="6">
+        <v>1.66E-2</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
       </c>
       <c r="T4">
         <v>11</v>
@@ -1044,7 +1072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1052,7 +1080,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1072,35 +1100,35 @@
       <c r="I5" t="b">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="K5">
-        <v>9.648000000000001E-2</v>
-      </c>
-      <c r="L5">
-        <v>9.5460000000000003E-2</v>
-      </c>
-      <c r="M5">
-        <v>9.444000000000001E-2</v>
-      </c>
-      <c r="N5">
-        <v>9.3400000000000011E-2</v>
-      </c>
-      <c r="O5">
-        <v>9.3400000000000011E-2</v>
-      </c>
-      <c r="P5">
-        <v>9.3400000000000011E-2</v>
-      </c>
-      <c r="Q5">
-        <v>9.3400000000000011E-2</v>
-      </c>
-      <c r="R5">
-        <v>9.3400000000000011E-2</v>
-      </c>
-      <c r="S5">
-        <v>9.3400000000000011E-2</v>
+      <c r="J5" s="6">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="K5" s="6">
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="L5" s="6">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="M5" s="6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="N5" s="6">
+        <v>3.1E-2</v>
+      </c>
+      <c r="O5" s="6">
+        <v>2.6800000000000004E-2</v>
+      </c>
+      <c r="P5" s="6">
+        <v>2.07E-2</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>1.4499999999999999E-2</v>
+      </c>
+      <c r="R5" s="6">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0</v>
       </c>
       <c r="T5">
         <v>11</v>
@@ -1112,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1120,7 +1148,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1140,35 +1168,35 @@
       <c r="I6" t="b">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>1.0000000000000002E-2</v>
-      </c>
-      <c r="K6">
-        <v>1.4000000000000002E-2</v>
-      </c>
-      <c r="L6">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="M6">
-        <v>2.2000000000000002E-2</v>
-      </c>
-      <c r="N6">
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="O6">
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="P6">
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="Q6">
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="R6">
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="S6">
-        <v>2.6000000000000002E-2</v>
+      <c r="J6" s="6">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.18792</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.22384000000000001</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0.24775999999999995</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0.2656</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0.36400000000000005</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1180,7 +1208,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1188,7 +1216,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1208,35 +1236,35 @@
       <c r="I7" t="b">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="K7">
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="L7">
-        <v>1.35E-2</v>
-      </c>
-      <c r="M7">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="N7">
-        <v>1.95E-2</v>
-      </c>
-      <c r="O7">
-        <v>1.95E-2</v>
-      </c>
-      <c r="P7">
-        <v>1.95E-2</v>
-      </c>
-      <c r="Q7">
-        <v>1.95E-2</v>
-      </c>
-      <c r="R7">
-        <v>1.95E-2</v>
-      </c>
-      <c r="S7">
-        <v>1.95E-2</v>
+      <c r="J7" s="6">
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.14093999999999998</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.16788</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0.18581999999999999</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0.19920000000000002</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0.255</v>
+      </c>
+      <c r="S7" s="6">
+        <v>0.27300000000000002</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1248,7 +1276,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1256,7 +1284,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1276,35 +1304,35 @@
       <c r="I8" t="b">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>5.000000000000001E-3</v>
-      </c>
-      <c r="K8">
-        <v>7.000000000000001E-3</v>
-      </c>
-      <c r="L8">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="M8">
-        <v>1.1000000000000001E-2</v>
-      </c>
-      <c r="N8">
-        <v>1.3000000000000001E-2</v>
-      </c>
-      <c r="O8">
-        <v>1.3000000000000001E-2</v>
-      </c>
-      <c r="P8">
-        <v>1.3000000000000001E-2</v>
-      </c>
-      <c r="Q8">
-        <v>1.3000000000000001E-2</v>
-      </c>
-      <c r="R8">
-        <v>1.3000000000000001E-2</v>
-      </c>
-      <c r="S8">
-        <v>1.3000000000000001E-2</v>
+      <c r="J8" s="6">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K8" s="6">
+        <v>9.3960000000000002E-2</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.11192000000000001</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0.12387999999999998</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0.1328</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="S8" s="6">
+        <v>0.18200000000000002</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1316,7 +1344,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1324,7 +1352,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1344,35 +1372,35 @@
       <c r="I9" t="b">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>2.5000000000000005E-3</v>
-      </c>
-      <c r="K9">
-        <v>3.5000000000000005E-3</v>
-      </c>
-      <c r="L9">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="M9">
-        <v>5.5000000000000005E-3</v>
-      </c>
-      <c r="N9">
-        <v>6.5000000000000006E-3</v>
-      </c>
-      <c r="O9">
-        <v>6.5000000000000006E-3</v>
-      </c>
-      <c r="P9">
-        <v>6.5000000000000006E-3</v>
-      </c>
-      <c r="Q9">
-        <v>6.5000000000000006E-3</v>
-      </c>
-      <c r="R9">
-        <v>6.5000000000000006E-3</v>
-      </c>
-      <c r="S9">
-        <v>6.5000000000000006E-3</v>
+      <c r="J9" s="6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K9" s="6">
+        <v>4.6980000000000001E-2</v>
+      </c>
+      <c r="L9" s="6">
+        <v>5.5960000000000003E-2</v>
+      </c>
+      <c r="M9" s="6">
+        <v>6.1939999999999988E-2</v>
+      </c>
+      <c r="N9" s="6">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="O9" s="6">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="P9" s="6">
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="R9" s="6">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S9" s="6">
+        <v>9.1000000000000011E-2</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1384,7 +1412,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1392,7 +1420,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1412,35 +1440,35 @@
       <c r="I10" t="b">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="L10">
-        <v>1.6000000000000001E-4</v>
-      </c>
-      <c r="M10">
-        <v>2.3999999999999998E-4</v>
-      </c>
-      <c r="N10">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="O10">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="P10">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="Q10">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="R10">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="S10">
-        <v>4.0000000000000002E-4</v>
+      <c r="J10" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="K10" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L10" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M10" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="O10" s="6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="P10" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="R10" s="6">
+        <v>2.4E-2</v>
+      </c>
+      <c r="S10" s="6">
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="T10">
         <v>4</v>
@@ -1452,7 +1480,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1460,7 +1488,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1480,35 +1508,35 @@
       <c r="I11" t="b">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="L11">
-        <v>1.2E-4</v>
-      </c>
-      <c r="M11">
-        <v>1.7999999999999998E-4</v>
-      </c>
-      <c r="N11">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="O11">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="P11">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="Q11">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="R11">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="S11">
-        <v>2.9999999999999997E-4</v>
+      <c r="J11" s="6">
+        <v>1.5E-3</v>
+      </c>
+      <c r="K11" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L11" s="6">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M11" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N11" s="6">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="O11" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="P11" s="6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R11" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="S11" s="6">
+        <v>2.4E-2</v>
       </c>
       <c r="T11">
         <v>4</v>
@@ -1520,7 +1548,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1528,7 +1556,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1548,35 +1576,35 @@
       <c r="I12" t="b">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="L12">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="M12">
-        <v>1.1999999999999999E-4</v>
-      </c>
-      <c r="N12">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="O12">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="P12">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="Q12">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="R12">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="S12">
-        <v>2.0000000000000001E-4</v>
+      <c r="J12" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="K12" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="L12" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M12" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N12" s="6">
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="O12" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P12" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="R12" s="6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="S12" s="6">
+        <v>1.6E-2</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -1588,7 +1616,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1596,7 +1624,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1616,35 +1644,35 @@
       <c r="I13" t="b">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="L13">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="M13">
-        <v>5.9999999999999995E-5</v>
-      </c>
-      <c r="N13">
-        <v>1E-4</v>
-      </c>
-      <c r="O13">
-        <v>1E-4</v>
-      </c>
-      <c r="P13">
-        <v>1E-4</v>
-      </c>
-      <c r="Q13">
-        <v>1E-4</v>
-      </c>
-      <c r="R13">
-        <v>1E-4</v>
-      </c>
-      <c r="S13">
-        <v>1E-4</v>
+      <c r="J13" s="6">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="L13" s="6">
+        <v>1.5E-3</v>
+      </c>
+      <c r="M13" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="N13" s="6">
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="O13" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P13" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="R13" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="S13" s="6">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="T13">
         <v>2</v>
@@ -1656,7 +1684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1664,7 +1692,7 @@
         <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -1684,35 +1712,35 @@
       <c r="I14" t="b">
         <v>1</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="6">
         <v>0</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="6">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="6">
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="6">
         <v>2.3999999999999998E-4</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="6">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="O14">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="P14">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="Q14">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="R14">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="S14">
-        <v>4.0000000000000002E-4</v>
+      <c r="O14" s="6">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="P14" s="6">
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="R14" s="6">
+        <v>2.8000000000000004E-3</v>
+      </c>
+      <c r="S14" s="6">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="T14">
         <v>4</v>
@@ -1724,7 +1752,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1732,7 +1760,7 @@
         <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -1752,35 +1780,35 @@
       <c r="I15" t="b">
         <v>1</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="6">
         <v>0</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="6">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="6">
         <v>1.2E-4</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="6">
         <v>1.7999999999999998E-4</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="6">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="O15">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="P15">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="Q15">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="R15">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="S15">
-        <v>2.9999999999999997E-4</v>
+      <c r="O15" s="6">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="P15" s="6">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>1.5E-3</v>
+      </c>
+      <c r="R15" s="6">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="S15" s="6">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="T15">
         <v>4</v>
@@ -1792,7 +1820,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1800,7 +1828,7 @@
         <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -1820,35 +1848,35 @@
       <c r="I16" t="b">
         <v>1</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="6">
         <v>0</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="6">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="6">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="6">
         <v>1.1999999999999999E-4</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="6">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O16">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="P16">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="Q16">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="R16">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="S16">
-        <v>2.0000000000000001E-4</v>
+      <c r="O16" s="6">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="P16" s="6">
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="R16" s="6">
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="S16" s="6">
+        <v>2E-3</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -1860,7 +1888,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1868,7 +1896,7 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -1888,35 +1916,35 @@
       <c r="I17" t="b">
         <v>1</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="6">
         <v>0</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="6">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="6">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="6">
         <v>5.9999999999999995E-5</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="6">
         <v>1E-4</v>
       </c>
-      <c r="O17">
-        <v>1E-4</v>
-      </c>
-      <c r="P17">
-        <v>1E-4</v>
-      </c>
-      <c r="Q17">
-        <v>1E-4</v>
-      </c>
-      <c r="R17">
-        <v>1E-4</v>
-      </c>
-      <c r="S17">
-        <v>1E-4</v>
+      <c r="O17" s="6">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P17" s="6">
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="R17" s="6">
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="S17" s="6">
+        <v>1E-3</v>
       </c>
       <c r="T17">
         <v>2</v>
@@ -1937,26 +1965,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87642AC0-D34C-4503-8EAA-51DAE7E8B9DA}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="19.08203125" customWidth="1"/>
     <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
     <col min="6" max="6" width="18.25" customWidth="1"/>
     <col min="7" max="7" width="15.75" customWidth="1"/>
     <col min="8" max="8" width="17.75" customWidth="1"/>
     <col min="9" max="9" width="18.25" customWidth="1"/>
-    <col min="10" max="10" width="17.25" customWidth="1"/>
+    <col min="10" max="15" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1985,8 +2013,23 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>4</v>
       </c>
@@ -2001,27 +2044,47 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="3">
-        <f>F18*$F$25</f>
+        <f t="shared" ref="F2:O2" si="0">F18*$F$25</f>
         <v>0.39</v>
       </c>
       <c r="G2" s="3">
-        <f>G18*$F$25</f>
+        <f t="shared" si="0"/>
         <v>0.38592000000000004</v>
       </c>
       <c r="H2" s="3">
-        <f>H18*$F$25</f>
+        <f t="shared" si="0"/>
         <v>0.38184000000000001</v>
       </c>
       <c r="I2" s="3">
-        <f>I18*$F$25</f>
+        <f t="shared" si="0"/>
         <v>0.37776000000000004</v>
       </c>
       <c r="J2" s="3">
-        <f>J18*$F$25</f>
+        <f t="shared" si="0"/>
         <v>0.37360000000000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.35920000000000002</v>
+      </c>
+      <c r="L2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.33880000000000005</v>
+      </c>
+      <c r="M2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.31800000000000006</v>
+      </c>
+      <c r="N2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.29720000000000008</v>
+      </c>
+      <c r="O2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>5</v>
       </c>
@@ -2036,27 +2099,47 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="3">
-        <f>F18*$F$26</f>
+        <f t="shared" ref="F3:O3" si="1">F18*$F$26</f>
         <v>0.29249999999999998</v>
       </c>
       <c r="G3" s="3">
-        <f>G18*$F$26</f>
+        <f t="shared" si="1"/>
         <v>0.28943999999999998</v>
       </c>
       <c r="H3" s="3">
-        <f>H18*$F$26</f>
+        <f t="shared" si="1"/>
         <v>0.28637999999999997</v>
       </c>
       <c r="I3" s="3">
-        <f>I18*$F$26</f>
+        <f t="shared" si="1"/>
         <v>0.28332000000000002</v>
       </c>
       <c r="J3" s="3">
-        <f>J18*$F$26</f>
+        <f t="shared" si="1"/>
         <v>0.2802</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="3">
+        <f t="shared" si="1"/>
+        <v>0.26939999999999997</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" si="1"/>
+        <v>0.25409999999999999</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" si="1"/>
+        <v>0.23849999999999999</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" si="1"/>
+        <v>0.22290000000000001</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" si="1"/>
+        <v>0.20700000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>6</v>
       </c>
@@ -2071,27 +2154,47 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="3">
-        <f>F18*$F$27</f>
+        <f t="shared" ref="F4:O4" si="2">F18*$F$27</f>
         <v>0.19500000000000001</v>
       </c>
       <c r="G4" s="3">
-        <f>G18*$F$27</f>
+        <f t="shared" si="2"/>
         <v>0.19296000000000002</v>
       </c>
       <c r="H4" s="3">
-        <f>H18*$F$27</f>
+        <f t="shared" si="2"/>
         <v>0.19092000000000001</v>
       </c>
       <c r="I4" s="3">
-        <f>I18*$F$27</f>
+        <f t="shared" si="2"/>
         <v>0.18888000000000002</v>
       </c>
       <c r="J4" s="3">
-        <f>J18*$F$27</f>
+        <f t="shared" si="2"/>
         <v>0.18680000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.17960000000000001</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.16940000000000002</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.15900000000000003</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.14860000000000004</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>7</v>
       </c>
@@ -2106,27 +2209,47 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="3">
-        <f>F18*$F$28</f>
+        <f t="shared" ref="F5:O5" si="3">F18*$F$28</f>
         <v>9.7500000000000003E-2</v>
       </c>
       <c r="G5" s="3">
-        <f>G18*$F$28</f>
+        <f t="shared" si="3"/>
         <v>9.648000000000001E-2</v>
       </c>
       <c r="H5" s="3">
-        <f>H18*$F$28</f>
+        <f t="shared" si="3"/>
         <v>9.5460000000000003E-2</v>
       </c>
       <c r="I5" s="3">
-        <f>I18*$F$28</f>
+        <f t="shared" si="3"/>
         <v>9.444000000000001E-2</v>
       </c>
       <c r="J5" s="3">
-        <f>J18*$F$28</f>
+        <f t="shared" si="3"/>
         <v>9.3400000000000011E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="3">
+        <f t="shared" si="3"/>
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="3"/>
+        <v>8.4700000000000011E-2</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="3"/>
+        <v>7.9500000000000015E-2</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="3"/>
+        <v>7.4300000000000019E-2</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="3"/>
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -2141,27 +2264,47 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2">
-        <f>F19*$F$25</f>
+        <f t="shared" ref="F6:O6" si="4">F19*$F$25</f>
         <v>1.0000000000000002E-2</v>
       </c>
       <c r="G6" s="2">
-        <f>G19*$F$25</f>
+        <f t="shared" si="4"/>
         <v>1.4000000000000002E-2</v>
       </c>
       <c r="H6" s="2">
-        <f>H19*$F$25</f>
+        <f t="shared" si="4"/>
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="I6" s="2">
-        <f>I19*$F$25</f>
+        <f t="shared" si="4"/>
         <v>2.2000000000000002E-2</v>
       </c>
       <c r="J6" s="2">
-        <f>J19*$F$25</f>
+        <f t="shared" si="4"/>
         <v>2.6000000000000002E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="2">
+        <f t="shared" si="4"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -2176,27 +2319,47 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2">
-        <f>F19*$F$26</f>
+        <f t="shared" ref="F7:O7" si="5">F19*$F$26</f>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G7" s="2">
-        <f>G19*$F$26</f>
+        <f t="shared" si="5"/>
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="H7" s="2">
-        <f>H19*$F$26</f>
+        <f t="shared" si="5"/>
         <v>1.35E-2</v>
       </c>
       <c r="I7" s="2">
-        <f>I19*$F$26</f>
+        <f t="shared" si="5"/>
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="J7" s="2">
-        <f>J19*$F$26</f>
+        <f t="shared" si="5"/>
         <v>1.95E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="5"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.06</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="5"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -2211,27 +2374,47 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2">
-        <f>F19*$F$27</f>
+        <f t="shared" ref="F8:O8" si="6">F19*$F$27</f>
         <v>5.000000000000001E-3</v>
       </c>
       <c r="G8" s="2">
-        <f>G19*$F$27</f>
+        <f t="shared" si="6"/>
         <v>7.000000000000001E-3</v>
       </c>
       <c r="H8" s="2">
-        <f>H19*$F$27</f>
+        <f t="shared" si="6"/>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I8" s="2">
-        <f>I19*$F$27</f>
+        <f t="shared" si="6"/>
         <v>1.1000000000000001E-2</v>
       </c>
       <c r="J8" s="2">
-        <f>J19*$F$27</f>
+        <f t="shared" si="6"/>
         <v>1.3000000000000001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="2">
+        <f t="shared" si="6"/>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.03</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="6"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -2246,27 +2429,47 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2">
-        <f>F19*$F$28</f>
+        <f t="shared" ref="F9:O9" si="7">F19*$F$28</f>
         <v>2.5000000000000005E-3</v>
       </c>
       <c r="G9" s="2">
-        <f>G19*$F$28</f>
+        <f t="shared" si="7"/>
         <v>3.5000000000000005E-3</v>
       </c>
       <c r="H9" s="2">
-        <f>H19*$F$28</f>
+        <f t="shared" si="7"/>
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="I9" s="2">
-        <f>I19*$F$28</f>
+        <f t="shared" si="7"/>
         <v>5.5000000000000005E-3</v>
       </c>
       <c r="J9" s="2">
-        <f>J19*$F$28</f>
+        <f t="shared" si="7"/>
         <v>6.5000000000000006E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="7"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>12</v>
       </c>
@@ -2281,27 +2484,47 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="3">
-        <f>F20*$F$25</f>
+        <f t="shared" ref="F10:O10" si="8">F20*$F$25</f>
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <f>G20*$F$25</f>
+        <f t="shared" si="8"/>
         <v>8.0000000000000007E-5</v>
       </c>
       <c r="H10" s="3">
-        <f>H20*$F$25</f>
+        <f t="shared" si="8"/>
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="I10" s="3">
-        <f>I20*$F$25</f>
+        <f t="shared" si="8"/>
         <v>2.3999999999999998E-4</v>
       </c>
       <c r="J10" s="3">
-        <f>J20*$F$25</f>
+        <f t="shared" si="8"/>
         <v>4.0000000000000002E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="3">
+        <f t="shared" si="8"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="8"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="8"/>
+        <v>2E-3</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="8"/>
+        <v>2.8000000000000004E-3</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="8"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>13</v>
       </c>
@@ -2316,27 +2539,47 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="3">
-        <f>F20*$F$26</f>
+        <f t="shared" ref="F11:O11" si="9">F20*$F$26</f>
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <f>G20*$F$26</f>
+        <f t="shared" si="9"/>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="H11" s="3">
-        <f>H20*$F$26</f>
+        <f t="shared" si="9"/>
         <v>1.2E-4</v>
       </c>
       <c r="I11" s="3">
-        <f>I20*$F$26</f>
+        <f t="shared" si="9"/>
         <v>1.7999999999999998E-4</v>
       </c>
       <c r="J11" s="3">
-        <f>J20*$F$26</f>
+        <f t="shared" si="9"/>
         <v>2.9999999999999997E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="3">
+        <f t="shared" si="9"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="9"/>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="9"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="9"/>
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="9"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>14</v>
       </c>
@@ -2351,27 +2594,47 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="3">
-        <f>F20*$F$27</f>
+        <f t="shared" ref="F12:O12" si="10">F20*$F$27</f>
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <f>G20*$F$27</f>
+        <f t="shared" si="10"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H12" s="3">
-        <f>H20*$F$27</f>
+        <f t="shared" si="10"/>
         <v>8.0000000000000007E-5</v>
       </c>
       <c r="I12" s="3">
-        <f>I20*$F$27</f>
+        <f t="shared" si="10"/>
         <v>1.1999999999999999E-4</v>
       </c>
       <c r="J12" s="3">
-        <f>J20*F27</f>
+        <f t="shared" si="10"/>
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="3">
+        <f t="shared" si="10"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="10"/>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="10"/>
+        <v>1E-3</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="10"/>
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="10"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>15</v>
       </c>
@@ -2386,27 +2649,47 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="3">
-        <f>F20*$F$28</f>
+        <f t="shared" ref="F13:O13" si="11">F20*$F$28</f>
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <f>G20*$F$28</f>
+        <f t="shared" si="11"/>
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="H13" s="3">
-        <f>H20*$F$28</f>
+        <f t="shared" si="11"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="I13" s="3">
-        <f>I20*$F$28</f>
+        <f t="shared" si="11"/>
         <v>5.9999999999999995E-5</v>
       </c>
       <c r="J13" s="3">
-        <f>J20*F28</f>
+        <f t="shared" si="11"/>
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <f t="shared" si="11"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="11"/>
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="11"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="11"/>
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="11"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>16</v>
       </c>
@@ -2425,47 +2708,82 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
       <c r="F15" s="3">
-        <f>SUM(F2:F14)</f>
+        <f t="shared" ref="F15:O15" si="12">SUM(F2:F14)</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="G15" s="3">
-        <f>SUM(G2:G14)</f>
+        <f t="shared" si="12"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="H15" s="3">
-        <f>SUM(H2:H14)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I15" s="3">
-        <f>SUM(I2:I14)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J15" s="3">
-        <f>SUM(J2:J14)</f>
+        <f t="shared" si="12"/>
         <v>0.99999999999999989</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="3">
+        <f t="shared" si="12"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="12"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="12"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E18" s="1" t="s">
         <v>38</v>
       </c>
@@ -2484,8 +2802,28 @@
       <c r="J18" s="3">
         <v>0.93400000000000005</v>
       </c>
-    </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="3">
+        <f>93.4%-3.6%</f>
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="L18" s="3">
+        <f>93.4%-8.7%</f>
+        <v>0.84700000000000009</v>
+      </c>
+      <c r="M18" s="3">
+        <f>93.4%-13.9%</f>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="N18" s="3">
+        <f>93.4%-19.1%</f>
+        <v>0.7430000000000001</v>
+      </c>
+      <c r="O18" s="3">
+        <f>93.4%-24.4%</f>
+        <v>0.69000000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E19" s="1" t="s">
         <v>39</v>
       </c>
@@ -2504,8 +2842,23 @@
       <c r="J19" s="3">
         <v>6.5000000000000002E-2</v>
       </c>
-    </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E20" s="1" t="s">
         <v>40</v>
       </c>
@@ -2524,8 +2877,23 @@
       <c r="J20" s="3">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="L20" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M20" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N20" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>41</v>
       </c>
@@ -2534,41 +2902,71 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F22" s="3">
-        <f>SUM(F17:F20)</f>
+        <f t="shared" ref="F22:O22" si="13">SUM(F17:F20)</f>
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <f>SUM(G17:G20)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H22" s="3">
-        <f>SUM(H17:H20)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I22" s="3">
-        <f>SUM(I17:I20)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J22" s="3">
-        <f>SUM(J17:J20)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E23" s="1"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E24" s="4" t="s">
         <v>43</v>
       </c>
@@ -2577,8 +2975,13 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E25" s="1">
         <v>4</v>
       </c>
@@ -2594,8 +2997,13 @@
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E26" s="1">
         <v>3</v>
       </c>
@@ -2611,8 +3019,13 @@
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E27" s="1">
         <v>2</v>
       </c>
@@ -2628,8 +3041,13 @@
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E28" s="1">
         <v>1</v>
       </c>
@@ -2645,8 +3063,13 @@
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E29" s="1"/>
       <c r="F29" s="3">
         <f>SUM(F25:F28)</f>
@@ -2661,17 +3084,28 @@
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E30" s="1"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F285753-CE56-45BA-8D09-297C87CA27E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C98327-4241-4C3D-A254-07FED5C99638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="705" yWindow="3975" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -780,27 +780,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="17.375" customWidth="1"/>
     <col min="9" max="9" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
     <col min="11" max="15" width="13.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
     <col min="17" max="18" width="13.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -868,7 +869,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -897,34 +898,34 @@
         <v>1</v>
       </c>
       <c r="J2" s="6">
-        <v>0.26200000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="K2" s="6">
-        <v>0.20800000000000002</v>
+        <v>0.38592000000000004</v>
       </c>
       <c r="L2" s="6">
-        <v>0.17</v>
+        <v>0.38184000000000001</v>
       </c>
       <c r="M2" s="6">
-        <v>0.14399999999999999</v>
+        <v>0.37776000000000004</v>
       </c>
       <c r="N2" s="6">
-        <v>0.124</v>
+        <v>0.37360000000000004</v>
       </c>
       <c r="O2" s="6">
-        <v>0.10720000000000002</v>
+        <v>0.35920000000000002</v>
       </c>
       <c r="P2" s="6">
-        <v>8.2799999999999999E-2</v>
+        <v>0.33880000000000005</v>
       </c>
       <c r="Q2" s="6">
-        <v>5.7999999999999996E-2</v>
+        <v>0.31800000000000006</v>
       </c>
       <c r="R2" s="6">
-        <v>3.32E-2</v>
+        <v>0.29720000000000008</v>
       </c>
       <c r="S2" s="6">
-        <v>0</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="T2">
         <v>11</v>
@@ -936,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -965,34 +966,34 @@
         <v>1</v>
       </c>
       <c r="J3" s="6">
-        <v>0.19650000000000001</v>
+        <v>0.29249999999999998</v>
       </c>
       <c r="K3" s="6">
-        <v>0.156</v>
+        <v>0.28943999999999998</v>
       </c>
       <c r="L3" s="6">
-        <v>0.1275</v>
+        <v>0.28637999999999997</v>
       </c>
       <c r="M3" s="6">
-        <v>0.10800000000000001</v>
+        <v>0.28332000000000002</v>
       </c>
       <c r="N3" s="6">
-        <v>9.3000000000000013E-2</v>
+        <v>0.2802</v>
       </c>
       <c r="O3" s="6">
-        <v>8.0399999999999985E-2</v>
+        <v>0.26939999999999997</v>
       </c>
       <c r="P3" s="6">
-        <v>6.2100000000000002E-2</v>
+        <v>0.25409999999999999</v>
       </c>
       <c r="Q3" s="6">
-        <v>4.3499999999999997E-2</v>
+        <v>0.23849999999999999</v>
       </c>
       <c r="R3" s="6">
-        <v>2.4900000000000002E-2</v>
+        <v>0.22290000000000001</v>
       </c>
       <c r="S3" s="6">
-        <v>0</v>
+        <v>0.20700000000000002</v>
       </c>
       <c r="T3">
         <v>11</v>
@@ -1004,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1033,34 +1034,34 @@
         <v>1</v>
       </c>
       <c r="J4" s="6">
-        <v>0.13100000000000001</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="K4" s="6">
-        <v>0.10400000000000001</v>
+        <v>0.19296000000000002</v>
       </c>
       <c r="L4" s="6">
-        <v>8.5000000000000006E-2</v>
+        <v>0.19092000000000001</v>
       </c>
       <c r="M4" s="6">
-        <v>7.1999999999999995E-2</v>
+        <v>0.18888000000000002</v>
       </c>
       <c r="N4" s="6">
-        <v>6.2E-2</v>
+        <v>0.18680000000000002</v>
       </c>
       <c r="O4" s="6">
-        <v>5.3600000000000009E-2</v>
+        <v>0.17960000000000001</v>
       </c>
       <c r="P4" s="6">
-        <v>4.1399999999999999E-2</v>
+        <v>0.16940000000000002</v>
       </c>
       <c r="Q4" s="6">
-        <v>2.8999999999999998E-2</v>
+        <v>0.15900000000000003</v>
       </c>
       <c r="R4" s="6">
-        <v>1.66E-2</v>
+        <v>0.14860000000000004</v>
       </c>
       <c r="S4" s="6">
-        <v>0</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="T4">
         <v>11</v>
@@ -1072,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1101,34 +1102,34 @@
         <v>1</v>
       </c>
       <c r="J5" s="6">
-        <v>6.5500000000000003E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="K5" s="6">
-        <v>5.2000000000000005E-2</v>
+        <v>9.648000000000001E-2</v>
       </c>
       <c r="L5" s="6">
-        <v>4.2500000000000003E-2</v>
+        <v>9.5460000000000003E-2</v>
       </c>
       <c r="M5" s="6">
-        <v>3.5999999999999997E-2</v>
+        <v>9.444000000000001E-2</v>
       </c>
       <c r="N5" s="6">
-        <v>3.1E-2</v>
+        <v>9.3400000000000011E-2</v>
       </c>
       <c r="O5" s="6">
-        <v>2.6800000000000004E-2</v>
+        <v>8.9800000000000005E-2</v>
       </c>
       <c r="P5" s="6">
-        <v>2.07E-2</v>
+        <v>8.4700000000000011E-2</v>
       </c>
       <c r="Q5" s="6">
-        <v>1.4499999999999999E-2</v>
+        <v>7.9500000000000015E-2</v>
       </c>
       <c r="R5" s="6">
-        <v>8.3000000000000001E-3</v>
+        <v>7.4300000000000019E-2</v>
       </c>
       <c r="S5" s="6">
-        <v>0</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="T5">
         <v>11</v>
@@ -1140,7 +1141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1169,34 +1170,34 @@
         <v>1</v>
       </c>
       <c r="J6" s="6">
-        <v>0.13600000000000001</v>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="K6" s="6">
-        <v>0.18792</v>
+        <v>1.4000000000000002E-2</v>
       </c>
       <c r="L6" s="6">
-        <v>0.22384000000000001</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="M6" s="6">
-        <v>0.24775999999999995</v>
+        <v>2.2000000000000002E-2</v>
       </c>
       <c r="N6" s="6">
-        <v>0.2656</v>
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="O6" s="6">
-        <v>0.27999999999999997</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="P6" s="6">
-        <v>0.30000000000000004</v>
+        <v>0.06</v>
       </c>
       <c r="Q6" s="6">
-        <v>0.32000000000000006</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="R6" s="6">
-        <v>0.34</v>
+        <v>0.1</v>
       </c>
       <c r="S6" s="6">
-        <v>0.36400000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1208,7 +1209,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1237,34 +1238,34 @@
         <v>1</v>
       </c>
       <c r="J7" s="6">
-        <v>0.10200000000000001</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="K7" s="6">
-        <v>0.14093999999999998</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="L7" s="6">
-        <v>0.16788</v>
+        <v>1.35E-2</v>
       </c>
       <c r="M7" s="6">
-        <v>0.18581999999999999</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="N7" s="6">
-        <v>0.19920000000000002</v>
+        <v>1.95E-2</v>
       </c>
       <c r="O7" s="6">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="P7" s="6">
-        <v>0.22499999999999998</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="Q7" s="6">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
       <c r="R7" s="6">
-        <v>0.255</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="S7" s="6">
-        <v>0.27300000000000002</v>
+        <v>0.09</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1276,7 +1277,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1305,34 +1306,34 @@
         <v>1</v>
       </c>
       <c r="J8" s="6">
-        <v>6.8000000000000005E-2</v>
+        <v>5.000000000000001E-3</v>
       </c>
       <c r="K8" s="6">
-        <v>9.3960000000000002E-2</v>
+        <v>7.000000000000001E-3</v>
       </c>
       <c r="L8" s="6">
-        <v>0.11192000000000001</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="M8" s="6">
-        <v>0.12387999999999998</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="N8" s="6">
-        <v>0.1328</v>
+        <v>1.3000000000000001E-2</v>
       </c>
       <c r="O8" s="6">
-        <v>0.13999999999999999</v>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="P8" s="6">
-        <v>0.15000000000000002</v>
+        <v>0.03</v>
       </c>
       <c r="Q8" s="6">
-        <v>0.16000000000000003</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="R8" s="6">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="6">
-        <v>0.18200000000000002</v>
+        <v>0.06</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1344,7 +1345,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1373,34 +1374,34 @@
         <v>1</v>
       </c>
       <c r="J9" s="6">
-        <v>3.4000000000000002E-2</v>
+        <v>2.5000000000000005E-3</v>
       </c>
       <c r="K9" s="6">
-        <v>4.6980000000000001E-2</v>
+        <v>3.5000000000000005E-3</v>
       </c>
       <c r="L9" s="6">
-        <v>5.5960000000000003E-2</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="M9" s="6">
-        <v>6.1939999999999988E-2</v>
+        <v>5.5000000000000005E-3</v>
       </c>
       <c r="N9" s="6">
-        <v>6.6400000000000001E-2</v>
+        <v>6.5000000000000006E-3</v>
       </c>
       <c r="O9" s="6">
-        <v>6.9999999999999993E-2</v>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="P9" s="6">
-        <v>7.5000000000000011E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q9" s="6">
-        <v>8.0000000000000016E-2</v>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="R9" s="6">
-        <v>8.5000000000000006E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="S9" s="6">
-        <v>9.1000000000000011E-2</v>
+        <v>0.03</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1412,7 +1413,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1441,34 +1442,34 @@
         <v>1</v>
       </c>
       <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="M10" s="6">
+        <v>2.3999999999999998E-4</v>
+      </c>
+      <c r="N10" s="6">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="O10" s="6">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="P10" s="6">
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="Q10" s="6">
         <v>2E-3</v>
       </c>
-      <c r="K10" s="6">
+      <c r="R10" s="6">
+        <v>2.8000000000000004E-3</v>
+      </c>
+      <c r="S10" s="6">
         <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="L10" s="6">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="M10" s="6">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="N10" s="6">
-        <v>1.0000000000000002E-2</v>
-      </c>
-      <c r="O10" s="6">
-        <v>1.2E-2</v>
-      </c>
-      <c r="P10" s="6">
-        <v>1.6E-2</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="R10" s="6">
-        <v>2.4E-2</v>
-      </c>
-      <c r="S10" s="6">
-        <v>3.2000000000000001E-2</v>
       </c>
       <c r="T10">
         <v>4</v>
@@ -1480,7 +1481,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1509,34 +1510,34 @@
         <v>1</v>
       </c>
       <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1.2E-4</v>
+      </c>
+      <c r="M11" s="6">
+        <v>1.7999999999999998E-4</v>
+      </c>
+      <c r="N11" s="6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="O11" s="6">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="P11" s="6">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="Q11" s="6">
         <v>1.5E-3</v>
       </c>
-      <c r="K11" s="6">
+      <c r="R11" s="6">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="S11" s="6">
         <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L11" s="6">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="M11" s="6">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="N11" s="6">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="O11" s="6">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="P11" s="6">
-        <v>1.2E-2</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R11" s="6">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="S11" s="6">
-        <v>2.4E-2</v>
       </c>
       <c r="T11">
         <v>4</v>
@@ -1548,7 +1549,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1577,34 +1578,34 @@
         <v>1</v>
       </c>
       <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="L12" s="6">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1.1999999999999999E-4</v>
+      </c>
+      <c r="N12" s="6">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="O12" s="6">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="P12" s="6">
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="Q12" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K12" s="6">
+      <c r="R12" s="6">
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="S12" s="6">
         <v>2E-3</v>
-      </c>
-      <c r="L12" s="6">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="M12" s="6">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="N12" s="6">
-        <v>5.000000000000001E-3</v>
-      </c>
-      <c r="O12" s="6">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="P12" s="6">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>1.0000000000000002E-2</v>
-      </c>
-      <c r="R12" s="6">
-        <v>1.2E-2</v>
-      </c>
-      <c r="S12" s="6">
-        <v>1.6E-2</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -1616,7 +1617,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1645,34 +1646,34 @@
         <v>1</v>
       </c>
       <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="L13" s="6">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="M13" s="6">
+        <v>5.9999999999999995E-5</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1E-4</v>
+      </c>
+      <c r="O13" s="6">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P13" s="6">
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="Q13" s="6">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K13" s="6">
+      <c r="R13" s="6">
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="S13" s="6">
         <v>1E-3</v>
-      </c>
-      <c r="L13" s="6">
-        <v>1.5E-3</v>
-      </c>
-      <c r="M13" s="6">
-        <v>2E-3</v>
-      </c>
-      <c r="N13" s="6">
-        <v>2.5000000000000005E-3</v>
-      </c>
-      <c r="O13" s="6">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="P13" s="6">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>5.000000000000001E-3</v>
-      </c>
-      <c r="R13" s="6">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="S13" s="6">
-        <v>8.0000000000000002E-3</v>
       </c>
       <c r="T13">
         <v>2</v>
@@ -1684,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1716,31 +1717,31 @@
         <v>0</v>
       </c>
       <c r="K14" s="6">
-        <v>8.0000000000000007E-5</v>
+        <v>0</v>
       </c>
       <c r="L14" s="6">
-        <v>1.6000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="M14" s="6">
-        <v>2.3999999999999998E-4</v>
+        <v>0</v>
       </c>
       <c r="N14" s="6">
-        <v>4.0000000000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="O14" s="6">
-        <v>8.0000000000000004E-4</v>
+        <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>1.2000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="6">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="R14" s="6">
-        <v>2.8000000000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="S14" s="6">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="T14">
         <v>4</v>
@@ -1752,7 +1753,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1784,31 +1785,31 @@
         <v>0</v>
       </c>
       <c r="K15" s="6">
-        <v>6.0000000000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="L15" s="6">
-        <v>1.2E-4</v>
+        <v>0</v>
       </c>
       <c r="M15" s="6">
-        <v>1.7999999999999998E-4</v>
+        <v>0</v>
       </c>
       <c r="N15" s="6">
-        <v>2.9999999999999997E-4</v>
+        <v>0</v>
       </c>
       <c r="O15" s="6">
-        <v>5.9999999999999995E-4</v>
+        <v>0</v>
       </c>
       <c r="P15" s="6">
-        <v>8.9999999999999998E-4</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="6">
-        <v>1.5E-3</v>
+        <v>0</v>
       </c>
       <c r="R15" s="6">
-        <v>2.0999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="S15" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="T15">
         <v>4</v>
@@ -1820,7 +1821,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1852,31 +1853,31 @@
         <v>0</v>
       </c>
       <c r="K16" s="6">
-        <v>4.0000000000000003E-5</v>
+        <v>0</v>
       </c>
       <c r="L16" s="6">
-        <v>8.0000000000000007E-5</v>
+        <v>0</v>
       </c>
       <c r="M16" s="6">
-        <v>1.1999999999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="N16" s="6">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="O16" s="6">
-        <v>4.0000000000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="P16" s="6">
-        <v>6.0000000000000006E-4</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="6">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="R16" s="6">
-        <v>1.4000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="S16" s="6">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -1888,7 +1889,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1920,31 +1921,31 @@
         <v>0</v>
       </c>
       <c r="K17" s="6">
-        <v>2.0000000000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="L17" s="6">
-        <v>4.0000000000000003E-5</v>
+        <v>0</v>
       </c>
       <c r="M17" s="6">
-        <v>5.9999999999999995E-5</v>
+        <v>0</v>
       </c>
       <c r="N17" s="6">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="O17" s="6">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="P17" s="6">
-        <v>3.0000000000000003E-4</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="6">
-        <v>5.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="R17" s="6">
-        <v>7.000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="S17" s="6">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="T17">
         <v>2</v>
@@ -1971,11 +1972,11 @@
       <selection activeCell="F2" sqref="F2:O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.08203125" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
     <col min="6" max="6" width="18.25" customWidth="1"/>
     <col min="7" max="7" width="15.75" customWidth="1"/>
@@ -1984,7 +1985,7 @@
     <col min="10" max="15" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2029,7 +2030,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -2084,7 +2085,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -2139,7 +2140,7 @@
         <v>0.20700000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6</v>
       </c>
@@ -2194,7 +2195,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -2249,7 +2250,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -2304,7 +2305,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -2359,7 +2360,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -2414,7 +2415,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -2469,7 +2470,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>12</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>13</v>
       </c>
@@ -2579,7 +2580,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>14</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>15</v>
       </c>
@@ -2689,7 +2690,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>16</v>
       </c>
@@ -2714,7 +2715,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
       <c r="F15" s="3">
         <f t="shared" ref="F15:O15" si="12">SUM(F2:F14)</f>
@@ -2757,7 +2758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -2770,7 +2771,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -2783,7 +2784,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E18" s="1" t="s">
         <v>38</v>
       </c>
@@ -2823,7 +2824,7 @@
         <v>0.69000000000000006</v>
       </c>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
         <v>39</v>
       </c>
@@ -2858,7 +2859,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
         <v>40</v>
       </c>
@@ -2893,7 +2894,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>41</v>
       </c>
@@ -2908,7 +2909,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>42</v>
       </c>
@@ -2953,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E23" s="1"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -2966,7 +2967,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E24" s="4" t="s">
         <v>43</v>
       </c>
@@ -2981,7 +2982,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E25" s="1">
         <v>4</v>
       </c>
@@ -3003,7 +3004,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E26" s="1">
         <v>3</v>
       </c>
@@ -3025,7 +3026,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E27" s="1">
         <v>2</v>
       </c>
@@ -3047,7 +3048,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E28" s="1">
         <v>1</v>
       </c>
@@ -3069,7 +3070,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E29" s="1"/>
       <c r="F29" s="3">
         <f>SUM(F25:F28)</f>
@@ -3090,7 +3091,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E30" s="1"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C98327-4241-4C3D-A254-07FED5C99638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336D66C9-9512-4C8C-9CFE-D0E49A2D06EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="3975" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -300,64 +300,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>상급2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특급2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GachaLv6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GachaLv7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GachaLv8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GachaLv9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GachaLv10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>중급3</t>
-  </si>
-  <si>
-    <t>중급4</t>
-  </si>
-  <si>
-    <t>상급2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>상급3</t>
-  </si>
-  <si>
-    <t>상급4</t>
-  </si>
-  <si>
-    <t>특급2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특급4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>특급3</t>
-  </si>
-  <si>
-    <t>특급4</t>
-  </si>
-  <si>
-    <t>GachaLv6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GachaLv7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GachaLv8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GachaLv9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GachaLv10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하급1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하급2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하급3</t>
-  </si>
-  <si>
-    <t>하급4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -781,7 +789,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -877,7 +885,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -945,7 +953,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1013,7 +1021,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1081,7 +1089,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1149,7 +1157,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1217,7 +1225,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1285,7 +1293,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1353,7 +1361,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1421,7 +1429,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1489,7 +1497,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1557,7 +1565,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1625,7 +1633,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1693,7 +1701,7 @@
         <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -1761,7 +1769,7 @@
         <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -1829,7 +1837,7 @@
         <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -1897,7 +1905,7 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -2015,19 +2023,19 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336D66C9-9512-4C8C-9CFE-D0E49A2D06EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7A8D23-D980-430A-B24F-8A69F18E436D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -789,7 +789,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1716,7 +1716,7 @@
         <v>100</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -1784,7 +1784,7 @@
         <v>100</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -1852,7 +1852,7 @@
         <v>100</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -1920,7 +1920,7 @@
         <v>100</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7A8D23-D980-430A-B24F-8A69F18E436D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E5E481-6334-412D-87BE-67BDA8CF83E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="9420" yWindow="2100" windowWidth="28800" windowHeight="11160" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -328,22 +328,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하급1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하급2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하급4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하급3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중급4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,6 +349,22 @@
   </si>
   <si>
     <t>특급3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,7 +789,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -885,7 +885,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -953,7 +953,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1021,7 +1021,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1089,7 +1089,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1157,7 +1157,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1225,7 +1225,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1293,7 +1293,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1361,7 +1361,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1429,7 +1429,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1497,7 +1497,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1565,7 +1565,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1633,7 +1633,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1701,7 +1701,7 @@
         <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -1769,7 +1769,7 @@
         <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -1837,7 +1837,7 @@
         <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -1905,7 +1905,7 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D17">
         <v>4</v>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E5E481-6334-412D-87BE-67BDA8CF83E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9DD2D2-3101-4A0F-9CFE-3A6591588003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="2100" windowWidth="28800" windowHeight="11160" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,6 +365,34 @@
   </si>
   <si>
     <t>전설4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook16</t>
+  </si>
+  <si>
+    <t>magicBook17</t>
+  </si>
+  <si>
+    <t>magicBook18</t>
+  </si>
+  <si>
+    <t>magicBook19</t>
+  </si>
+  <si>
+    <t>요물1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요물2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요물3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요물4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -786,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1962,6 +1990,278 @@
         <v>10</v>
       </c>
       <c r="V17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>1.2</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>20</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0</v>
+      </c>
+      <c r="R18" s="6">
+        <v>0</v>
+      </c>
+      <c r="S18" s="6">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>10</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>1.2</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>20</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>0</v>
+      </c>
+      <c r="R19" s="6">
+        <v>0</v>
+      </c>
+      <c r="S19" s="6">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <v>10</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>1.2</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>20</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>0</v>
+      </c>
+      <c r="R20" s="6">
+        <v>0</v>
+      </c>
+      <c r="S20" s="6">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>10</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>1.2</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>20</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0</v>
+      </c>
+      <c r="R21" s="6">
+        <v>0</v>
+      </c>
+      <c r="S21" s="6">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>10</v>
+      </c>
+      <c r="V21">
         <v>1</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9DD2D2-3101-4A0F-9CFE-3A6591588003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AF84F4-6B87-44EF-9BED-E43794B43A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,19 +380,11 @@
     <t>magicBook19</t>
   </si>
   <si>
-    <t>요물1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요물2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요물3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요물4</t>
+    <t>NeedPetId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신물</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -814,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -837,7 +829,7 @@
     <col min="19" max="19" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -904,8 +896,11 @@
       <c r="V1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -972,8 +967,11 @@
       <c r="V2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1040,8 +1038,11 @@
       <c r="V3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1108,8 +1109,11 @@
       <c r="V4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1176,8 +1180,11 @@
       <c r="V5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1244,8 +1251,11 @@
       <c r="V6">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1312,8 +1322,11 @@
       <c r="V7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1380,8 +1393,11 @@
       <c r="V8">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1448,8 +1464,11 @@
       <c r="V9">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1516,8 +1535,11 @@
       <c r="V10">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1584,8 +1606,11 @@
       <c r="V11">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1652,8 +1677,11 @@
       <c r="V12">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1720,8 +1748,11 @@
       <c r="V13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1788,8 +1819,11 @@
       <c r="V14">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1856,8 +1890,11 @@
       <c r="V15">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1924,8 +1961,11 @@
       <c r="V16">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1992,8 +2032,11 @@
       <c r="V17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2001,7 +2044,7 @@
         <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -2016,7 +2059,7 @@
         <v>100</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -2060,8 +2103,11 @@
       <c r="V18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2084,7 +2130,7 @@
         <v>100</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -2128,8 +2174,11 @@
       <c r="V19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2137,7 +2186,7 @@
         <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -2152,7 +2201,7 @@
         <v>100</v>
       </c>
       <c r="H20">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -2196,8 +2245,11 @@
       <c r="V20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2205,7 +2257,7 @@
         <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -2220,7 +2272,7 @@
         <v>100</v>
       </c>
       <c r="H21">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -2263,6 +2315,9 @@
       </c>
       <c r="V21">
         <v>1</v>
+      </c>
+      <c r="W21">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AF84F4-6B87-44EF-9BED-E43794B43A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B555FDD4-FBE9-4A47-9CE8-242665080614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="98">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,6 +385,10 @@
   </si>
   <si>
     <t>신물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -806,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2317,6 +2321,77 @@
         <v>1</v>
       </c>
       <c r="W21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>1.2</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>27</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0</v>
+      </c>
+      <c r="P22" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0</v>
+      </c>
+      <c r="R22" s="6">
+        <v>0</v>
+      </c>
+      <c r="S22" s="6">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>10</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
         <v>7</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B555FDD4-FBE9-4A47-9CE8-242665080614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F98ED8-B1D7-40C9-84AF-E57B51BE7430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4215" yWindow="3255" windowWidth="26955" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -813,7 +813,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2344,7 +2344,7 @@
         <v>1.2</v>
       </c>
       <c r="G22">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H22">
         <v>27</v>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F98ED8-B1D7-40C9-84AF-E57B51BE7430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF9B537-EC21-4568-A679-3EC2399C9631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="3255" windowWidth="26955" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="99">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,6 +389,10 @@
   </si>
   <si>
     <t>magicBook20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -810,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2392,6 +2396,77 @@
         <v>1</v>
       </c>
       <c r="W22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>1.2</v>
+      </c>
+      <c r="G23">
+        <v>200</v>
+      </c>
+      <c r="H23">
+        <v>31</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6">
+        <v>0</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0</v>
+      </c>
+      <c r="R23" s="6">
+        <v>0</v>
+      </c>
+      <c r="S23" s="6">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <v>10</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
         <v>7</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF9B537-EC21-4568-A679-3EC2399C9631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83E505D-1C77-466A-B208-3D7C8E895E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="101">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -393,6 +393,14 @@
   </si>
   <si>
     <t>magicBook21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldAbilRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -496,6 +504,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -814,14 +828,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="6.375" customWidth="1"/>
@@ -830,14 +845,15 @@
     <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="17.375" customWidth="1"/>
     <col min="9" max="9" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="13.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="18" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -907,8 +923,11 @@
       <c r="W1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -978,8 +997,11 @@
       <c r="W2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1049,8 +1071,11 @@
       <c r="W3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1120,8 +1145,11 @@
       <c r="W4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1191,8 +1219,11 @@
       <c r="W5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1262,8 +1293,11 @@
       <c r="W6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1333,8 +1367,11 @@
       <c r="W7">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1404,8 +1441,11 @@
       <c r="W8">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1475,931 +1515,973 @@
       <c r="W9">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="X9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>4</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>1.2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>100</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>9</v>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
+      <c r="I10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="8">
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="8">
         <v>2.3999999999999998E-4</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="8">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="8">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="8">
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="8">
         <v>2E-3</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="8">
         <v>2.8000000000000004E-3</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="4">
         <v>4</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="4">
         <v>10</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="4">
         <v>0.15</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="X10" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>3</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>4</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>1.2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>100</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <v>10</v>
       </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
+      <c r="I11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="8">
         <v>1.2E-4</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="8">
         <v>1.7999999999999998E-4</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="8">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="8">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="8">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="8">
         <v>1.5E-3</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="8">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="4">
         <v>4</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="4">
         <v>10</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="4">
         <v>0.15</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="X11" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>3</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>4</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>1.2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>100</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <v>11</v>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6">
+      <c r="I12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="8">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="8">
         <v>1.1999999999999999E-4</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="8">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="8">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="8">
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="8">
         <v>1E-3</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="8">
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="8">
         <v>2E-3</v>
       </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
+      <c r="T12" s="4">
+        <v>1</v>
+      </c>
+      <c r="U12" s="4">
         <v>10</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="4">
         <v>0.01</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="X12" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>3</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>4</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>1.2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4">
         <v>100</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="4">
         <v>12</v>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="6">
-        <v>0</v>
-      </c>
-      <c r="K13" s="6">
+      <c r="I13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="8">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="8">
         <v>5.9999999999999995E-5</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="8">
         <v>1E-4</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="8">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="8">
         <v>3.0000000000000003E-4</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="8">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="8">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="8">
         <v>1E-3</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="4">
         <v>2</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="4">
         <v>10</v>
       </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13">
+      <c r="V13" s="4">
+        <v>1</v>
+      </c>
+      <c r="W13" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="X13" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>4</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>4</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>1.2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>100</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>17</v>
       </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0</v>
-      </c>
-      <c r="M14" s="6">
-        <v>0</v>
-      </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>0</v>
-      </c>
-      <c r="R14" s="6">
-        <v>0</v>
-      </c>
-      <c r="S14" s="6">
-        <v>0</v>
-      </c>
-      <c r="T14">
+      <c r="I14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0</v>
+      </c>
+      <c r="S14" s="7">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
         <v>4</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="1">
         <v>10</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="1">
         <v>0.15</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="X14" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>4</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>4</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>1.2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>100</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>18</v>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0</v>
-      </c>
-      <c r="M15" s="6">
-        <v>0</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="O15" s="6">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>0</v>
-      </c>
-      <c r="R15" s="6">
-        <v>0</v>
-      </c>
-      <c r="S15" s="6">
-        <v>0</v>
-      </c>
-      <c r="T15">
+      <c r="I15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+      <c r="R15" s="7">
+        <v>0</v>
+      </c>
+      <c r="S15" s="7">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
         <v>4</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="1">
         <v>10</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="1">
         <v>0.15</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="X15" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>4</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>4</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>1.2</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>100</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>19</v>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>0</v>
-      </c>
-      <c r="R16" s="6">
-        <v>0</v>
-      </c>
-      <c r="S16" s="6">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
+      <c r="I16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+      <c r="R16" s="7">
+        <v>0</v>
+      </c>
+      <c r="S16" s="7">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1</v>
+      </c>
+      <c r="U16" s="1">
         <v>10</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="1">
         <v>0.01</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="X16" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>4</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>4</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>1.2</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>100</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>20</v>
       </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0</v>
-      </c>
-      <c r="K17" s="6">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6">
-        <v>0</v>
-      </c>
-      <c r="M17" s="6">
-        <v>0</v>
-      </c>
-      <c r="N17" s="6">
-        <v>0</v>
-      </c>
-      <c r="O17" s="6">
-        <v>0</v>
-      </c>
-      <c r="P17" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>0</v>
-      </c>
-      <c r="R17" s="6">
-        <v>0</v>
-      </c>
-      <c r="S17" s="6">
-        <v>0</v>
-      </c>
-      <c r="T17">
+      <c r="I17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0</v>
+      </c>
+      <c r="S17" s="7">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
         <v>2</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="1">
         <v>10</v>
       </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
-      <c r="W17">
+      <c r="V17" s="1">
+        <v>1</v>
+      </c>
+      <c r="W17" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="X17" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>5</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <v>4</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>1.2</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="4">
         <v>100</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="4">
         <v>22</v>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0</v>
-      </c>
-      <c r="K18" s="6">
-        <v>0</v>
-      </c>
-      <c r="L18" s="6">
-        <v>0</v>
-      </c>
-      <c r="M18" s="6">
-        <v>0</v>
-      </c>
-      <c r="N18" s="6">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6">
-        <v>0</v>
-      </c>
-      <c r="P18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>0</v>
-      </c>
-      <c r="R18" s="6">
-        <v>0</v>
-      </c>
-      <c r="S18" s="6">
-        <v>0</v>
-      </c>
-      <c r="T18">
+      <c r="I18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0</v>
+      </c>
+      <c r="P18" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>0</v>
+      </c>
+      <c r="R18" s="8">
+        <v>0</v>
+      </c>
+      <c r="S18" s="8">
+        <v>0</v>
+      </c>
+      <c r="T18" s="4">
         <v>2</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="4">
         <v>10</v>
       </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
+      <c r="V18" s="4">
+        <v>1</v>
+      </c>
+      <c r="W18" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="X18" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>5</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>4</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>1.2</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="4">
         <v>100</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <v>23</v>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0</v>
-      </c>
-      <c r="K19" s="6">
-        <v>0</v>
-      </c>
-      <c r="L19" s="6">
-        <v>0</v>
-      </c>
-      <c r="M19" s="6">
-        <v>0</v>
-      </c>
-      <c r="N19" s="6">
-        <v>0</v>
-      </c>
-      <c r="O19" s="6">
-        <v>0</v>
-      </c>
-      <c r="P19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>0</v>
-      </c>
-      <c r="R19" s="6">
-        <v>0</v>
-      </c>
-      <c r="S19" s="6">
-        <v>0</v>
-      </c>
-      <c r="T19">
+      <c r="I19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0</v>
+      </c>
+      <c r="P19" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>0</v>
+      </c>
+      <c r="R19" s="8">
+        <v>0</v>
+      </c>
+      <c r="S19" s="8">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
         <v>2</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="4">
         <v>10</v>
       </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19">
+      <c r="V19" s="4">
+        <v>1</v>
+      </c>
+      <c r="W19" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="X19" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>5</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>4</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>1.2</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="4">
         <v>100</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="4">
         <v>24</v>
       </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0</v>
-      </c>
-      <c r="K20" s="6">
-        <v>0</v>
-      </c>
-      <c r="L20" s="6">
-        <v>0</v>
-      </c>
-      <c r="M20" s="6">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6">
-        <v>0</v>
-      </c>
-      <c r="O20" s="6">
-        <v>0</v>
-      </c>
-      <c r="P20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>0</v>
-      </c>
-      <c r="R20" s="6">
-        <v>0</v>
-      </c>
-      <c r="S20" s="6">
-        <v>0</v>
-      </c>
-      <c r="T20">
+      <c r="I20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0</v>
+      </c>
+      <c r="P20" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>0</v>
+      </c>
+      <c r="R20" s="8">
+        <v>0</v>
+      </c>
+      <c r="S20" s="8">
+        <v>0</v>
+      </c>
+      <c r="T20" s="4">
         <v>2</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="4">
         <v>10</v>
       </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="W20">
+      <c r="V20" s="4">
+        <v>1</v>
+      </c>
+      <c r="W20" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="X20" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>5</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>4</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>1.2</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>100</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
         <v>25</v>
       </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="6">
-        <v>0</v>
-      </c>
-      <c r="K21" s="6">
-        <v>0</v>
-      </c>
-      <c r="L21" s="6">
-        <v>0</v>
-      </c>
-      <c r="M21" s="6">
-        <v>0</v>
-      </c>
-      <c r="N21" s="6">
-        <v>0</v>
-      </c>
-      <c r="O21" s="6">
-        <v>0</v>
-      </c>
-      <c r="P21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>0</v>
-      </c>
-      <c r="R21" s="6">
-        <v>0</v>
-      </c>
-      <c r="S21" s="6">
-        <v>0</v>
-      </c>
-      <c r="T21">
+      <c r="I21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0</v>
+      </c>
+      <c r="P21" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>0</v>
+      </c>
+      <c r="R21" s="8">
+        <v>0</v>
+      </c>
+      <c r="S21" s="8">
+        <v>0</v>
+      </c>
+      <c r="T21" s="4">
         <v>2</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="4">
         <v>10</v>
       </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
+      <c r="V21" s="4">
+        <v>1</v>
+      </c>
+      <c r="W21" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="X21" s="4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>6</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>4</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>1.2</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="4">
         <v>200</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="4">
         <v>27</v>
       </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0</v>
-      </c>
-      <c r="K22" s="6">
-        <v>0</v>
-      </c>
-      <c r="L22" s="6">
-        <v>0</v>
-      </c>
-      <c r="M22" s="6">
-        <v>0</v>
-      </c>
-      <c r="N22" s="6">
-        <v>0</v>
-      </c>
-      <c r="O22" s="6">
-        <v>0</v>
-      </c>
-      <c r="P22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>0</v>
-      </c>
-      <c r="R22" s="6">
-        <v>0</v>
-      </c>
-      <c r="S22" s="6">
-        <v>0</v>
-      </c>
-      <c r="T22">
+      <c r="I22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0</v>
+      </c>
+      <c r="P22" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>0</v>
+      </c>
+      <c r="R22" s="8">
+        <v>0</v>
+      </c>
+      <c r="S22" s="8">
+        <v>0</v>
+      </c>
+      <c r="T22" s="4">
         <v>2</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="4">
         <v>10</v>
       </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
-      <c r="W22">
+      <c r="V22" s="4">
+        <v>1</v>
+      </c>
+      <c r="W22" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X22" s="4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2468,6 +2550,83 @@
       </c>
       <c r="W23">
         <v>7</v>
+      </c>
+      <c r="X23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>1.2</v>
+      </c>
+      <c r="G24">
+        <v>200</v>
+      </c>
+      <c r="H24">
+        <v>32</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
+        <v>0</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0</v>
+      </c>
+      <c r="R24" s="6">
+        <v>0</v>
+      </c>
+      <c r="S24" s="6">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <v>10</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>7</v>
+      </c>
+      <c r="X24">
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83E505D-1C77-466A-B208-3D7C8E895E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0CE9FC-C3F9-4660-8E2F-DF291A23BF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="103">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,6 +401,14 @@
   </si>
   <si>
     <t>magicBook22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -828,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2555,7 +2563,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2627,6 +2635,154 @@
       </c>
       <c r="X24">
         <v>700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>1.2</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>33</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6">
+        <v>0</v>
+      </c>
+      <c r="O25" s="6">
+        <v>0</v>
+      </c>
+      <c r="P25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0</v>
+      </c>
+      <c r="R25" s="6">
+        <v>0</v>
+      </c>
+      <c r="S25" s="6">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>2</v>
+      </c>
+      <c r="U25">
+        <v>10</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>7</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>1.2</v>
+      </c>
+      <c r="G26">
+        <v>200</v>
+      </c>
+      <c r="H26">
+        <v>34</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>0</v>
+      </c>
+      <c r="R26" s="6">
+        <v>0</v>
+      </c>
+      <c r="S26" s="6">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <v>10</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>7</v>
+      </c>
+      <c r="X26">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0CE9FC-C3F9-4660-8E2F-DF291A23BF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DA4092-FE46-45FD-835D-0E42971878BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="104">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,6 +409,10 @@
   </si>
   <si>
     <t>magicBook24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -836,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2782,6 +2786,80 @@
         <v>7</v>
       </c>
       <c r="X26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>1.2</v>
+      </c>
+      <c r="G27">
+        <v>200</v>
+      </c>
+      <c r="H27">
+        <v>34</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>0</v>
+      </c>
+      <c r="R27" s="6">
+        <v>0</v>
+      </c>
+      <c r="S27" s="6">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>10</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>7</v>
+      </c>
+      <c r="X27">
         <v>1000</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DA4092-FE46-45FD-835D-0E42971878BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16757504-BB59-4573-854B-0B30EC1A312D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1080" yWindow="2460" windowWidth="32445" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -842,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2812,7 +2812,7 @@
         <v>200</v>
       </c>
       <c r="H27">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
@@ -2860,7 +2860,7 @@
         <v>7</v>
       </c>
       <c r="X27">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16757504-BB59-4573-854B-0B30EC1A312D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA4C1AD-D9A5-4648-A6ED-C06CD820FCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="2460" windowWidth="32445" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="105">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,6 +413,10 @@
   </si>
   <si>
     <t>magicBook25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -840,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2860,6 +2864,80 @@
         <v>7</v>
       </c>
       <c r="X27">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>1.2</v>
+      </c>
+      <c r="G28">
+        <v>200</v>
+      </c>
+      <c r="H28">
+        <v>37</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0</v>
+      </c>
+      <c r="M28" s="6">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
+      <c r="P28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>0</v>
+      </c>
+      <c r="R28" s="6">
+        <v>0</v>
+      </c>
+      <c r="S28" s="6">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>2</v>
+      </c>
+      <c r="U28">
+        <v>10</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>7</v>
+      </c>
+      <c r="X28">
         <v>1500</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA4C1AD-D9A5-4648-A6ED-C06CD820FCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BB04D3-9576-4191-A5FB-62A343E35AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2890,7 +2890,7 @@
         <v>200</v>
       </c>
       <c r="H28">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
@@ -2938,7 +2938,7 @@
         <v>7</v>
       </c>
       <c r="X28">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BB04D3-9576-4191-A5FB-62A343E35AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F90057-2769-4EDF-9802-DC793062D675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,6 +417,10 @@
   </si>
   <si>
     <t>magicBook26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -844,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:X28"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2938,6 +2942,80 @@
         <v>7</v>
       </c>
       <c r="X28">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>1.2</v>
+      </c>
+      <c r="G29">
+        <v>200</v>
+      </c>
+      <c r="H29">
+        <v>38</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0</v>
+      </c>
+      <c r="K29" s="6">
+        <v>0</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6">
+        <v>0</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0</v>
+      </c>
+      <c r="P29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>0</v>
+      </c>
+      <c r="R29" s="6">
+        <v>0</v>
+      </c>
+      <c r="S29" s="6">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="U29">
+        <v>10</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>7</v>
+      </c>
+      <c r="X29">
         <v>2000</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F90057-2769-4EDF-9802-DC793062D675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A990FF7C-C234-4901-9311-DE2F4BCA8061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="105">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,10 +417,6 @@
   </si>
   <si>
     <t>magicBook26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicBook27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:X29"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2942,80 +2938,6 @@
         <v>7</v>
       </c>
       <c r="X28">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29">
-        <v>8</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
-      </c>
-      <c r="F29">
-        <v>1.2</v>
-      </c>
-      <c r="G29">
-        <v>200</v>
-      </c>
-      <c r="H29">
-        <v>38</v>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" s="6">
-        <v>0</v>
-      </c>
-      <c r="K29" s="6">
-        <v>0</v>
-      </c>
-      <c r="L29" s="6">
-        <v>0</v>
-      </c>
-      <c r="M29" s="6">
-        <v>0</v>
-      </c>
-      <c r="N29" s="6">
-        <v>0</v>
-      </c>
-      <c r="O29" s="6">
-        <v>0</v>
-      </c>
-      <c r="P29" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>0</v>
-      </c>
-      <c r="R29" s="6">
-        <v>0</v>
-      </c>
-      <c r="S29" s="6">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>2</v>
-      </c>
-      <c r="U29">
-        <v>10</v>
-      </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-      <c r="W29">
-        <v>7</v>
-      </c>
-      <c r="X29">
         <v>2000</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A990FF7C-C234-4901-9311-DE2F4BCA8061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156C31FF-76BD-4EDF-8E2F-176501B6E3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,6 +417,10 @@
   </si>
   <si>
     <t>magicBook26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -844,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:X28"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2938,6 +2942,80 @@
         <v>7</v>
       </c>
       <c r="X28">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>1.2</v>
+      </c>
+      <c r="G29">
+        <v>200</v>
+      </c>
+      <c r="H29">
+        <v>42</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0</v>
+      </c>
+      <c r="K29" s="6">
+        <v>0</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6">
+        <v>0</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0</v>
+      </c>
+      <c r="P29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>0</v>
+      </c>
+      <c r="R29" s="6">
+        <v>0</v>
+      </c>
+      <c r="S29" s="6">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="U29">
+        <v>10</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>7</v>
+      </c>
+      <c r="X29">
         <v>2000</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156C31FF-76BD-4EDF-8E2F-176501B6E3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68673E4-5918-46FE-8700-8F81B7684762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -851,7 +851,7 @@
   <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3016,7 +3016,7 @@
         <v>7</v>
       </c>
       <c r="X29">
-        <v>2000</v>
+        <v>2500</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68673E4-5918-46FE-8700-8F81B7684762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA128945-26C4-4E66-B9CE-3265A69AB9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3600" yWindow="2256" windowWidth="17280" windowHeight="10044" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="107">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,6 +421,10 @@
   </si>
   <si>
     <t>magicBook27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,32 +852,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:X29"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X30" sqref="X30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="6.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
-    <col min="8" max="8" width="17.375" customWidth="1"/>
-    <col min="9" max="9" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
+    <col min="8" max="8" width="17.3984375" customWidth="1"/>
+    <col min="9" max="9" width="13.19921875" customWidth="1"/>
+    <col min="10" max="10" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="13.8984375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="18" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="9.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -947,7 +951,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1021,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1095,7 +1099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1169,7 +1173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1243,7 +1247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1317,7 +1321,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1391,7 +1395,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1465,7 +1469,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1539,7 +1543,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1613,7 +1617,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1687,7 +1691,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1761,7 +1765,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1835,7 +1839,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1909,7 +1913,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1983,7 +1987,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2057,7 +2061,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2131,7 +2135,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -2205,7 +2209,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -2279,7 +2283,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -2353,7 +2357,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -2427,7 +2431,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -2501,7 +2505,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2575,7 +2579,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2649,7 +2653,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2723,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2797,7 +2801,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2871,7 +2875,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2945,7 +2949,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3017,6 +3021,80 @@
       </c>
       <c r="X29">
         <v>2500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>1.2</v>
+      </c>
+      <c r="G30">
+        <v>200</v>
+      </c>
+      <c r="H30">
+        <v>44</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6">
+        <v>0</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0</v>
+      </c>
+      <c r="P30" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>0</v>
+      </c>
+      <c r="R30" s="6">
+        <v>0</v>
+      </c>
+      <c r="S30" s="6">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <v>10</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>7</v>
+      </c>
+      <c r="X30">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
@@ -3034,20 +3112,20 @@
       <selection activeCell="F2" sqref="F2:O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="18.25" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="17.75" customWidth="1"/>
-    <col min="9" max="9" width="18.25" customWidth="1"/>
-    <col min="10" max="15" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="19.09765625" customWidth="1"/>
+    <col min="3" max="3" width="19.19921875" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" customWidth="1"/>
+    <col min="6" max="6" width="18.19921875" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" customWidth="1"/>
+    <col min="8" max="8" width="17.69921875" customWidth="1"/>
+    <col min="9" max="9" width="18.19921875" customWidth="1"/>
+    <col min="10" max="15" width="17.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3092,7 +3170,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>4</v>
       </c>
@@ -3147,7 +3225,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>5</v>
       </c>
@@ -3202,7 +3280,7 @@
         <v>0.20700000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>6</v>
       </c>
@@ -3257,7 +3335,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>7</v>
       </c>
@@ -3312,7 +3390,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -3367,7 +3445,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -3422,7 +3500,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -3477,7 +3555,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -3532,7 +3610,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>12</v>
       </c>
@@ -3587,7 +3665,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>13</v>
       </c>
@@ -3642,7 +3720,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>14</v>
       </c>
@@ -3697,7 +3775,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>15</v>
       </c>
@@ -3752,7 +3830,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>16</v>
       </c>
@@ -3777,7 +3855,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E15" s="1"/>
       <c r="F15" s="3">
         <f t="shared" ref="F15:O15" si="12">SUM(F2:F14)</f>
@@ -3820,7 +3898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E16" s="1"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -3833,7 +3911,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E17" s="1"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -3846,7 +3924,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E18" s="1" t="s">
         <v>38</v>
       </c>
@@ -3886,7 +3964,7 @@
         <v>0.69000000000000006</v>
       </c>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E19" s="1" t="s">
         <v>39</v>
       </c>
@@ -3921,7 +3999,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E20" s="1" t="s">
         <v>40</v>
       </c>
@@ -3956,7 +4034,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E21" s="1" t="s">
         <v>41</v>
       </c>
@@ -3971,7 +4049,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E22" s="1" t="s">
         <v>42</v>
       </c>
@@ -4016,7 +4094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E23" s="1"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -4029,7 +4107,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E24" s="4" t="s">
         <v>43</v>
       </c>
@@ -4044,7 +4122,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E25" s="1">
         <v>4</v>
       </c>
@@ -4066,7 +4144,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E26" s="1">
         <v>3</v>
       </c>
@@ -4088,7 +4166,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E27" s="1">
         <v>2</v>
       </c>
@@ -4110,7 +4188,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E28" s="1">
         <v>1</v>
       </c>
@@ -4132,7 +4210,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E29" s="1"/>
       <c r="F29" s="3">
         <f>SUM(F25:F28)</f>
@@ -4153,7 +4231,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E30" s="1"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA128945-26C4-4E66-B9CE-3265A69AB9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CC8FA5-A189-4589-85C2-B1C09A934770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="2256" windowWidth="17280" windowHeight="10044" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-25545" yWindow="1845" windowWidth="23595" windowHeight="10995" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -854,30 +854,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="J19" workbookViewId="0">
+      <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.59765625" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="6.3984375" customWidth="1"/>
-    <col min="5" max="5" width="14.19921875" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" customWidth="1"/>
-    <col min="8" max="8" width="17.3984375" customWidth="1"/>
-    <col min="9" max="9" width="13.19921875" customWidth="1"/>
-    <col min="10" max="10" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="17.375" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="13.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="18" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -951,7 +951,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>96</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <v>4</v>
@@ -3094,7 +3094,7 @@
         <v>7</v>
       </c>
       <c r="X30">
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
@@ -3112,20 +3112,20 @@
       <selection activeCell="F2" sqref="F2:O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.09765625" customWidth="1"/>
-    <col min="3" max="3" width="19.19921875" customWidth="1"/>
-    <col min="4" max="4" width="18.8984375" customWidth="1"/>
-    <col min="5" max="5" width="16.69921875" customWidth="1"/>
-    <col min="6" max="6" width="18.19921875" customWidth="1"/>
-    <col min="7" max="7" width="15.69921875" customWidth="1"/>
-    <col min="8" max="8" width="17.69921875" customWidth="1"/>
-    <col min="9" max="9" width="18.19921875" customWidth="1"/>
-    <col min="10" max="15" width="17.19921875" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="17.75" customWidth="1"/>
+    <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="10" max="15" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>0.20700000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>12</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>13</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>14</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>15</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>16</v>
       </c>
@@ -3855,7 +3855,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
       <c r="F15" s="3">
         <f t="shared" ref="F15:O15" si="12">SUM(F2:F14)</f>
@@ -3898,7 +3898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -3911,7 +3911,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -3924,7 +3924,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E18" s="1" t="s">
         <v>38</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>0.69000000000000006</v>
       </c>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
         <v>39</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
         <v>40</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>41</v>
       </c>
@@ -4049,7 +4049,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>42</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E23" s="1"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -4107,7 +4107,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E24" s="4" t="s">
         <v>43</v>
       </c>
@@ -4122,7 +4122,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E25" s="1">
         <v>4</v>
       </c>
@@ -4144,7 +4144,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E26" s="1">
         <v>3</v>
       </c>
@@ -4166,7 +4166,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E27" s="1">
         <v>2</v>
       </c>
@@ -4188,7 +4188,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E28" s="1">
         <v>1</v>
       </c>
@@ -4210,7 +4210,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E29" s="1"/>
       <c r="F29" s="3">
         <f>SUM(F25:F28)</f>
@@ -4231,7 +4231,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E30" s="1"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CC8FA5-A189-4589-85C2-B1C09A934770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80591D30-0AE9-46E9-902A-AE87FFD1146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25545" yWindow="1845" windowWidth="23595" windowHeight="10995" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="108">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,6 +425,10 @@
   </si>
   <si>
     <t>magicBook28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -852,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J19" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3095,6 +3099,80 @@
       </c>
       <c r="X30">
         <v>4000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>1.2</v>
+      </c>
+      <c r="G31">
+        <v>200</v>
+      </c>
+      <c r="H31">
+        <v>45</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6">
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>0</v>
+      </c>
+      <c r="R31" s="6">
+        <v>0</v>
+      </c>
+      <c r="S31" s="6">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <v>10</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>7</v>
+      </c>
+      <c r="X31">
+        <v>6000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80591D30-0AE9-46E9-902A-AE87FFD1146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAEDEAF-859A-48EA-845F-A0FBDDF50A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="109">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,6 +430,9 @@
   <si>
     <t>magicBook29</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook30</t>
   </si>
 </sst>
 </file>
@@ -856,9 +859,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
       <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
@@ -3173,6 +3176,80 @@
       </c>
       <c r="X31">
         <v>6000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32">
+        <v>16</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>1.2</v>
+      </c>
+      <c r="G32">
+        <v>200</v>
+      </c>
+      <c r="H32">
+        <v>47</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0</v>
+      </c>
+      <c r="K32" s="6">
+        <v>0</v>
+      </c>
+      <c r="L32" s="6">
+        <v>0</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>0</v>
+      </c>
+      <c r="R32" s="6">
+        <v>0</v>
+      </c>
+      <c r="S32" s="6">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
+        <v>10</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>7</v>
+      </c>
+      <c r="X32">
+        <v>8000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAEDEAF-859A-48EA-845F-A0FBDDF50A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDD6FE0-6D50-4F0C-AF3E-1C755DE4E76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="111">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,6 +433,13 @@
   </si>
   <si>
     <t>magicBook30</t>
+  </si>
+  <si>
+    <t>magicBook32</t>
+  </si>
+  <si>
+    <t>magicBook31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -859,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3249,6 +3256,154 @@
         <v>7</v>
       </c>
       <c r="X32">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33">
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>1.2</v>
+      </c>
+      <c r="G33">
+        <v>200</v>
+      </c>
+      <c r="H33">
+        <v>50</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6">
+        <v>0</v>
+      </c>
+      <c r="P33" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>0</v>
+      </c>
+      <c r="R33" s="6">
+        <v>0</v>
+      </c>
+      <c r="S33" s="6">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>2</v>
+      </c>
+      <c r="U33">
+        <v>10</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>7</v>
+      </c>
+      <c r="X33">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34">
+        <v>17</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>1.2</v>
+      </c>
+      <c r="G34">
+        <v>200</v>
+      </c>
+      <c r="H34">
+        <v>51</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6">
+        <v>0</v>
+      </c>
+      <c r="L34" s="6">
+        <v>0</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0</v>
+      </c>
+      <c r="N34" s="6">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6">
+        <v>0</v>
+      </c>
+      <c r="P34" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>0</v>
+      </c>
+      <c r="R34" s="6">
+        <v>0</v>
+      </c>
+      <c r="S34" s="6">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>2</v>
+      </c>
+      <c r="U34">
+        <v>10</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>7</v>
+      </c>
+      <c r="X34">
         <v>8000</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDD6FE0-6D50-4F0C-AF3E-1C755DE4E76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F4FA53-6BCE-4C61-B275-D0B8E6D838E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -869,7 +869,7 @@
   <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3330,7 +3330,7 @@
         <v>7</v>
       </c>
       <c r="X33">
-        <v>8000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
@@ -3404,7 +3404,7 @@
         <v>7</v>
       </c>
       <c r="X34">
-        <v>8000</v>
+        <v>12000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F4FA53-6BCE-4C61-B275-D0B8E6D838E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A72687-9282-4E43-B98B-1F288C120372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5550" yWindow="2790" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="112">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,6 +439,10 @@
   </si>
   <si>
     <t>magicBook31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook33</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -866,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X35" sqref="X35"/>
+    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3405,6 +3409,80 @@
       </c>
       <c r="X34">
         <v>12000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35">
+        <v>16</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>1.2</v>
+      </c>
+      <c r="G35">
+        <v>200</v>
+      </c>
+      <c r="H35">
+        <v>53</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0</v>
+      </c>
+      <c r="L35" s="6">
+        <v>0</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6">
+        <v>0</v>
+      </c>
+      <c r="O35" s="6">
+        <v>0</v>
+      </c>
+      <c r="P35" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>0</v>
+      </c>
+      <c r="R35" s="6">
+        <v>0</v>
+      </c>
+      <c r="S35" s="6">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35">
+        <v>10</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>7</v>
+      </c>
+      <c r="X35">
+        <v>14000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A72687-9282-4E43-B98B-1F288C120372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A50FF4-8BAA-4748-96D1-C5346B7D7516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="2790" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="113">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,6 +443,10 @@
   </si>
   <si>
     <t>magicBook33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook34</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -870,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:X35"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="X36" sqref="X36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3483,6 +3487,80 @@
       </c>
       <c r="X35">
         <v>14000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>1.2</v>
+      </c>
+      <c r="G36">
+        <v>200</v>
+      </c>
+      <c r="H36">
+        <v>55</v>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0</v>
+      </c>
+      <c r="N36" s="6">
+        <v>0</v>
+      </c>
+      <c r="O36" s="6">
+        <v>0</v>
+      </c>
+      <c r="P36" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>0</v>
+      </c>
+      <c r="R36" s="6">
+        <v>0</v>
+      </c>
+      <c r="S36" s="6">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>2</v>
+      </c>
+      <c r="U36">
+        <v>10</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>7</v>
+      </c>
+      <c r="X36">
+        <v>16000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A50FF4-8BAA-4748-96D1-C5346B7D7516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7300BE-A974-4F6A-BA48-9BC38BD12E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="117">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,6 +448,19 @@
   <si>
     <t>magicBook34</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook35</t>
+  </si>
+  <si>
+    <t>magicBook36</t>
+  </si>
+  <si>
+    <t>magicBook37</t>
   </si>
 </sst>
 </file>
@@ -874,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3560,6 +3573,228 @@
         <v>7</v>
       </c>
       <c r="X36">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37">
+        <v>17</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>1.2</v>
+      </c>
+      <c r="G37">
+        <v>200</v>
+      </c>
+      <c r="H37">
+        <v>58</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0</v>
+      </c>
+      <c r="K37" s="6">
+        <v>0</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6">
+        <v>0</v>
+      </c>
+      <c r="O37" s="6">
+        <v>0</v>
+      </c>
+      <c r="P37" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>0</v>
+      </c>
+      <c r="R37" s="6">
+        <v>0</v>
+      </c>
+      <c r="S37" s="6">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>2</v>
+      </c>
+      <c r="U37">
+        <v>10</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>7</v>
+      </c>
+      <c r="X37">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38">
+        <v>17</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>1.2</v>
+      </c>
+      <c r="G38">
+        <v>200</v>
+      </c>
+      <c r="H38">
+        <v>59</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0</v>
+      </c>
+      <c r="M38" s="6">
+        <v>0</v>
+      </c>
+      <c r="N38" s="6">
+        <v>0</v>
+      </c>
+      <c r="O38" s="6">
+        <v>0</v>
+      </c>
+      <c r="P38" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>0</v>
+      </c>
+      <c r="R38" s="6">
+        <v>0</v>
+      </c>
+      <c r="S38" s="6">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>10</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>7</v>
+      </c>
+      <c r="X38">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39">
+        <v>17</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>1.2</v>
+      </c>
+      <c r="G39">
+        <v>200</v>
+      </c>
+      <c r="H39">
+        <v>60</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0</v>
+      </c>
+      <c r="M39" s="6">
+        <v>0</v>
+      </c>
+      <c r="N39" s="6">
+        <v>0</v>
+      </c>
+      <c r="O39" s="6">
+        <v>0</v>
+      </c>
+      <c r="P39" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>0</v>
+      </c>
+      <c r="R39" s="6">
+        <v>0</v>
+      </c>
+      <c r="S39" s="6">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
+        <v>10</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>7</v>
+      </c>
+      <c r="X39">
         <v>16000</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7300BE-A974-4F6A-BA48-9BC38BD12E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0834C5C6-1A32-4C4C-8F11-25DE7B9C40E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="X38" sqref="X38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3587,7 +3587,7 @@
         <v>113</v>
       </c>
       <c r="D37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E37">
         <v>4</v>
@@ -3647,7 +3647,7 @@
         <v>7</v>
       </c>
       <c r="X37">
-        <v>16000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
@@ -3661,7 +3661,7 @@
         <v>113</v>
       </c>
       <c r="D38">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -3721,7 +3721,7 @@
         <v>7</v>
       </c>
       <c r="X38">
-        <v>16000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
@@ -3735,7 +3735,7 @@
         <v>113</v>
       </c>
       <c r="D39">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>4</v>
@@ -3795,7 +3795,7 @@
         <v>7</v>
       </c>
       <c r="X39">
-        <v>16000</v>
+        <v>22000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0834C5C6-1A32-4C4C-8F11-25DE7B9C40E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33504C30-2AB8-4777-B8FA-7B89694F15E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="119">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -461,6 +461,12 @@
   </si>
   <si>
     <t>magicBook37</t>
+  </si>
+  <si>
+    <t>magicBook38</t>
+  </si>
+  <si>
+    <t>magicBook39</t>
   </si>
 </sst>
 </file>
@@ -887,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:X39"/>
+  <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="X38" sqref="X38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3796,6 +3802,154 @@
       </c>
       <c r="X39">
         <v>22000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40">
+        <v>18</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>1.2</v>
+      </c>
+      <c r="G40">
+        <v>200</v>
+      </c>
+      <c r="H40">
+        <v>61</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="6">
+        <v>0</v>
+      </c>
+      <c r="K40" s="6">
+        <v>0</v>
+      </c>
+      <c r="L40" s="6">
+        <v>0</v>
+      </c>
+      <c r="M40" s="6">
+        <v>0</v>
+      </c>
+      <c r="N40" s="6">
+        <v>0</v>
+      </c>
+      <c r="O40" s="6">
+        <v>0</v>
+      </c>
+      <c r="P40" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>0</v>
+      </c>
+      <c r="R40" s="6">
+        <v>0</v>
+      </c>
+      <c r="S40" s="6">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40">
+        <v>10</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>7</v>
+      </c>
+      <c r="X40">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41">
+        <v>18</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>1.2</v>
+      </c>
+      <c r="G41">
+        <v>200</v>
+      </c>
+      <c r="H41">
+        <v>62</v>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0</v>
+      </c>
+      <c r="M41" s="6">
+        <v>0</v>
+      </c>
+      <c r="N41" s="6">
+        <v>0</v>
+      </c>
+      <c r="O41" s="6">
+        <v>0</v>
+      </c>
+      <c r="P41" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>0</v>
+      </c>
+      <c r="R41" s="6">
+        <v>0</v>
+      </c>
+      <c r="S41" s="6">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="U41">
+        <v>10</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>7</v>
+      </c>
+      <c r="X41">
+        <v>26000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33504C30-2AB8-4777-B8FA-7B89694F15E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8715F5B-D5F6-4B10-8D5A-2CF5EA1A73C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="121">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,6 +467,12 @@
   </si>
   <si>
     <t>magicBook39</t>
+  </si>
+  <si>
+    <t>magicBook40</t>
+  </si>
+  <si>
+    <t>magicBook41</t>
   </si>
 </sst>
 </file>
@@ -893,10 +899,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:X41"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X46" sqref="X46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3950,6 +3957,154 @@
       </c>
       <c r="X41">
         <v>26000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42">
+        <v>18</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>1.2</v>
+      </c>
+      <c r="G42">
+        <v>200</v>
+      </c>
+      <c r="H42">
+        <v>63</v>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0</v>
+      </c>
+      <c r="L42" s="6">
+        <v>0</v>
+      </c>
+      <c r="M42" s="6">
+        <v>0</v>
+      </c>
+      <c r="N42" s="6">
+        <v>0</v>
+      </c>
+      <c r="O42" s="6">
+        <v>0</v>
+      </c>
+      <c r="P42" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>0</v>
+      </c>
+      <c r="R42" s="6">
+        <v>0</v>
+      </c>
+      <c r="S42" s="6">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>2</v>
+      </c>
+      <c r="U42">
+        <v>10</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <v>7</v>
+      </c>
+      <c r="X42">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43">
+        <v>18</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>1.2</v>
+      </c>
+      <c r="G43">
+        <v>200</v>
+      </c>
+      <c r="H43">
+        <v>64</v>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" s="6">
+        <v>0</v>
+      </c>
+      <c r="K43" s="6">
+        <v>0</v>
+      </c>
+      <c r="L43" s="6">
+        <v>0</v>
+      </c>
+      <c r="M43" s="6">
+        <v>0</v>
+      </c>
+      <c r="N43" s="6">
+        <v>0</v>
+      </c>
+      <c r="O43" s="6">
+        <v>0</v>
+      </c>
+      <c r="P43" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>0</v>
+      </c>
+      <c r="R43" s="6">
+        <v>0</v>
+      </c>
+      <c r="S43" s="6">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2</v>
+      </c>
+      <c r="U43">
+        <v>10</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <v>7</v>
+      </c>
+      <c r="X43">
+        <v>30000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8715F5B-D5F6-4B10-8D5A-2CF5EA1A73C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882BA3A5-A653-43E3-8F75-494977A324B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -901,9 +901,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X46" sqref="X46"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3982,7 +3982,7 @@
         <v>200</v>
       </c>
       <c r="H42">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I42" t="b">
         <v>1</v>
@@ -4056,7 +4056,7 @@
         <v>200</v>
       </c>
       <c r="H43">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I43" t="b">
         <v>1</v>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882BA3A5-A653-43E3-8F75-494977A324B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98E3780-872D-4043-8277-5B55F4CE6408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="125">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -473,6 +473,19 @@
   </si>
   <si>
     <t>magicBook41</t>
+  </si>
+  <si>
+    <t>magicBook42</t>
+  </si>
+  <si>
+    <t>magicBook43</t>
+  </si>
+  <si>
+    <t>magicBook44</t>
+  </si>
+  <si>
+    <t>도깨비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -899,11 +912,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:X43"/>
+  <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4105,6 +4118,228 @@
       </c>
       <c r="X43">
         <v>30000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44">
+        <v>22</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>1.2</v>
+      </c>
+      <c r="G44">
+        <v>200</v>
+      </c>
+      <c r="H44">
+        <v>72</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0</v>
+      </c>
+      <c r="K44" s="6">
+        <v>0</v>
+      </c>
+      <c r="L44" s="6">
+        <v>0</v>
+      </c>
+      <c r="M44" s="6">
+        <v>0</v>
+      </c>
+      <c r="N44" s="6">
+        <v>0</v>
+      </c>
+      <c r="O44" s="6">
+        <v>0</v>
+      </c>
+      <c r="P44" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="6">
+        <v>0</v>
+      </c>
+      <c r="R44" s="6">
+        <v>0</v>
+      </c>
+      <c r="S44" s="6">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2</v>
+      </c>
+      <c r="U44">
+        <v>10</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>7</v>
+      </c>
+      <c r="X44">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45">
+        <v>22</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>1.2</v>
+      </c>
+      <c r="G45">
+        <v>200</v>
+      </c>
+      <c r="H45">
+        <v>73</v>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0</v>
+      </c>
+      <c r="K45" s="6">
+        <v>0</v>
+      </c>
+      <c r="L45" s="6">
+        <v>0</v>
+      </c>
+      <c r="M45" s="6">
+        <v>0</v>
+      </c>
+      <c r="N45" s="6">
+        <v>0</v>
+      </c>
+      <c r="O45" s="6">
+        <v>0</v>
+      </c>
+      <c r="P45" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>0</v>
+      </c>
+      <c r="R45" s="6">
+        <v>0</v>
+      </c>
+      <c r="S45" s="6">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>2</v>
+      </c>
+      <c r="U45">
+        <v>10</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="W45">
+        <v>7</v>
+      </c>
+      <c r="X45">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46">
+        <v>22</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>1.2</v>
+      </c>
+      <c r="G46">
+        <v>200</v>
+      </c>
+      <c r="H46">
+        <v>74</v>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" s="6">
+        <v>0</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0</v>
+      </c>
+      <c r="L46" s="6">
+        <v>0</v>
+      </c>
+      <c r="M46" s="6">
+        <v>0</v>
+      </c>
+      <c r="N46" s="6">
+        <v>0</v>
+      </c>
+      <c r="O46" s="6">
+        <v>0</v>
+      </c>
+      <c r="P46" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="6">
+        <v>0</v>
+      </c>
+      <c r="R46" s="6">
+        <v>0</v>
+      </c>
+      <c r="S46" s="6">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>2</v>
+      </c>
+      <c r="U46">
+        <v>10</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+      <c r="W46">
+        <v>7</v>
+      </c>
+      <c r="X46">
+        <v>36000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project2\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98E3780-872D-4043-8277-5B55F4CE6408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149047DC-2EF2-4087-ACEB-53170572DF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="126">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,6 +485,10 @@
   </si>
   <si>
     <t>도깨비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -912,11 +916,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:X46"/>
+  <dimension ref="A1:X47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4340,6 +4344,80 @@
       </c>
       <c r="X46">
         <v>36000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>1.2</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>75</v>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0</v>
+      </c>
+      <c r="L47" s="6">
+        <v>0</v>
+      </c>
+      <c r="M47" s="6">
+        <v>0</v>
+      </c>
+      <c r="N47" s="6">
+        <v>0</v>
+      </c>
+      <c r="O47" s="6">
+        <v>0</v>
+      </c>
+      <c r="P47" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="6">
+        <v>0</v>
+      </c>
+      <c r="R47" s="6">
+        <v>0</v>
+      </c>
+      <c r="S47" s="6">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2</v>
+      </c>
+      <c r="U47">
+        <v>10</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <v>7</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project2\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project3\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149047DC-2EF2-4087-ACEB-53170572DF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604DD3BA-C762-4529-8D0F-0B3F14FF1B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -919,8 +919,8 @@
   <dimension ref="A1:X47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2738,7 +2738,7 @@
         <v>1.2</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H25">
         <v>33</v>
@@ -4366,7 +4366,7 @@
         <v>1.2</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H47">
         <v>75</v>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project3\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604DD3BA-C762-4529-8D0F-0B3F14FF1B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299626F6-D590-4CC2-B947-E54E520841D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="129">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -489,6 +489,16 @@
   </si>
   <si>
     <t>magicBook45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook46</t>
+  </si>
+  <si>
+    <t>magicBook47</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -916,11 +926,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:X47"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z49" sqref="Z49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4418,6 +4428,157 @@
       </c>
       <c r="X47">
         <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48">
+        <v>22</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>1.2</v>
+      </c>
+      <c r="G48">
+        <v>200</v>
+      </c>
+      <c r="H48">
+        <v>78</v>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0</v>
+      </c>
+      <c r="K48" s="6">
+        <v>0</v>
+      </c>
+      <c r="L48" s="6">
+        <v>0</v>
+      </c>
+      <c r="M48" s="6">
+        <v>0</v>
+      </c>
+      <c r="N48" s="6">
+        <v>0</v>
+      </c>
+      <c r="O48" s="6">
+        <v>0</v>
+      </c>
+      <c r="P48" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="6">
+        <v>0</v>
+      </c>
+      <c r="R48" s="6">
+        <v>0</v>
+      </c>
+      <c r="S48" s="6">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2</v>
+      </c>
+      <c r="U48">
+        <v>10</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <v>7</v>
+      </c>
+      <c r="X48">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49">
+        <v>22</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>1.2</v>
+      </c>
+      <c r="G49">
+        <v>200</v>
+      </c>
+      <c r="H49">
+        <v>79</v>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0</v>
+      </c>
+      <c r="L49" s="6">
+        <v>0</v>
+      </c>
+      <c r="M49" s="6">
+        <v>0</v>
+      </c>
+      <c r="N49" s="6">
+        <v>0</v>
+      </c>
+      <c r="O49" s="6">
+        <v>0</v>
+      </c>
+      <c r="P49" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="6">
+        <v>0</v>
+      </c>
+      <c r="R49" s="6">
+        <v>0</v>
+      </c>
+      <c r="S49" s="6">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>2</v>
+      </c>
+      <c r="U49">
+        <v>10</v>
+      </c>
+      <c r="V49">
+        <v>1</v>
+      </c>
+      <c r="W49">
+        <v>7</v>
+      </c>
+      <c r="X49">
+        <v>40000</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project3\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299626F6-D590-4CC2-B947-E54E520841D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21071FE6-CD5C-4777-81E3-34FE63791028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="131">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -500,6 +500,12 @@
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook48</t>
+  </si>
+  <si>
+    <t>magicBook49</t>
   </si>
 </sst>
 </file>
@@ -926,11 +932,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Z49"/>
+  <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z49" sqref="Z49"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4578,6 +4584,157 @@
         <v>40000</v>
       </c>
       <c r="Z49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50">
+        <v>22</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>1.2</v>
+      </c>
+      <c r="G50">
+        <v>200</v>
+      </c>
+      <c r="H50">
+        <v>82</v>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" s="6">
+        <v>0</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0</v>
+      </c>
+      <c r="L50" s="6">
+        <v>0</v>
+      </c>
+      <c r="M50" s="6">
+        <v>0</v>
+      </c>
+      <c r="N50" s="6">
+        <v>0</v>
+      </c>
+      <c r="O50" s="6">
+        <v>0</v>
+      </c>
+      <c r="P50" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="6">
+        <v>0</v>
+      </c>
+      <c r="R50" s="6">
+        <v>0</v>
+      </c>
+      <c r="S50" s="6">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>2</v>
+      </c>
+      <c r="U50">
+        <v>10</v>
+      </c>
+      <c r="V50">
+        <v>1</v>
+      </c>
+      <c r="W50">
+        <v>7</v>
+      </c>
+      <c r="X50">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51">
+        <v>22</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>1.2</v>
+      </c>
+      <c r="G51">
+        <v>200</v>
+      </c>
+      <c r="H51">
+        <v>83</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0</v>
+      </c>
+      <c r="L51" s="6">
+        <v>0</v>
+      </c>
+      <c r="M51" s="6">
+        <v>0</v>
+      </c>
+      <c r="N51" s="6">
+        <v>0</v>
+      </c>
+      <c r="O51" s="6">
+        <v>0</v>
+      </c>
+      <c r="P51" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>0</v>
+      </c>
+      <c r="R51" s="6">
+        <v>0</v>
+      </c>
+      <c r="S51" s="6">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>2</v>
+      </c>
+      <c r="U51">
+        <v>10</v>
+      </c>
+      <c r="V51">
+        <v>1</v>
+      </c>
+      <c r="W51">
+        <v>7</v>
+      </c>
+      <c r="X51">
+        <v>44000</v>
+      </c>
+      <c r="Z51" t="s">
         <v>128</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21071FE6-CD5C-4777-81E3-34FE63791028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21F06A5-20CA-4AB1-BAF0-4BF290919746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="132">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,6 +506,9 @@
   </si>
   <si>
     <t>magicBook49</t>
+  </si>
+  <si>
+    <t>magicBook50</t>
   </si>
 </sst>
 </file>
@@ -932,11 +935,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Z51"/>
+  <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4736,6 +4739,80 @@
       </c>
       <c r="Z51" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>1.2</v>
+      </c>
+      <c r="G52">
+        <v>200</v>
+      </c>
+      <c r="H52">
+        <v>75</v>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" s="6">
+        <v>0</v>
+      </c>
+      <c r="K52" s="6">
+        <v>0</v>
+      </c>
+      <c r="L52" s="6">
+        <v>0</v>
+      </c>
+      <c r="M52" s="6">
+        <v>0</v>
+      </c>
+      <c r="N52" s="6">
+        <v>0</v>
+      </c>
+      <c r="O52" s="6">
+        <v>0</v>
+      </c>
+      <c r="P52" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="6">
+        <v>0</v>
+      </c>
+      <c r="R52" s="6">
+        <v>0</v>
+      </c>
+      <c r="S52" s="6">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>2</v>
+      </c>
+      <c r="U52">
+        <v>10</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
+      <c r="W52">
+        <v>7</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21F06A5-20CA-4AB1-BAF0-4BF290919746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36351604-4AB8-494B-9151-5D7B62502FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
     <sheet name="Prob" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MagicBook!$A$1:$X$56</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="137">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,6 +512,25 @@
   </si>
   <si>
     <t>magicBook50</t>
+  </si>
+  <si>
+    <t>magicBook51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook54</t>
+  </si>
+  <si>
+    <t>수미산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -935,11 +957,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Z52"/>
+  <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4815,7 +4837,304 @@
         <v>0</v>
       </c>
     </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53">
+        <v>22</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>1.2</v>
+      </c>
+      <c r="G53">
+        <v>200</v>
+      </c>
+      <c r="H53">
+        <v>91</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" s="6">
+        <v>0</v>
+      </c>
+      <c r="K53" s="6">
+        <v>0</v>
+      </c>
+      <c r="L53" s="6">
+        <v>0</v>
+      </c>
+      <c r="M53" s="6">
+        <v>0</v>
+      </c>
+      <c r="N53" s="6">
+        <v>0</v>
+      </c>
+      <c r="O53" s="6">
+        <v>0</v>
+      </c>
+      <c r="P53" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="6">
+        <v>0</v>
+      </c>
+      <c r="R53" s="6">
+        <v>0</v>
+      </c>
+      <c r="S53" s="6">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
+      <c r="U53">
+        <v>10</v>
+      </c>
+      <c r="V53">
+        <v>1</v>
+      </c>
+      <c r="W53">
+        <v>7</v>
+      </c>
+      <c r="X53">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54">
+        <v>22</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>1.2</v>
+      </c>
+      <c r="G54">
+        <v>200</v>
+      </c>
+      <c r="H54">
+        <v>92</v>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" s="6">
+        <v>0</v>
+      </c>
+      <c r="K54" s="6">
+        <v>0</v>
+      </c>
+      <c r="L54" s="6">
+        <v>0</v>
+      </c>
+      <c r="M54" s="6">
+        <v>0</v>
+      </c>
+      <c r="N54" s="6">
+        <v>0</v>
+      </c>
+      <c r="O54" s="6">
+        <v>0</v>
+      </c>
+      <c r="P54" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="6">
+        <v>0</v>
+      </c>
+      <c r="R54" s="6">
+        <v>0</v>
+      </c>
+      <c r="S54" s="6">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>2</v>
+      </c>
+      <c r="U54">
+        <v>10</v>
+      </c>
+      <c r="V54">
+        <v>1</v>
+      </c>
+      <c r="W54">
+        <v>7</v>
+      </c>
+      <c r="X54">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55">
+        <v>22</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>1.2</v>
+      </c>
+      <c r="G55">
+        <v>200</v>
+      </c>
+      <c r="H55">
+        <v>93</v>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" s="6">
+        <v>0</v>
+      </c>
+      <c r="K55" s="6">
+        <v>0</v>
+      </c>
+      <c r="L55" s="6">
+        <v>0</v>
+      </c>
+      <c r="M55" s="6">
+        <v>0</v>
+      </c>
+      <c r="N55" s="6">
+        <v>0</v>
+      </c>
+      <c r="O55" s="6">
+        <v>0</v>
+      </c>
+      <c r="P55" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="6">
+        <v>0</v>
+      </c>
+      <c r="R55" s="6">
+        <v>0</v>
+      </c>
+      <c r="S55" s="6">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>2</v>
+      </c>
+      <c r="U55">
+        <v>10</v>
+      </c>
+      <c r="V55">
+        <v>1</v>
+      </c>
+      <c r="W55">
+        <v>7</v>
+      </c>
+      <c r="X55">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56">
+        <v>24</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>1.2</v>
+      </c>
+      <c r="G56">
+        <v>200</v>
+      </c>
+      <c r="H56">
+        <v>95</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" s="6">
+        <v>0</v>
+      </c>
+      <c r="K56" s="6">
+        <v>0</v>
+      </c>
+      <c r="L56" s="6">
+        <v>0</v>
+      </c>
+      <c r="M56" s="6">
+        <v>0</v>
+      </c>
+      <c r="N56" s="6">
+        <v>0</v>
+      </c>
+      <c r="O56" s="6">
+        <v>0</v>
+      </c>
+      <c r="P56" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="6">
+        <v>0</v>
+      </c>
+      <c r="R56" s="6">
+        <v>0</v>
+      </c>
+      <c r="S56" s="6">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>2</v>
+      </c>
+      <c r="U56">
+        <v>10</v>
+      </c>
+      <c r="V56">
+        <v>1</v>
+      </c>
+      <c r="W56">
+        <v>7</v>
+      </c>
+      <c r="X56">
+        <v>52000</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:X56" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36351604-4AB8-494B-9151-5D7B62502FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12264C9A-0193-4C50-A880-589F5F2F5D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
     <sheet name="Prob" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MagicBook!$A$1:$X$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MagicBook!$A$1:$AE$58</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="185">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -387,10 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>magicBook20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -453,10 +449,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>천상계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>magicBook35</t>
   </si>
   <si>
@@ -487,10 +479,6 @@
     <t>magicBook44</t>
   </si>
   <si>
-    <t>도깨비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>magicBook45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,10 +489,6 @@
     <t>magicBook47</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>magicBook48</t>
   </si>
   <si>
@@ -529,7 +513,212 @@
     <t>magicBook54</t>
   </si>
   <si>
-    <t>수미산</t>
+    <t>magicBook55</t>
+  </si>
+  <si>
+    <t>magicBook56</t>
+  </si>
+  <si>
+    <t>CollectionEffectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectionEffectValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardType0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardValue0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicBookType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardValue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현무 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황룡 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑룡 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해태 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병아리 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼족오 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기린 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달토끼 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼목구 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천마 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구미호 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여래 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강림 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차사 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>염라 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불멸 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적선녀 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등선녀 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황선녀 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹선녀 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청선녀 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남선녀 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자선녀 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈량 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇌량 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암량 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화량 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설량 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미량 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>까치 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑량 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파랑새 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남량 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여량 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우량 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지국천왕 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광목천왕 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,10 +726,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0000000000%"/>
     <numFmt numFmtId="177" formatCode="0.0000%"/>
     <numFmt numFmtId="178" formatCode="0.0000000000_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -575,7 +765,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,6 +780,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9EF5FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9966FF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -613,7 +845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -641,6 +873,60 @@
     <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
@@ -649,6 +935,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9966FF"/>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFFF5050"/>
+      <color rgb="FF9EF5FE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -949,7 +1243,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -957,11 +1251,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Z56"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AE58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -981,9 +1276,15 @@
     <col min="17" max="18" width="13.875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.625" bestFit="1" customWidth="1"/>
     <col min="20" max="24" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1054,10 +1355,31 @@
         <v>95</v>
       </c>
       <c r="X1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1130,8 +1452,29 @@
       <c r="X2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y2" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>100000</v>
+      </c>
+      <c r="AA2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="9">
+        <v>100</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1204,8 +1547,29 @@
       <c r="X3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y3" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>200000</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>200</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1278,8 +1642,29 @@
       <c r="X4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y4" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>300000</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>300</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1352,8 +1737,29 @@
       <c r="X5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y5" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>400000</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>400</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1426,8 +1832,29 @@
       <c r="X6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y6" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>500000</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>500</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1500,8 +1927,29 @@
       <c r="X7">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y7" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>600000</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>600</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1574,8 +2022,29 @@
       <c r="X8">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y8" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>700000</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>700</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1648,8 +2117,29 @@
       <c r="X9">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y9" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>800000</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>800</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1722,8 +2212,29 @@
       <c r="X10" s="4">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y10" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>900000</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>900</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1796,8 +2307,29 @@
       <c r="X11" s="4">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y11" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1870,8 +2402,29 @@
       <c r="X12" s="4">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y12" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>1100000</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>1100</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1944,8 +2497,29 @@
       <c r="X13" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y13" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>1200000</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>1200</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2018,8 +2592,29 @@
       <c r="X14" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y14" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>1300000</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>1300</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2092,8 +2687,29 @@
       <c r="X15" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y15" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>1400000</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="9">
+        <v>1400</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2166,8 +2782,29 @@
       <c r="X16" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y16" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>1500000</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>1500</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2240,1200 +2877,1557 @@
       <c r="X17" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="Y17" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>1600000</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="9">
+        <v>1600</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="12">
+        <v>5</v>
+      </c>
+      <c r="E18" s="12">
+        <v>4</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="G18" s="12">
+        <v>100</v>
+      </c>
+      <c r="H18" s="12">
+        <v>22</v>
+      </c>
+      <c r="I18" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0</v>
+      </c>
+      <c r="K18" s="13">
+        <v>0</v>
+      </c>
+      <c r="L18" s="13">
+        <v>0</v>
+      </c>
+      <c r="M18" s="13">
+        <v>0</v>
+      </c>
+      <c r="N18" s="13">
+        <v>0</v>
+      </c>
+      <c r="O18" s="13">
+        <v>0</v>
+      </c>
+      <c r="P18" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>0</v>
+      </c>
+      <c r="R18" s="13">
+        <v>0</v>
+      </c>
+      <c r="S18" s="13">
+        <v>0</v>
+      </c>
+      <c r="T18" s="12">
+        <v>2</v>
+      </c>
+      <c r="U18" s="12">
+        <v>10</v>
+      </c>
+      <c r="V18" s="12">
+        <v>1</v>
+      </c>
+      <c r="W18" s="12">
+        <v>4</v>
+      </c>
+      <c r="X18" s="12">
+        <v>200</v>
+      </c>
+      <c r="Y18" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="14">
+        <v>50000000</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="14">
+        <v>50000000</v>
+      </c>
+      <c r="AC18" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="9">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="12">
+        <v>5</v>
+      </c>
+      <c r="E19" s="12">
+        <v>4</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="G19" s="12">
+        <v>100</v>
+      </c>
+      <c r="H19" s="12">
+        <v>23</v>
+      </c>
+      <c r="I19" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0</v>
+      </c>
+      <c r="K19" s="13">
+        <v>0</v>
+      </c>
+      <c r="L19" s="13">
+        <v>0</v>
+      </c>
+      <c r="M19" s="13">
+        <v>0</v>
+      </c>
+      <c r="N19" s="13">
+        <v>0</v>
+      </c>
+      <c r="O19" s="13">
+        <v>0</v>
+      </c>
+      <c r="P19" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>0</v>
+      </c>
+      <c r="R19" s="13">
+        <v>0</v>
+      </c>
+      <c r="S19" s="13">
+        <v>0</v>
+      </c>
+      <c r="T19" s="12">
+        <v>2</v>
+      </c>
+      <c r="U19" s="12">
+        <v>10</v>
+      </c>
+      <c r="V19" s="12">
+        <v>1</v>
+      </c>
+      <c r="W19" s="12">
+        <v>5</v>
+      </c>
+      <c r="X19" s="12">
+        <v>250</v>
+      </c>
+      <c r="Y19" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="14">
+        <v>50000000</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>5</v>
+      </c>
+      <c r="AB19" s="14">
+        <v>50000000</v>
+      </c>
+      <c r="AC19" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="9">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="12">
+        <v>5</v>
+      </c>
+      <c r="E20" s="12">
+        <v>4</v>
+      </c>
+      <c r="F20" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="G20" s="12">
+        <v>100</v>
+      </c>
+      <c r="H20" s="12">
+        <v>24</v>
+      </c>
+      <c r="I20" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13">
+        <v>0</v>
+      </c>
+      <c r="M20" s="13">
+        <v>0</v>
+      </c>
+      <c r="N20" s="13">
+        <v>0</v>
+      </c>
+      <c r="O20" s="13">
+        <v>0</v>
+      </c>
+      <c r="P20" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>0</v>
+      </c>
+      <c r="R20" s="13">
+        <v>0</v>
+      </c>
+      <c r="S20" s="13">
+        <v>0</v>
+      </c>
+      <c r="T20" s="12">
+        <v>2</v>
+      </c>
+      <c r="U20" s="12">
+        <v>10</v>
+      </c>
+      <c r="V20" s="12">
+        <v>1</v>
+      </c>
+      <c r="W20" s="12">
+        <v>6</v>
+      </c>
+      <c r="X20" s="12">
+        <v>300</v>
+      </c>
+      <c r="Y20" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="14">
+        <v>50000000</v>
+      </c>
+      <c r="AA20" s="9">
+        <v>5</v>
+      </c>
+      <c r="AB20" s="14">
+        <v>50000000</v>
+      </c>
+      <c r="AC20" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="9">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="12">
+        <v>5</v>
+      </c>
+      <c r="E21" s="12">
+        <v>4</v>
+      </c>
+      <c r="F21" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="G21" s="12">
+        <v>100</v>
+      </c>
+      <c r="H21" s="12">
+        <v>25</v>
+      </c>
+      <c r="I21" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0</v>
+      </c>
+      <c r="K21" s="13">
+        <v>0</v>
+      </c>
+      <c r="L21" s="13">
+        <v>0</v>
+      </c>
+      <c r="M21" s="13">
+        <v>0</v>
+      </c>
+      <c r="N21" s="13">
+        <v>0</v>
+      </c>
+      <c r="O21" s="13">
+        <v>0</v>
+      </c>
+      <c r="P21" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>0</v>
+      </c>
+      <c r="R21" s="13">
+        <v>0</v>
+      </c>
+      <c r="S21" s="13">
+        <v>0</v>
+      </c>
+      <c r="T21" s="12">
+        <v>2</v>
+      </c>
+      <c r="U21" s="12">
+        <v>10</v>
+      </c>
+      <c r="V21" s="12">
+        <v>1</v>
+      </c>
+      <c r="W21" s="12">
+        <v>7</v>
+      </c>
+      <c r="X21" s="12">
+        <v>350</v>
+      </c>
+      <c r="Y21" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="14">
+        <v>50000000</v>
+      </c>
+      <c r="AA21" s="9">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="14">
+        <v>50000000</v>
+      </c>
+      <c r="AC21" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="9">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="4">
+      <c r="C22" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="12">
+        <v>6</v>
+      </c>
+      <c r="E22" s="12">
+        <v>4</v>
+      </c>
+      <c r="F22" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="G22" s="12">
+        <v>200</v>
+      </c>
+      <c r="H22" s="12">
+        <v>27</v>
+      </c>
+      <c r="I22" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="13">
+        <v>0</v>
+      </c>
+      <c r="K22" s="13">
+        <v>0</v>
+      </c>
+      <c r="L22" s="13">
+        <v>0</v>
+      </c>
+      <c r="M22" s="13">
+        <v>0</v>
+      </c>
+      <c r="N22" s="13">
+        <v>0</v>
+      </c>
+      <c r="O22" s="13">
+        <v>0</v>
+      </c>
+      <c r="P22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>0</v>
+      </c>
+      <c r="R22" s="13">
+        <v>0</v>
+      </c>
+      <c r="S22" s="13">
+        <v>0</v>
+      </c>
+      <c r="T22" s="12">
+        <v>2</v>
+      </c>
+      <c r="U22" s="12">
+        <v>10</v>
+      </c>
+      <c r="V22" s="12">
+        <v>1</v>
+      </c>
+      <c r="W22" s="12">
+        <v>7</v>
+      </c>
+      <c r="X22" s="12">
+        <v>400</v>
+      </c>
+      <c r="Y22" s="14">
         <v>5</v>
       </c>
-      <c r="E18" s="4">
+      <c r="Z22" s="14">
+        <v>50000000</v>
+      </c>
+      <c r="AA22" s="9">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="14">
+        <v>50000000</v>
+      </c>
+      <c r="AC22" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="9">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
+        <v>21</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="15">
+        <v>7</v>
+      </c>
+      <c r="E23" s="15">
         <v>4</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F23" s="15">
         <v>1.2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G23" s="15">
+        <v>200</v>
+      </c>
+      <c r="H23" s="15">
+        <v>31</v>
+      </c>
+      <c r="I23" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="16">
+        <v>0</v>
+      </c>
+      <c r="K23" s="16">
+        <v>0</v>
+      </c>
+      <c r="L23" s="16">
+        <v>0</v>
+      </c>
+      <c r="M23" s="16">
+        <v>0</v>
+      </c>
+      <c r="N23" s="16">
+        <v>0</v>
+      </c>
+      <c r="O23" s="16">
+        <v>0</v>
+      </c>
+      <c r="P23" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>0</v>
+      </c>
+      <c r="R23" s="16">
+        <v>0</v>
+      </c>
+      <c r="S23" s="16">
+        <v>0</v>
+      </c>
+      <c r="T23" s="15">
+        <v>2</v>
+      </c>
+      <c r="U23" s="15">
+        <v>10</v>
+      </c>
+      <c r="V23" s="15">
+        <v>1</v>
+      </c>
+      <c r="W23" s="15">
+        <v>7</v>
+      </c>
+      <c r="X23" s="15">
+        <v>500</v>
+      </c>
+      <c r="Y23" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="14">
+        <v>50000000</v>
+      </c>
+      <c r="AA23" s="9">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="14">
+        <v>50000000</v>
+      </c>
+      <c r="AC23" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="9">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15">
+        <v>22</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="15">
+        <v>8</v>
+      </c>
+      <c r="E24" s="15">
+        <v>4</v>
+      </c>
+      <c r="F24" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="G24" s="15">
+        <v>200</v>
+      </c>
+      <c r="H24" s="15">
+        <v>32</v>
+      </c>
+      <c r="I24" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="16">
+        <v>0</v>
+      </c>
+      <c r="K24" s="16">
+        <v>0</v>
+      </c>
+      <c r="L24" s="16">
+        <v>0</v>
+      </c>
+      <c r="M24" s="16">
+        <v>0</v>
+      </c>
+      <c r="N24" s="16">
+        <v>0</v>
+      </c>
+      <c r="O24" s="16">
+        <v>0</v>
+      </c>
+      <c r="P24" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>0</v>
+      </c>
+      <c r="R24" s="16">
+        <v>0</v>
+      </c>
+      <c r="S24" s="16">
+        <v>0</v>
+      </c>
+      <c r="T24" s="15">
+        <v>2</v>
+      </c>
+      <c r="U24" s="15">
+        <v>10</v>
+      </c>
+      <c r="V24" s="15">
+        <v>1</v>
+      </c>
+      <c r="W24" s="15">
+        <v>7</v>
+      </c>
+      <c r="X24" s="15">
+        <v>700</v>
+      </c>
+      <c r="Y24" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="14">
+        <v>50000000</v>
+      </c>
+      <c r="AA24" s="9">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="14">
+        <v>50000000</v>
+      </c>
+      <c r="AC24" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="9">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" s="10" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>23</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="4">
-        <v>22</v>
-      </c>
-      <c r="I18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0</v>
-      </c>
-      <c r="K18" s="8">
-        <v>0</v>
-      </c>
-      <c r="L18" s="8">
-        <v>0</v>
-      </c>
-      <c r="M18" s="8">
-        <v>0</v>
-      </c>
-      <c r="N18" s="8">
-        <v>0</v>
-      </c>
-      <c r="O18" s="8">
-        <v>0</v>
-      </c>
-      <c r="P18" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>0</v>
-      </c>
-      <c r="R18" s="8">
-        <v>0</v>
-      </c>
-      <c r="S18" s="8">
-        <v>0</v>
-      </c>
-      <c r="T18" s="4">
+      <c r="C25" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="10">
+        <v>9</v>
+      </c>
+      <c r="E25" s="10">
+        <v>4</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G25" s="10">
+        <v>200</v>
+      </c>
+      <c r="H25" s="10">
+        <v>33</v>
+      </c>
+      <c r="I25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+      <c r="N25" s="11">
+        <v>0</v>
+      </c>
+      <c r="O25" s="11">
+        <v>0</v>
+      </c>
+      <c r="P25" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>0</v>
+      </c>
+      <c r="R25" s="11">
+        <v>0</v>
+      </c>
+      <c r="S25" s="11">
+        <v>0</v>
+      </c>
+      <c r="T25" s="10">
         <v>2</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U25" s="10">
         <v>10</v>
       </c>
-      <c r="V18" s="4">
-        <v>1</v>
-      </c>
-      <c r="W18" s="4">
+      <c r="V25" s="10">
+        <v>1</v>
+      </c>
+      <c r="W25" s="10">
+        <v>7</v>
+      </c>
+      <c r="X25" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="9">
+        <v>2400000</v>
+      </c>
+      <c r="AA25" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="9">
+        <v>2400</v>
+      </c>
+      <c r="AC25" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17">
+        <v>24</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="17">
+        <v>8</v>
+      </c>
+      <c r="E26" s="17">
         <v>4</v>
       </c>
-      <c r="X18" s="4">
+      <c r="F26" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="G26" s="17">
         <v>200</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="H26" s="17">
+        <v>34</v>
+      </c>
+      <c r="I26" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="18">
+        <v>0</v>
+      </c>
+      <c r="K26" s="18">
+        <v>0</v>
+      </c>
+      <c r="L26" s="18">
+        <v>0</v>
+      </c>
+      <c r="M26" s="18">
+        <v>0</v>
+      </c>
+      <c r="N26" s="18">
+        <v>0</v>
+      </c>
+      <c r="O26" s="18">
+        <v>0</v>
+      </c>
+      <c r="P26" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="18">
+        <v>0</v>
+      </c>
+      <c r="R26" s="18">
+        <v>0</v>
+      </c>
+      <c r="S26" s="18">
+        <v>0</v>
+      </c>
+      <c r="T26" s="17">
+        <v>2</v>
+      </c>
+      <c r="U26" s="17">
+        <v>10</v>
+      </c>
+      <c r="V26" s="17">
+        <v>1</v>
+      </c>
+      <c r="W26" s="17">
+        <v>7</v>
+      </c>
+      <c r="X26" s="17">
+        <v>1000</v>
+      </c>
+      <c r="Y26" s="14">
         <v>5</v>
       </c>
-      <c r="E19" s="4">
+      <c r="Z26" s="14">
+        <v>100000000</v>
+      </c>
+      <c r="AA26" s="9">
+        <v>5</v>
+      </c>
+      <c r="AB26" s="9">
+        <v>100000000</v>
+      </c>
+      <c r="AC26" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="9">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17">
+        <v>25</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="17">
+        <v>8</v>
+      </c>
+      <c r="E27" s="17">
         <v>4</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F27" s="17">
         <v>1.2</v>
       </c>
-      <c r="G19" s="4">
-        <v>100</v>
-      </c>
-      <c r="H19" s="4">
-        <v>23</v>
-      </c>
-      <c r="I19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="8">
-        <v>0</v>
-      </c>
-      <c r="K19" s="8">
-        <v>0</v>
-      </c>
-      <c r="L19" s="8">
-        <v>0</v>
-      </c>
-      <c r="M19" s="8">
-        <v>0</v>
-      </c>
-      <c r="N19" s="8">
-        <v>0</v>
-      </c>
-      <c r="O19" s="8">
-        <v>0</v>
-      </c>
-      <c r="P19" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="8">
-        <v>0</v>
-      </c>
-      <c r="R19" s="8">
-        <v>0</v>
-      </c>
-      <c r="S19" s="8">
-        <v>0</v>
-      </c>
-      <c r="T19" s="4">
+      <c r="G27" s="17">
+        <v>200</v>
+      </c>
+      <c r="H27" s="17">
+        <v>37</v>
+      </c>
+      <c r="I27" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="18">
+        <v>0</v>
+      </c>
+      <c r="K27" s="18">
+        <v>0</v>
+      </c>
+      <c r="L27" s="18">
+        <v>0</v>
+      </c>
+      <c r="M27" s="18">
+        <v>0</v>
+      </c>
+      <c r="N27" s="18">
+        <v>0</v>
+      </c>
+      <c r="O27" s="18">
+        <v>0</v>
+      </c>
+      <c r="P27" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="18">
+        <v>0</v>
+      </c>
+      <c r="R27" s="18">
+        <v>0</v>
+      </c>
+      <c r="S27" s="18">
+        <v>0</v>
+      </c>
+      <c r="T27" s="17">
         <v>2</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U27" s="17">
         <v>10</v>
       </c>
-      <c r="V19" s="4">
-        <v>1</v>
-      </c>
-      <c r="W19" s="4">
+      <c r="V27" s="17">
+        <v>1</v>
+      </c>
+      <c r="W27" s="17">
+        <v>7</v>
+      </c>
+      <c r="X27" s="17">
+        <v>1500</v>
+      </c>
+      <c r="Y27" s="14">
         <v>5</v>
       </c>
-      <c r="X19" s="4">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="Z27" s="14">
+        <v>100000000</v>
+      </c>
+      <c r="AA27" s="9">
         <v>5</v>
       </c>
-      <c r="E20" s="4">
+      <c r="AB27" s="9">
+        <v>100000000</v>
+      </c>
+      <c r="AC27" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="9">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17">
+        <v>26</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="17">
+        <v>8</v>
+      </c>
+      <c r="E28" s="17">
         <v>4</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F28" s="17">
         <v>1.2</v>
       </c>
-      <c r="G20" s="4">
-        <v>100</v>
-      </c>
-      <c r="H20" s="4">
-        <v>24</v>
-      </c>
-      <c r="I20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="8">
-        <v>0</v>
-      </c>
-      <c r="K20" s="8">
-        <v>0</v>
-      </c>
-      <c r="L20" s="8">
-        <v>0</v>
-      </c>
-      <c r="M20" s="8">
-        <v>0</v>
-      </c>
-      <c r="N20" s="8">
-        <v>0</v>
-      </c>
-      <c r="O20" s="8">
-        <v>0</v>
-      </c>
-      <c r="P20" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="8">
-        <v>0</v>
-      </c>
-      <c r="R20" s="8">
-        <v>0</v>
-      </c>
-      <c r="S20" s="8">
-        <v>0</v>
-      </c>
-      <c r="T20" s="4">
+      <c r="G28" s="17">
+        <v>200</v>
+      </c>
+      <c r="H28" s="17">
+        <v>38</v>
+      </c>
+      <c r="I28" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="18">
+        <v>0</v>
+      </c>
+      <c r="K28" s="18">
+        <v>0</v>
+      </c>
+      <c r="L28" s="18">
+        <v>0</v>
+      </c>
+      <c r="M28" s="18">
+        <v>0</v>
+      </c>
+      <c r="N28" s="18">
+        <v>0</v>
+      </c>
+      <c r="O28" s="18">
+        <v>0</v>
+      </c>
+      <c r="P28" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="18">
+        <v>0</v>
+      </c>
+      <c r="R28" s="18">
+        <v>0</v>
+      </c>
+      <c r="S28" s="18">
+        <v>0</v>
+      </c>
+      <c r="T28" s="17">
         <v>2</v>
       </c>
-      <c r="U20" s="4">
+      <c r="U28" s="17">
         <v>10</v>
       </c>
-      <c r="V20" s="4">
-        <v>1</v>
-      </c>
-      <c r="W20" s="4">
-        <v>6</v>
-      </c>
-      <c r="X20" s="4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="V28" s="17">
+        <v>1</v>
+      </c>
+      <c r="W28" s="17">
+        <v>7</v>
+      </c>
+      <c r="X28" s="17">
+        <v>2000</v>
+      </c>
+      <c r="Y28" s="14">
         <v>5</v>
       </c>
-      <c r="E21" s="4">
+      <c r="Z28" s="14">
+        <v>100000000</v>
+      </c>
+      <c r="AA28" s="9">
+        <v>5</v>
+      </c>
+      <c r="AB28" s="9">
+        <v>100000000</v>
+      </c>
+      <c r="AC28" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="9">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17">
+        <v>27</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="17">
+        <v>8</v>
+      </c>
+      <c r="E29" s="17">
         <v>4</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F29" s="17">
         <v>1.2</v>
       </c>
-      <c r="G21" s="4">
-        <v>100</v>
-      </c>
-      <c r="H21" s="4">
-        <v>25</v>
-      </c>
-      <c r="I21" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0</v>
-      </c>
-      <c r="K21" s="8">
-        <v>0</v>
-      </c>
-      <c r="L21" s="8">
-        <v>0</v>
-      </c>
-      <c r="M21" s="8">
-        <v>0</v>
-      </c>
-      <c r="N21" s="8">
-        <v>0</v>
-      </c>
-      <c r="O21" s="8">
-        <v>0</v>
-      </c>
-      <c r="P21" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="8">
-        <v>0</v>
-      </c>
-      <c r="R21" s="8">
-        <v>0</v>
-      </c>
-      <c r="S21" s="8">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4">
+      <c r="G29" s="17">
+        <v>200</v>
+      </c>
+      <c r="H29" s="17">
+        <v>42</v>
+      </c>
+      <c r="I29" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="18">
+        <v>0</v>
+      </c>
+      <c r="K29" s="18">
+        <v>0</v>
+      </c>
+      <c r="L29" s="18">
+        <v>0</v>
+      </c>
+      <c r="M29" s="18">
+        <v>0</v>
+      </c>
+      <c r="N29" s="18">
+        <v>0</v>
+      </c>
+      <c r="O29" s="18">
+        <v>0</v>
+      </c>
+      <c r="P29" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="18">
+        <v>0</v>
+      </c>
+      <c r="R29" s="18">
+        <v>0</v>
+      </c>
+      <c r="S29" s="18">
+        <v>0</v>
+      </c>
+      <c r="T29" s="17">
         <v>2</v>
       </c>
-      <c r="U21" s="4">
+      <c r="U29" s="17">
         <v>10</v>
       </c>
-      <c r="V21" s="4">
-        <v>1</v>
-      </c>
-      <c r="W21" s="4">
+      <c r="V29" s="17">
+        <v>1</v>
+      </c>
+      <c r="W29" s="17">
         <v>7</v>
       </c>
-      <c r="X21" s="4">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="4">
-        <v>6</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="X29" s="17">
+        <v>2500</v>
+      </c>
+      <c r="Y29" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="14">
+        <v>100000000</v>
+      </c>
+      <c r="AA29" s="9">
+        <v>5</v>
+      </c>
+      <c r="AB29" s="9">
+        <v>100000000</v>
+      </c>
+      <c r="AC29" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="9">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17">
+        <v>28</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="17">
+        <v>10</v>
+      </c>
+      <c r="E30" s="17">
         <v>4</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F30" s="17">
         <v>1.2</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G30" s="17">
         <v>200</v>
       </c>
-      <c r="H22" s="4">
-        <v>27</v>
-      </c>
-      <c r="I22" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" s="8">
-        <v>0</v>
-      </c>
-      <c r="K22" s="8">
-        <v>0</v>
-      </c>
-      <c r="L22" s="8">
-        <v>0</v>
-      </c>
-      <c r="M22" s="8">
-        <v>0</v>
-      </c>
-      <c r="N22" s="8">
-        <v>0</v>
-      </c>
-      <c r="O22" s="8">
-        <v>0</v>
-      </c>
-      <c r="P22" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="8">
-        <v>0</v>
-      </c>
-      <c r="R22" s="8">
-        <v>0</v>
-      </c>
-      <c r="S22" s="8">
-        <v>0</v>
-      </c>
-      <c r="T22" s="4">
+      <c r="H30" s="17">
+        <v>44</v>
+      </c>
+      <c r="I30" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="18">
+        <v>0</v>
+      </c>
+      <c r="K30" s="18">
+        <v>0</v>
+      </c>
+      <c r="L30" s="18">
+        <v>0</v>
+      </c>
+      <c r="M30" s="18">
+        <v>0</v>
+      </c>
+      <c r="N30" s="18">
+        <v>0</v>
+      </c>
+      <c r="O30" s="18">
+        <v>0</v>
+      </c>
+      <c r="P30" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="18">
+        <v>0</v>
+      </c>
+      <c r="R30" s="18">
+        <v>0</v>
+      </c>
+      <c r="S30" s="18">
+        <v>0</v>
+      </c>
+      <c r="T30" s="17">
         <v>2</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U30" s="17">
         <v>10</v>
       </c>
-      <c r="V22" s="4">
-        <v>1</v>
-      </c>
-      <c r="W22" s="4">
+      <c r="V30" s="17">
+        <v>1</v>
+      </c>
+      <c r="W30" s="17">
         <v>7</v>
       </c>
-      <c r="X22" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23">
+      <c r="X30" s="17">
+        <v>4000</v>
+      </c>
+      <c r="Y30" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z30" s="14">
+        <v>100000000</v>
+      </c>
+      <c r="AA30" s="9">
+        <v>5</v>
+      </c>
+      <c r="AB30" s="9">
+        <v>100000000</v>
+      </c>
+      <c r="AC30" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="9">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17">
+        <v>29</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="17">
+        <v>10</v>
+      </c>
+      <c r="E31" s="17">
+        <v>4</v>
+      </c>
+      <c r="F31" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="G31" s="17">
+        <v>200</v>
+      </c>
+      <c r="H31" s="17">
+        <v>45</v>
+      </c>
+      <c r="I31" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="18">
+        <v>0</v>
+      </c>
+      <c r="K31" s="18">
+        <v>0</v>
+      </c>
+      <c r="L31" s="18">
+        <v>0</v>
+      </c>
+      <c r="M31" s="18">
+        <v>0</v>
+      </c>
+      <c r="N31" s="18">
+        <v>0</v>
+      </c>
+      <c r="O31" s="18">
+        <v>0</v>
+      </c>
+      <c r="P31" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="18">
+        <v>0</v>
+      </c>
+      <c r="R31" s="18">
+        <v>0</v>
+      </c>
+      <c r="S31" s="18">
+        <v>0</v>
+      </c>
+      <c r="T31" s="17">
+        <v>2</v>
+      </c>
+      <c r="U31" s="17">
+        <v>10</v>
+      </c>
+      <c r="V31" s="17">
+        <v>1</v>
+      </c>
+      <c r="W31" s="17">
         <v>7</v>
       </c>
-      <c r="E23">
+      <c r="X31" s="17">
+        <v>6000</v>
+      </c>
+      <c r="Y31" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z31" s="14">
+        <v>100000000</v>
+      </c>
+      <c r="AA31" s="9">
+        <v>5</v>
+      </c>
+      <c r="AB31" s="9">
+        <v>100000000</v>
+      </c>
+      <c r="AC31" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="9">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="19">
+        <v>30</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="19">
+        <v>16</v>
+      </c>
+      <c r="E32" s="19">
         <v>4</v>
       </c>
-      <c r="F23">
+      <c r="F32" s="19">
         <v>1.2</v>
       </c>
-      <c r="G23">
+      <c r="G32" s="19">
         <v>200</v>
       </c>
-      <c r="H23">
+      <c r="H32" s="19">
+        <v>47</v>
+      </c>
+      <c r="I32" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="20">
+        <v>0</v>
+      </c>
+      <c r="K32" s="20">
+        <v>0</v>
+      </c>
+      <c r="L32" s="20">
+        <v>0</v>
+      </c>
+      <c r="M32" s="20">
+        <v>0</v>
+      </c>
+      <c r="N32" s="20">
+        <v>0</v>
+      </c>
+      <c r="O32" s="20">
+        <v>0</v>
+      </c>
+      <c r="P32" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="20">
+        <v>0</v>
+      </c>
+      <c r="R32" s="20">
+        <v>0</v>
+      </c>
+      <c r="S32" s="20">
+        <v>0</v>
+      </c>
+      <c r="T32" s="19">
+        <v>2</v>
+      </c>
+      <c r="U32" s="19">
+        <v>10</v>
+      </c>
+      <c r="V32" s="19">
+        <v>1</v>
+      </c>
+      <c r="W32" s="19">
+        <v>7</v>
+      </c>
+      <c r="X32" s="19">
+        <v>8000</v>
+      </c>
+      <c r="Y32" s="14">
+        <v>73</v>
+      </c>
+      <c r="Z32" s="14">
+        <v>5000</v>
+      </c>
+      <c r="AA32" s="9">
+        <v>73</v>
+      </c>
+      <c r="AB32" s="9">
+        <v>5000</v>
+      </c>
+      <c r="AC32" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="9">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="19">
         <v>31</v>
       </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" s="6">
-        <v>0</v>
-      </c>
-      <c r="K23" s="6">
-        <v>0</v>
-      </c>
-      <c r="L23" s="6">
-        <v>0</v>
-      </c>
-      <c r="M23" s="6">
-        <v>0</v>
-      </c>
-      <c r="N23" s="6">
-        <v>0</v>
-      </c>
-      <c r="O23" s="6">
-        <v>0</v>
-      </c>
-      <c r="P23" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>0</v>
-      </c>
-      <c r="R23" s="6">
-        <v>0</v>
-      </c>
-      <c r="S23" s="6">
-        <v>0</v>
-      </c>
-      <c r="T23">
+      <c r="B33" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="19">
+        <v>16</v>
+      </c>
+      <c r="E33" s="19">
+        <v>4</v>
+      </c>
+      <c r="F33" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="G33" s="19">
+        <v>200</v>
+      </c>
+      <c r="H33" s="19">
+        <v>50</v>
+      </c>
+      <c r="I33" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="20">
+        <v>0</v>
+      </c>
+      <c r="K33" s="20">
+        <v>0</v>
+      </c>
+      <c r="L33" s="20">
+        <v>0</v>
+      </c>
+      <c r="M33" s="20">
+        <v>0</v>
+      </c>
+      <c r="N33" s="20">
+        <v>0</v>
+      </c>
+      <c r="O33" s="20">
+        <v>0</v>
+      </c>
+      <c r="P33" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="20">
+        <v>0</v>
+      </c>
+      <c r="R33" s="20">
+        <v>0</v>
+      </c>
+      <c r="S33" s="20">
+        <v>0</v>
+      </c>
+      <c r="T33" s="19">
         <v>2</v>
       </c>
-      <c r="U23">
+      <c r="U33" s="19">
         <v>10</v>
       </c>
-      <c r="V23">
-        <v>1</v>
-      </c>
-      <c r="W23">
+      <c r="V33" s="19">
+        <v>1</v>
+      </c>
+      <c r="W33" s="19">
         <v>7</v>
       </c>
-      <c r="X23">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24">
-        <v>8</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-      <c r="F24">
-        <v>1.2</v>
-      </c>
-      <c r="G24">
-        <v>200</v>
-      </c>
-      <c r="H24">
-        <v>32</v>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" s="6">
-        <v>0</v>
-      </c>
-      <c r="K24" s="6">
-        <v>0</v>
-      </c>
-      <c r="L24" s="6">
-        <v>0</v>
-      </c>
-      <c r="M24" s="6">
-        <v>0</v>
-      </c>
-      <c r="N24" s="6">
-        <v>0</v>
-      </c>
-      <c r="O24" s="6">
-        <v>0</v>
-      </c>
-      <c r="P24" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>0</v>
-      </c>
-      <c r="R24" s="6">
-        <v>0</v>
-      </c>
-      <c r="S24" s="6">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>2</v>
-      </c>
-      <c r="U24">
-        <v>10</v>
-      </c>
-      <c r="V24">
-        <v>1</v>
-      </c>
-      <c r="W24">
-        <v>7</v>
-      </c>
-      <c r="X24">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25">
-        <v>9</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <v>1.2</v>
-      </c>
-      <c r="G25">
-        <v>200</v>
-      </c>
-      <c r="H25">
-        <v>33</v>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" s="6">
-        <v>0</v>
-      </c>
-      <c r="K25" s="6">
-        <v>0</v>
-      </c>
-      <c r="L25" s="6">
-        <v>0</v>
-      </c>
-      <c r="M25" s="6">
-        <v>0</v>
-      </c>
-      <c r="N25" s="6">
-        <v>0</v>
-      </c>
-      <c r="O25" s="6">
-        <v>0</v>
-      </c>
-      <c r="P25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>0</v>
-      </c>
-      <c r="R25" s="6">
-        <v>0</v>
-      </c>
-      <c r="S25" s="6">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>2</v>
-      </c>
-      <c r="U25">
-        <v>10</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="W25">
-        <v>7</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26">
-        <v>8</v>
-      </c>
-      <c r="E26">
-        <v>4</v>
-      </c>
-      <c r="F26">
-        <v>1.2</v>
-      </c>
-      <c r="G26">
-        <v>200</v>
-      </c>
-      <c r="H26">
-        <v>34</v>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" s="6">
-        <v>0</v>
-      </c>
-      <c r="K26" s="6">
-        <v>0</v>
-      </c>
-      <c r="L26" s="6">
-        <v>0</v>
-      </c>
-      <c r="M26" s="6">
-        <v>0</v>
-      </c>
-      <c r="N26" s="6">
-        <v>0</v>
-      </c>
-      <c r="O26" s="6">
-        <v>0</v>
-      </c>
-      <c r="P26" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>0</v>
-      </c>
-      <c r="R26" s="6">
-        <v>0</v>
-      </c>
-      <c r="S26" s="6">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>2</v>
-      </c>
-      <c r="U26">
-        <v>10</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>7</v>
-      </c>
-      <c r="X26">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27">
-        <v>8</v>
-      </c>
-      <c r="E27">
-        <v>4</v>
-      </c>
-      <c r="F27">
-        <v>1.2</v>
-      </c>
-      <c r="G27">
-        <v>200</v>
-      </c>
-      <c r="H27">
-        <v>37</v>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" s="6">
-        <v>0</v>
-      </c>
-      <c r="K27" s="6">
-        <v>0</v>
-      </c>
-      <c r="L27" s="6">
-        <v>0</v>
-      </c>
-      <c r="M27" s="6">
-        <v>0</v>
-      </c>
-      <c r="N27" s="6">
-        <v>0</v>
-      </c>
-      <c r="O27" s="6">
-        <v>0</v>
-      </c>
-      <c r="P27" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="6">
-        <v>0</v>
-      </c>
-      <c r="R27" s="6">
-        <v>0</v>
-      </c>
-      <c r="S27" s="6">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>2</v>
-      </c>
-      <c r="U27">
-        <v>10</v>
-      </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="W27">
-        <v>7</v>
-      </c>
-      <c r="X27">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28">
-        <v>8</v>
-      </c>
-      <c r="E28">
-        <v>4</v>
-      </c>
-      <c r="F28">
-        <v>1.2</v>
-      </c>
-      <c r="G28">
-        <v>200</v>
-      </c>
-      <c r="H28">
-        <v>38</v>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" s="6">
-        <v>0</v>
-      </c>
-      <c r="K28" s="6">
-        <v>0</v>
-      </c>
-      <c r="L28" s="6">
-        <v>0</v>
-      </c>
-      <c r="M28" s="6">
-        <v>0</v>
-      </c>
-      <c r="N28" s="6">
-        <v>0</v>
-      </c>
-      <c r="O28" s="6">
-        <v>0</v>
-      </c>
-      <c r="P28" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>0</v>
-      </c>
-      <c r="R28" s="6">
-        <v>0</v>
-      </c>
-      <c r="S28" s="6">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>2</v>
-      </c>
-      <c r="U28">
-        <v>10</v>
-      </c>
-      <c r="V28">
-        <v>1</v>
-      </c>
-      <c r="W28">
-        <v>7</v>
-      </c>
-      <c r="X28">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29">
-        <v>8</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
-      </c>
-      <c r="F29">
-        <v>1.2</v>
-      </c>
-      <c r="G29">
-        <v>200</v>
-      </c>
-      <c r="H29">
-        <v>42</v>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" s="6">
-        <v>0</v>
-      </c>
-      <c r="K29" s="6">
-        <v>0</v>
-      </c>
-      <c r="L29" s="6">
-        <v>0</v>
-      </c>
-      <c r="M29" s="6">
-        <v>0</v>
-      </c>
-      <c r="N29" s="6">
-        <v>0</v>
-      </c>
-      <c r="O29" s="6">
-        <v>0</v>
-      </c>
-      <c r="P29" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>0</v>
-      </c>
-      <c r="R29" s="6">
-        <v>0</v>
-      </c>
-      <c r="S29" s="6">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>2</v>
-      </c>
-      <c r="U29">
-        <v>10</v>
-      </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-      <c r="W29">
-        <v>7</v>
-      </c>
-      <c r="X29">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30">
-        <v>10</v>
-      </c>
-      <c r="E30">
-        <v>4</v>
-      </c>
-      <c r="F30">
-        <v>1.2</v>
-      </c>
-      <c r="G30">
-        <v>200</v>
-      </c>
-      <c r="H30">
-        <v>44</v>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" s="6">
-        <v>0</v>
-      </c>
-      <c r="K30" s="6">
-        <v>0</v>
-      </c>
-      <c r="L30" s="6">
-        <v>0</v>
-      </c>
-      <c r="M30" s="6">
-        <v>0</v>
-      </c>
-      <c r="N30" s="6">
-        <v>0</v>
-      </c>
-      <c r="O30" s="6">
-        <v>0</v>
-      </c>
-      <c r="P30" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>0</v>
-      </c>
-      <c r="R30" s="6">
-        <v>0</v>
-      </c>
-      <c r="S30" s="6">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>2</v>
-      </c>
-      <c r="U30">
-        <v>10</v>
-      </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-      <c r="W30">
-        <v>7</v>
-      </c>
-      <c r="X30">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31">
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <v>4</v>
-      </c>
-      <c r="F31">
-        <v>1.2</v>
-      </c>
-      <c r="G31">
-        <v>200</v>
-      </c>
-      <c r="H31">
-        <v>45</v>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" s="6">
-        <v>0</v>
-      </c>
-      <c r="K31" s="6">
-        <v>0</v>
-      </c>
-      <c r="L31" s="6">
-        <v>0</v>
-      </c>
-      <c r="M31" s="6">
-        <v>0</v>
-      </c>
-      <c r="N31" s="6">
-        <v>0</v>
-      </c>
-      <c r="O31" s="6">
-        <v>0</v>
-      </c>
-      <c r="P31" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="6">
-        <v>0</v>
-      </c>
-      <c r="R31" s="6">
-        <v>0</v>
-      </c>
-      <c r="S31" s="6">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>2</v>
-      </c>
-      <c r="U31">
-        <v>10</v>
-      </c>
-      <c r="V31">
-        <v>1</v>
-      </c>
-      <c r="W31">
-        <v>7</v>
-      </c>
-      <c r="X31">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32">
-        <v>16</v>
-      </c>
-      <c r="E32">
-        <v>4</v>
-      </c>
-      <c r="F32">
-        <v>1.2</v>
-      </c>
-      <c r="G32">
-        <v>200</v>
-      </c>
-      <c r="H32">
-        <v>47</v>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" s="6">
-        <v>0</v>
-      </c>
-      <c r="K32" s="6">
-        <v>0</v>
-      </c>
-      <c r="L32" s="6">
-        <v>0</v>
-      </c>
-      <c r="M32" s="6">
-        <v>0</v>
-      </c>
-      <c r="N32" s="6">
-        <v>0</v>
-      </c>
-      <c r="O32" s="6">
-        <v>0</v>
-      </c>
-      <c r="P32" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="6">
-        <v>0</v>
-      </c>
-      <c r="R32" s="6">
-        <v>0</v>
-      </c>
-      <c r="S32" s="6">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>2</v>
-      </c>
-      <c r="U32">
-        <v>10</v>
-      </c>
-      <c r="V32">
-        <v>1</v>
-      </c>
-      <c r="W32">
-        <v>7</v>
-      </c>
-      <c r="X32">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33">
-        <v>16</v>
-      </c>
-      <c r="E33">
-        <v>4</v>
-      </c>
-      <c r="F33">
-        <v>1.2</v>
-      </c>
-      <c r="G33">
-        <v>200</v>
-      </c>
-      <c r="H33">
-        <v>50</v>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" s="6">
-        <v>0</v>
-      </c>
-      <c r="K33" s="6">
-        <v>0</v>
-      </c>
-      <c r="L33" s="6">
-        <v>0</v>
-      </c>
-      <c r="M33" s="6">
-        <v>0</v>
-      </c>
-      <c r="N33" s="6">
-        <v>0</v>
-      </c>
-      <c r="O33" s="6">
-        <v>0</v>
-      </c>
-      <c r="P33" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="6">
-        <v>0</v>
-      </c>
-      <c r="R33" s="6">
-        <v>0</v>
-      </c>
-      <c r="S33" s="6">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>2</v>
-      </c>
-      <c r="U33">
-        <v>10</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33">
-        <v>7</v>
-      </c>
-      <c r="X33">
+      <c r="X33" s="19">
         <v>10000</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y33" s="14">
+        <v>73</v>
+      </c>
+      <c r="Z33" s="14">
+        <v>5000</v>
+      </c>
+      <c r="AA33" s="9">
+        <v>73</v>
+      </c>
+      <c r="AB33" s="9">
+        <v>5000</v>
+      </c>
+      <c r="AC33" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="9">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="D34">
         <v>17</v>
@@ -3498,1643 +4492,2316 @@
       <c r="X34">
         <v>12000</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="Y34" s="14">
+        <v>73</v>
+      </c>
+      <c r="Z34" s="14">
+        <v>5000</v>
+      </c>
+      <c r="AA34" s="9">
+        <v>73</v>
+      </c>
+      <c r="AB34" s="9">
+        <v>5000</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="9">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="19">
+        <v>16</v>
+      </c>
+      <c r="E35" s="19">
+        <v>4</v>
+      </c>
+      <c r="F35" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="G35" s="19">
+        <v>200</v>
+      </c>
+      <c r="H35" s="19">
+        <v>53</v>
+      </c>
+      <c r="I35" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="20">
+        <v>0</v>
+      </c>
+      <c r="K35" s="20">
+        <v>0</v>
+      </c>
+      <c r="L35" s="20">
+        <v>0</v>
+      </c>
+      <c r="M35" s="20">
+        <v>0</v>
+      </c>
+      <c r="N35" s="20">
+        <v>0</v>
+      </c>
+      <c r="O35" s="20">
+        <v>0</v>
+      </c>
+      <c r="P35" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="20">
+        <v>0</v>
+      </c>
+      <c r="R35" s="20">
+        <v>0</v>
+      </c>
+      <c r="S35" s="20">
+        <v>0</v>
+      </c>
+      <c r="T35" s="19">
+        <v>2</v>
+      </c>
+      <c r="U35" s="19">
+        <v>10</v>
+      </c>
+      <c r="V35" s="19">
+        <v>1</v>
+      </c>
+      <c r="W35" s="19">
+        <v>7</v>
+      </c>
+      <c r="X35" s="19">
+        <v>14000</v>
+      </c>
+      <c r="Y35" s="14">
+        <v>73</v>
+      </c>
+      <c r="Z35" s="14">
+        <v>5000</v>
+      </c>
+      <c r="AA35" s="9">
+        <v>73</v>
+      </c>
+      <c r="AB35" s="9">
+        <v>5000</v>
+      </c>
+      <c r="AC35" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="9">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="19">
+        <v>34</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35">
+      <c r="C36" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="19">
         <v>16</v>
       </c>
-      <c r="E35">
+      <c r="E36" s="19">
         <v>4</v>
       </c>
-      <c r="F35">
+      <c r="F36" s="19">
         <v>1.2</v>
       </c>
-      <c r="G35">
+      <c r="G36" s="19">
         <v>200</v>
       </c>
-      <c r="H35">
+      <c r="H36" s="19">
+        <v>55</v>
+      </c>
+      <c r="I36" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="20">
+        <v>0</v>
+      </c>
+      <c r="K36" s="20">
+        <v>0</v>
+      </c>
+      <c r="L36" s="20">
+        <v>0</v>
+      </c>
+      <c r="M36" s="20">
+        <v>0</v>
+      </c>
+      <c r="N36" s="20">
+        <v>0</v>
+      </c>
+      <c r="O36" s="20">
+        <v>0</v>
+      </c>
+      <c r="P36" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="20">
+        <v>0</v>
+      </c>
+      <c r="R36" s="20">
+        <v>0</v>
+      </c>
+      <c r="S36" s="20">
+        <v>0</v>
+      </c>
+      <c r="T36" s="19">
+        <v>2</v>
+      </c>
+      <c r="U36" s="19">
+        <v>10</v>
+      </c>
+      <c r="V36" s="19">
+        <v>1</v>
+      </c>
+      <c r="W36" s="19">
+        <v>7</v>
+      </c>
+      <c r="X36" s="19">
+        <v>16000</v>
+      </c>
+      <c r="Y36" s="14">
+        <v>73</v>
+      </c>
+      <c r="Z36" s="14">
+        <v>5000</v>
+      </c>
+      <c r="AA36" s="9">
+        <v>73</v>
+      </c>
+      <c r="AB36" s="9">
+        <v>5000</v>
+      </c>
+      <c r="AC36" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="9">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21">
+        <v>35</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="21">
+        <v>18</v>
+      </c>
+      <c r="E37" s="21">
+        <v>4</v>
+      </c>
+      <c r="F37" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="G37" s="21">
+        <v>200</v>
+      </c>
+      <c r="H37" s="21">
+        <v>58</v>
+      </c>
+      <c r="I37" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="22">
+        <v>0</v>
+      </c>
+      <c r="K37" s="22">
+        <v>0</v>
+      </c>
+      <c r="L37" s="22">
+        <v>0</v>
+      </c>
+      <c r="M37" s="22">
+        <v>0</v>
+      </c>
+      <c r="N37" s="22">
+        <v>0</v>
+      </c>
+      <c r="O37" s="22">
+        <v>0</v>
+      </c>
+      <c r="P37" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="22">
+        <v>0</v>
+      </c>
+      <c r="R37" s="22">
+        <v>0</v>
+      </c>
+      <c r="S37" s="22">
+        <v>0</v>
+      </c>
+      <c r="T37" s="21">
+        <v>2</v>
+      </c>
+      <c r="U37" s="21">
+        <v>10</v>
+      </c>
+      <c r="V37" s="21">
+        <v>1</v>
+      </c>
+      <c r="W37" s="21">
+        <v>7</v>
+      </c>
+      <c r="X37" s="21">
+        <v>18000</v>
+      </c>
+      <c r="Y37" s="14">
+        <v>88</v>
+      </c>
+      <c r="Z37" s="14">
+        <v>5000</v>
+      </c>
+      <c r="AA37" s="9">
+        <v>88</v>
+      </c>
+      <c r="AB37" s="9">
+        <v>5000</v>
+      </c>
+      <c r="AC37" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="9">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="21">
+        <v>36</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" s="21">
+        <v>18</v>
+      </c>
+      <c r="E38" s="21">
+        <v>4</v>
+      </c>
+      <c r="F38" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="G38" s="21">
+        <v>200</v>
+      </c>
+      <c r="H38" s="21">
+        <v>59</v>
+      </c>
+      <c r="I38" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="22">
+        <v>0</v>
+      </c>
+      <c r="K38" s="22">
+        <v>0</v>
+      </c>
+      <c r="L38" s="22">
+        <v>0</v>
+      </c>
+      <c r="M38" s="22">
+        <v>0</v>
+      </c>
+      <c r="N38" s="22">
+        <v>0</v>
+      </c>
+      <c r="O38" s="22">
+        <v>0</v>
+      </c>
+      <c r="P38" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="22">
+        <v>0</v>
+      </c>
+      <c r="R38" s="22">
+        <v>0</v>
+      </c>
+      <c r="S38" s="22">
+        <v>0</v>
+      </c>
+      <c r="T38" s="21">
+        <v>2</v>
+      </c>
+      <c r="U38" s="21">
+        <v>10</v>
+      </c>
+      <c r="V38" s="21">
+        <v>1</v>
+      </c>
+      <c r="W38" s="21">
+        <v>7</v>
+      </c>
+      <c r="X38" s="21">
+        <v>20000</v>
+      </c>
+      <c r="Y38" s="14">
+        <v>88</v>
+      </c>
+      <c r="Z38" s="14">
+        <v>5000</v>
+      </c>
+      <c r="AA38" s="9">
+        <v>88</v>
+      </c>
+      <c r="AB38" s="9">
+        <v>5000</v>
+      </c>
+      <c r="AC38" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="9">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21">
+        <v>37</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="21">
+        <v>18</v>
+      </c>
+      <c r="E39" s="21">
+        <v>4</v>
+      </c>
+      <c r="F39" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="G39" s="21">
+        <v>200</v>
+      </c>
+      <c r="H39" s="21">
+        <v>60</v>
+      </c>
+      <c r="I39" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="22">
+        <v>0</v>
+      </c>
+      <c r="K39" s="22">
+        <v>0</v>
+      </c>
+      <c r="L39" s="22">
+        <v>0</v>
+      </c>
+      <c r="M39" s="22">
+        <v>0</v>
+      </c>
+      <c r="N39" s="22">
+        <v>0</v>
+      </c>
+      <c r="O39" s="22">
+        <v>0</v>
+      </c>
+      <c r="P39" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="22">
+        <v>0</v>
+      </c>
+      <c r="R39" s="22">
+        <v>0</v>
+      </c>
+      <c r="S39" s="22">
+        <v>0</v>
+      </c>
+      <c r="T39" s="21">
+        <v>2</v>
+      </c>
+      <c r="U39" s="21">
+        <v>10</v>
+      </c>
+      <c r="V39" s="21">
+        <v>1</v>
+      </c>
+      <c r="W39" s="21">
+        <v>7</v>
+      </c>
+      <c r="X39" s="21">
+        <v>22000</v>
+      </c>
+      <c r="Y39" s="14">
+        <v>88</v>
+      </c>
+      <c r="Z39" s="14">
+        <v>5000</v>
+      </c>
+      <c r="AA39" s="9">
+        <v>88</v>
+      </c>
+      <c r="AB39" s="9">
+        <v>5000</v>
+      </c>
+      <c r="AC39" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD39" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="9">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="21">
+        <v>38</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D40" s="21">
+        <v>18</v>
+      </c>
+      <c r="E40" s="21">
+        <v>4</v>
+      </c>
+      <c r="F40" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="G40" s="21">
+        <v>200</v>
+      </c>
+      <c r="H40" s="21">
+        <v>61</v>
+      </c>
+      <c r="I40" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="22">
+        <v>0</v>
+      </c>
+      <c r="K40" s="22">
+        <v>0</v>
+      </c>
+      <c r="L40" s="22">
+        <v>0</v>
+      </c>
+      <c r="M40" s="22">
+        <v>0</v>
+      </c>
+      <c r="N40" s="22">
+        <v>0</v>
+      </c>
+      <c r="O40" s="22">
+        <v>0</v>
+      </c>
+      <c r="P40" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="22">
+        <v>0</v>
+      </c>
+      <c r="R40" s="22">
+        <v>0</v>
+      </c>
+      <c r="S40" s="22">
+        <v>0</v>
+      </c>
+      <c r="T40" s="21">
+        <v>2</v>
+      </c>
+      <c r="U40" s="21">
+        <v>10</v>
+      </c>
+      <c r="V40" s="21">
+        <v>1</v>
+      </c>
+      <c r="W40" s="21">
+        <v>7</v>
+      </c>
+      <c r="X40" s="21">
+        <v>24000</v>
+      </c>
+      <c r="Y40" s="14">
+        <v>88</v>
+      </c>
+      <c r="Z40" s="14">
+        <v>5000</v>
+      </c>
+      <c r="AA40" s="9">
+        <v>88</v>
+      </c>
+      <c r="AB40" s="9">
+        <v>5000</v>
+      </c>
+      <c r="AC40" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="9">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="21">
+        <v>39</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" s="21">
+        <v>18</v>
+      </c>
+      <c r="E41" s="21">
+        <v>4</v>
+      </c>
+      <c r="F41" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="G41" s="21">
+        <v>200</v>
+      </c>
+      <c r="H41" s="21">
+        <v>62</v>
+      </c>
+      <c r="I41" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="22">
+        <v>0</v>
+      </c>
+      <c r="K41" s="22">
+        <v>0</v>
+      </c>
+      <c r="L41" s="22">
+        <v>0</v>
+      </c>
+      <c r="M41" s="22">
+        <v>0</v>
+      </c>
+      <c r="N41" s="22">
+        <v>0</v>
+      </c>
+      <c r="O41" s="22">
+        <v>0</v>
+      </c>
+      <c r="P41" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="22">
+        <v>0</v>
+      </c>
+      <c r="R41" s="22">
+        <v>0</v>
+      </c>
+      <c r="S41" s="22">
+        <v>0</v>
+      </c>
+      <c r="T41" s="21">
+        <v>2</v>
+      </c>
+      <c r="U41" s="21">
+        <v>10</v>
+      </c>
+      <c r="V41" s="21">
+        <v>1</v>
+      </c>
+      <c r="W41" s="21">
+        <v>7</v>
+      </c>
+      <c r="X41" s="21">
+        <v>26000</v>
+      </c>
+      <c r="Y41" s="14">
+        <v>88</v>
+      </c>
+      <c r="Z41" s="14">
+        <v>5000</v>
+      </c>
+      <c r="AA41" s="9">
+        <v>88</v>
+      </c>
+      <c r="AB41" s="9">
+        <v>5000</v>
+      </c>
+      <c r="AC41" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="9">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="21">
+        <v>40</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="21">
+        <v>18</v>
+      </c>
+      <c r="E42" s="21">
+        <v>4</v>
+      </c>
+      <c r="F42" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="G42" s="21">
+        <v>200</v>
+      </c>
+      <c r="H42" s="21">
+        <v>67</v>
+      </c>
+      <c r="I42" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" s="22">
+        <v>0</v>
+      </c>
+      <c r="K42" s="22">
+        <v>0</v>
+      </c>
+      <c r="L42" s="22">
+        <v>0</v>
+      </c>
+      <c r="M42" s="22">
+        <v>0</v>
+      </c>
+      <c r="N42" s="22">
+        <v>0</v>
+      </c>
+      <c r="O42" s="22">
+        <v>0</v>
+      </c>
+      <c r="P42" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="22">
+        <v>0</v>
+      </c>
+      <c r="R42" s="22">
+        <v>0</v>
+      </c>
+      <c r="S42" s="22">
+        <v>0</v>
+      </c>
+      <c r="T42" s="21">
+        <v>2</v>
+      </c>
+      <c r="U42" s="21">
+        <v>10</v>
+      </c>
+      <c r="V42" s="21">
+        <v>1</v>
+      </c>
+      <c r="W42" s="21">
+        <v>7</v>
+      </c>
+      <c r="X42" s="21">
+        <v>28000</v>
+      </c>
+      <c r="Y42" s="14">
+        <v>88</v>
+      </c>
+      <c r="Z42" s="14">
+        <v>5000</v>
+      </c>
+      <c r="AA42" s="9">
+        <v>88</v>
+      </c>
+      <c r="AB42" s="9">
+        <v>5000</v>
+      </c>
+      <c r="AC42" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD42" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="9">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21">
+        <v>41</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" s="21">
+        <v>18</v>
+      </c>
+      <c r="E43" s="21">
+        <v>4</v>
+      </c>
+      <c r="F43" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="G43" s="21">
+        <v>200</v>
+      </c>
+      <c r="H43" s="21">
+        <v>68</v>
+      </c>
+      <c r="I43" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" s="22">
+        <v>0</v>
+      </c>
+      <c r="K43" s="22">
+        <v>0</v>
+      </c>
+      <c r="L43" s="22">
+        <v>0</v>
+      </c>
+      <c r="M43" s="22">
+        <v>0</v>
+      </c>
+      <c r="N43" s="22">
+        <v>0</v>
+      </c>
+      <c r="O43" s="22">
+        <v>0</v>
+      </c>
+      <c r="P43" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="22">
+        <v>0</v>
+      </c>
+      <c r="R43" s="22">
+        <v>0</v>
+      </c>
+      <c r="S43" s="22">
+        <v>0</v>
+      </c>
+      <c r="T43" s="21">
+        <v>2</v>
+      </c>
+      <c r="U43" s="21">
+        <v>10</v>
+      </c>
+      <c r="V43" s="21">
+        <v>1</v>
+      </c>
+      <c r="W43" s="21">
+        <v>7</v>
+      </c>
+      <c r="X43" s="21">
+        <v>30000</v>
+      </c>
+      <c r="Y43" s="14">
+        <v>88</v>
+      </c>
+      <c r="Z43" s="14">
+        <v>5000</v>
+      </c>
+      <c r="AA43" s="9">
+        <v>88</v>
+      </c>
+      <c r="AB43" s="9">
+        <v>5000</v>
+      </c>
+      <c r="AC43" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD43" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="9">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="23">
+        <v>42</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="23">
+        <v>22</v>
+      </c>
+      <c r="E44" s="23">
+        <v>4</v>
+      </c>
+      <c r="F44" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="G44" s="23">
+        <v>200</v>
+      </c>
+      <c r="H44" s="23">
+        <v>72</v>
+      </c>
+      <c r="I44" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="24">
+        <v>0</v>
+      </c>
+      <c r="K44" s="24">
+        <v>0</v>
+      </c>
+      <c r="L44" s="24">
+        <v>0</v>
+      </c>
+      <c r="M44" s="24">
+        <v>0</v>
+      </c>
+      <c r="N44" s="24">
+        <v>0</v>
+      </c>
+      <c r="O44" s="24">
+        <v>0</v>
+      </c>
+      <c r="P44" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="24">
+        <v>0</v>
+      </c>
+      <c r="R44" s="24">
+        <v>0</v>
+      </c>
+      <c r="S44" s="24">
+        <v>0</v>
+      </c>
+      <c r="T44" s="23">
+        <v>2</v>
+      </c>
+      <c r="U44" s="23">
+        <v>10</v>
+      </c>
+      <c r="V44" s="23">
+        <v>1</v>
+      </c>
+      <c r="W44" s="23">
+        <v>7</v>
+      </c>
+      <c r="X44" s="23">
+        <v>32000</v>
+      </c>
+      <c r="Y44" s="14">
+        <v>9001</v>
+      </c>
+      <c r="Z44" s="14">
+        <v>5000</v>
+      </c>
+      <c r="AA44" s="14">
+        <v>9001</v>
+      </c>
+      <c r="AB44" s="9">
+        <v>5000</v>
+      </c>
+      <c r="AC44" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="9">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="23">
+        <v>43</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" s="23">
+        <v>22</v>
+      </c>
+      <c r="E45" s="23">
+        <v>4</v>
+      </c>
+      <c r="F45" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="G45" s="23">
+        <v>200</v>
+      </c>
+      <c r="H45" s="23">
+        <v>73</v>
+      </c>
+      <c r="I45" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" s="24">
+        <v>0</v>
+      </c>
+      <c r="K45" s="24">
+        <v>0</v>
+      </c>
+      <c r="L45" s="24">
+        <v>0</v>
+      </c>
+      <c r="M45" s="24">
+        <v>0</v>
+      </c>
+      <c r="N45" s="24">
+        <v>0</v>
+      </c>
+      <c r="O45" s="24">
+        <v>0</v>
+      </c>
+      <c r="P45" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="24">
+        <v>0</v>
+      </c>
+      <c r="R45" s="24">
+        <v>0</v>
+      </c>
+      <c r="S45" s="24">
+        <v>0</v>
+      </c>
+      <c r="T45" s="23">
+        <v>2</v>
+      </c>
+      <c r="U45" s="23">
+        <v>10</v>
+      </c>
+      <c r="V45" s="23">
+        <v>1</v>
+      </c>
+      <c r="W45" s="23">
+        <v>7</v>
+      </c>
+      <c r="X45" s="23">
+        <v>34000</v>
+      </c>
+      <c r="Y45" s="14">
+        <v>9001</v>
+      </c>
+      <c r="Z45" s="14">
+        <v>5000</v>
+      </c>
+      <c r="AA45" s="14">
+        <v>9001</v>
+      </c>
+      <c r="AB45" s="9">
+        <v>5000</v>
+      </c>
+      <c r="AC45" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="9">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="23">
+        <v>44</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" s="23">
+        <v>22</v>
+      </c>
+      <c r="E46" s="23">
+        <v>4</v>
+      </c>
+      <c r="F46" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="G46" s="23">
+        <v>200</v>
+      </c>
+      <c r="H46" s="23">
+        <v>74</v>
+      </c>
+      <c r="I46" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" s="24">
+        <v>0</v>
+      </c>
+      <c r="K46" s="24">
+        <v>0</v>
+      </c>
+      <c r="L46" s="24">
+        <v>0</v>
+      </c>
+      <c r="M46" s="24">
+        <v>0</v>
+      </c>
+      <c r="N46" s="24">
+        <v>0</v>
+      </c>
+      <c r="O46" s="24">
+        <v>0</v>
+      </c>
+      <c r="P46" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="24">
+        <v>0</v>
+      </c>
+      <c r="R46" s="24">
+        <v>0</v>
+      </c>
+      <c r="S46" s="24">
+        <v>0</v>
+      </c>
+      <c r="T46" s="23">
+        <v>2</v>
+      </c>
+      <c r="U46" s="23">
+        <v>10</v>
+      </c>
+      <c r="V46" s="23">
+        <v>1</v>
+      </c>
+      <c r="W46" s="23">
+        <v>7</v>
+      </c>
+      <c r="X46" s="23">
+        <v>36000</v>
+      </c>
+      <c r="Y46" s="14">
+        <v>9001</v>
+      </c>
+      <c r="Z46" s="14">
+        <v>5000</v>
+      </c>
+      <c r="AA46" s="14">
+        <v>9001</v>
+      </c>
+      <c r="AB46" s="9">
+        <v>5000</v>
+      </c>
+      <c r="AC46" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD46" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="9">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" s="10" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
+        <v>45</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D47" s="10">
+        <v>9</v>
+      </c>
+      <c r="E47" s="10">
+        <v>4</v>
+      </c>
+      <c r="F47" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G47" s="10">
+        <v>200</v>
+      </c>
+      <c r="H47" s="10">
+        <v>75</v>
+      </c>
+      <c r="I47" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" s="11">
+        <v>0</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0</v>
+      </c>
+      <c r="L47" s="11">
+        <v>0</v>
+      </c>
+      <c r="M47" s="11">
+        <v>0</v>
+      </c>
+      <c r="N47" s="11">
+        <v>0</v>
+      </c>
+      <c r="O47" s="11">
+        <v>0</v>
+      </c>
+      <c r="P47" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="11">
+        <v>0</v>
+      </c>
+      <c r="R47" s="11">
+        <v>0</v>
+      </c>
+      <c r="S47" s="11">
+        <v>0</v>
+      </c>
+      <c r="T47" s="10">
+        <v>2</v>
+      </c>
+      <c r="U47" s="10">
+        <v>10</v>
+      </c>
+      <c r="V47" s="10">
+        <v>1</v>
+      </c>
+      <c r="W47" s="10">
+        <v>7</v>
+      </c>
+      <c r="X47" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="9">
+        <v>4600000</v>
+      </c>
+      <c r="AA47" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="9">
+        <v>4600</v>
+      </c>
+      <c r="AC47" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="23">
+        <v>46</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" s="23">
+        <v>22</v>
+      </c>
+      <c r="E48" s="23">
+        <v>4</v>
+      </c>
+      <c r="F48" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="G48" s="23">
+        <v>200</v>
+      </c>
+      <c r="H48" s="23">
+        <v>78</v>
+      </c>
+      <c r="I48" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="24">
+        <v>0</v>
+      </c>
+      <c r="K48" s="24">
+        <v>0</v>
+      </c>
+      <c r="L48" s="24">
+        <v>0</v>
+      </c>
+      <c r="M48" s="24">
+        <v>0</v>
+      </c>
+      <c r="N48" s="24">
+        <v>0</v>
+      </c>
+      <c r="O48" s="24">
+        <v>0</v>
+      </c>
+      <c r="P48" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="24">
+        <v>0</v>
+      </c>
+      <c r="R48" s="24">
+        <v>0</v>
+      </c>
+      <c r="S48" s="24">
+        <v>0</v>
+      </c>
+      <c r="T48" s="23">
+        <v>2</v>
+      </c>
+      <c r="U48" s="23">
+        <v>10</v>
+      </c>
+      <c r="V48" s="23">
+        <v>1</v>
+      </c>
+      <c r="W48" s="23">
+        <v>7</v>
+      </c>
+      <c r="X48" s="23">
+        <v>38000</v>
+      </c>
+      <c r="Y48" s="14">
+        <v>9001</v>
+      </c>
+      <c r="Z48" s="14">
+        <v>5000</v>
+      </c>
+      <c r="AA48" s="14">
+        <v>9001</v>
+      </c>
+      <c r="AB48" s="9">
+        <v>5000</v>
+      </c>
+      <c r="AC48" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="9">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="23">
+        <v>47</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" s="23">
+        <v>22</v>
+      </c>
+      <c r="E49" s="23">
+        <v>4</v>
+      </c>
+      <c r="F49" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="G49" s="23">
+        <v>200</v>
+      </c>
+      <c r="H49" s="23">
+        <v>79</v>
+      </c>
+      <c r="I49" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" s="24">
+        <v>0</v>
+      </c>
+      <c r="K49" s="24">
+        <v>0</v>
+      </c>
+      <c r="L49" s="24">
+        <v>0</v>
+      </c>
+      <c r="M49" s="24">
+        <v>0</v>
+      </c>
+      <c r="N49" s="24">
+        <v>0</v>
+      </c>
+      <c r="O49" s="24">
+        <v>0</v>
+      </c>
+      <c r="P49" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="24">
+        <v>0</v>
+      </c>
+      <c r="R49" s="24">
+        <v>0</v>
+      </c>
+      <c r="S49" s="24">
+        <v>0</v>
+      </c>
+      <c r="T49" s="23">
+        <v>2</v>
+      </c>
+      <c r="U49" s="23">
+        <v>10</v>
+      </c>
+      <c r="V49" s="23">
+        <v>1</v>
+      </c>
+      <c r="W49" s="23">
+        <v>7</v>
+      </c>
+      <c r="X49" s="23">
+        <v>40000</v>
+      </c>
+      <c r="Y49" s="14">
+        <v>9001</v>
+      </c>
+      <c r="Z49" s="14">
+        <v>5000</v>
+      </c>
+      <c r="AA49" s="14">
+        <v>9001</v>
+      </c>
+      <c r="AB49" s="9">
+        <v>5000</v>
+      </c>
+      <c r="AC49" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="9">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="23">
+        <v>48</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" s="23">
+        <v>22</v>
+      </c>
+      <c r="E50" s="23">
+        <v>4</v>
+      </c>
+      <c r="F50" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="G50" s="23">
+        <v>200</v>
+      </c>
+      <c r="H50" s="23">
+        <v>82</v>
+      </c>
+      <c r="I50" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" s="24">
+        <v>0</v>
+      </c>
+      <c r="K50" s="24">
+        <v>0</v>
+      </c>
+      <c r="L50" s="24">
+        <v>0</v>
+      </c>
+      <c r="M50" s="24">
+        <v>0</v>
+      </c>
+      <c r="N50" s="24">
+        <v>0</v>
+      </c>
+      <c r="O50" s="24">
+        <v>0</v>
+      </c>
+      <c r="P50" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="24">
+        <v>0</v>
+      </c>
+      <c r="R50" s="24">
+        <v>0</v>
+      </c>
+      <c r="S50" s="24">
+        <v>0</v>
+      </c>
+      <c r="T50" s="23">
+        <v>2</v>
+      </c>
+      <c r="U50" s="23">
+        <v>10</v>
+      </c>
+      <c r="V50" s="23">
+        <v>1</v>
+      </c>
+      <c r="W50" s="23">
+        <v>7</v>
+      </c>
+      <c r="X50" s="23">
+        <v>42000</v>
+      </c>
+      <c r="Y50" s="14">
+        <v>9001</v>
+      </c>
+      <c r="Z50" s="14">
+        <v>5000</v>
+      </c>
+      <c r="AA50" s="14">
+        <v>9001</v>
+      </c>
+      <c r="AB50" s="9">
+        <v>5000</v>
+      </c>
+      <c r="AC50" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD50" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="9">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="23">
+        <v>49</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D51" s="23">
+        <v>22</v>
+      </c>
+      <c r="E51" s="23">
+        <v>4</v>
+      </c>
+      <c r="F51" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="G51" s="23">
+        <v>200</v>
+      </c>
+      <c r="H51" s="23">
+        <v>83</v>
+      </c>
+      <c r="I51" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="24">
+        <v>0</v>
+      </c>
+      <c r="K51" s="24">
+        <v>0</v>
+      </c>
+      <c r="L51" s="24">
+        <v>0</v>
+      </c>
+      <c r="M51" s="24">
+        <v>0</v>
+      </c>
+      <c r="N51" s="24">
+        <v>0</v>
+      </c>
+      <c r="O51" s="24">
+        <v>0</v>
+      </c>
+      <c r="P51" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="24">
+        <v>0</v>
+      </c>
+      <c r="R51" s="24">
+        <v>0</v>
+      </c>
+      <c r="S51" s="24">
+        <v>0</v>
+      </c>
+      <c r="T51" s="23">
+        <v>2</v>
+      </c>
+      <c r="U51" s="23">
+        <v>10</v>
+      </c>
+      <c r="V51" s="23">
+        <v>1</v>
+      </c>
+      <c r="W51" s="23">
+        <v>7</v>
+      </c>
+      <c r="X51" s="23">
+        <v>44000</v>
+      </c>
+      <c r="Y51" s="14">
+        <v>9001</v>
+      </c>
+      <c r="Z51" s="14">
+        <v>5000</v>
+      </c>
+      <c r="AA51" s="14">
+        <v>9001</v>
+      </c>
+      <c r="AB51" s="9">
+        <v>5000</v>
+      </c>
+      <c r="AC51" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="9">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" s="10" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
+        <v>50</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="10">
+        <v>9</v>
+      </c>
+      <c r="E52" s="10">
+        <v>4</v>
+      </c>
+      <c r="F52" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G52" s="10">
+        <v>200</v>
+      </c>
+      <c r="H52" s="10">
+        <v>75</v>
+      </c>
+      <c r="I52" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" s="11">
+        <v>0</v>
+      </c>
+      <c r="K52" s="11">
+        <v>0</v>
+      </c>
+      <c r="L52" s="11">
+        <v>0</v>
+      </c>
+      <c r="M52" s="11">
+        <v>0</v>
+      </c>
+      <c r="N52" s="11">
+        <v>0</v>
+      </c>
+      <c r="O52" s="11">
+        <v>0</v>
+      </c>
+      <c r="P52" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="11">
+        <v>0</v>
+      </c>
+      <c r="R52" s="11">
+        <v>0</v>
+      </c>
+      <c r="S52" s="11">
+        <v>0</v>
+      </c>
+      <c r="T52" s="10">
+        <v>2</v>
+      </c>
+      <c r="U52" s="10">
+        <v>10</v>
+      </c>
+      <c r="V52" s="10">
+        <v>1</v>
+      </c>
+      <c r="W52" s="10">
+        <v>7</v>
+      </c>
+      <c r="X52" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="9">
+        <v>5100000</v>
+      </c>
+      <c r="AA52" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="9">
+        <v>5100</v>
+      </c>
+      <c r="AC52" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="9">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
+        <v>51</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53" s="23">
+        <v>22</v>
+      </c>
+      <c r="E53" s="23">
+        <v>4</v>
+      </c>
+      <c r="F53" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="G53" s="23">
+        <v>200</v>
+      </c>
+      <c r="H53" s="23">
+        <v>91</v>
+      </c>
+      <c r="I53" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" s="24">
+        <v>0</v>
+      </c>
+      <c r="K53" s="24">
+        <v>0</v>
+      </c>
+      <c r="L53" s="24">
+        <v>0</v>
+      </c>
+      <c r="M53" s="24">
+        <v>0</v>
+      </c>
+      <c r="N53" s="24">
+        <v>0</v>
+      </c>
+      <c r="O53" s="24">
+        <v>0</v>
+      </c>
+      <c r="P53" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="24">
+        <v>0</v>
+      </c>
+      <c r="R53" s="24">
+        <v>0</v>
+      </c>
+      <c r="S53" s="24">
+        <v>0</v>
+      </c>
+      <c r="T53" s="23">
+        <v>2</v>
+      </c>
+      <c r="U53" s="23">
+        <v>10</v>
+      </c>
+      <c r="V53" s="23">
+        <v>1</v>
+      </c>
+      <c r="W53" s="23">
+        <v>7</v>
+      </c>
+      <c r="X53" s="23">
+        <v>46000</v>
+      </c>
+      <c r="Y53" s="14">
+        <v>9001</v>
+      </c>
+      <c r="Z53" s="14">
+        <v>5000</v>
+      </c>
+      <c r="AA53" s="14">
+        <v>9001</v>
+      </c>
+      <c r="AB53" s="9">
+        <v>5000</v>
+      </c>
+      <c r="AC53" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="9">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="23">
+        <v>52</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D54" s="23">
+        <v>22</v>
+      </c>
+      <c r="E54" s="23">
+        <v>4</v>
+      </c>
+      <c r="F54" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="G54" s="23">
+        <v>200</v>
+      </c>
+      <c r="H54" s="23">
+        <v>92</v>
+      </c>
+      <c r="I54" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" s="24">
+        <v>0</v>
+      </c>
+      <c r="K54" s="24">
+        <v>0</v>
+      </c>
+      <c r="L54" s="24">
+        <v>0</v>
+      </c>
+      <c r="M54" s="24">
+        <v>0</v>
+      </c>
+      <c r="N54" s="24">
+        <v>0</v>
+      </c>
+      <c r="O54" s="24">
+        <v>0</v>
+      </c>
+      <c r="P54" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="24">
+        <v>0</v>
+      </c>
+      <c r="R54" s="24">
+        <v>0</v>
+      </c>
+      <c r="S54" s="24">
+        <v>0</v>
+      </c>
+      <c r="T54" s="23">
+        <v>2</v>
+      </c>
+      <c r="U54" s="23">
+        <v>10</v>
+      </c>
+      <c r="V54" s="23">
+        <v>1</v>
+      </c>
+      <c r="W54" s="23">
+        <v>7</v>
+      </c>
+      <c r="X54" s="23">
+        <v>48000</v>
+      </c>
+      <c r="Y54" s="14">
+        <v>9001</v>
+      </c>
+      <c r="Z54" s="14">
+        <v>5000</v>
+      </c>
+      <c r="AA54" s="14">
+        <v>9001</v>
+      </c>
+      <c r="AB54" s="9">
+        <v>5000</v>
+      </c>
+      <c r="AC54" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD54" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="9">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="23">
         <v>53</v>
       </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" s="6">
-        <v>0</v>
-      </c>
-      <c r="K35" s="6">
-        <v>0</v>
-      </c>
-      <c r="L35" s="6">
-        <v>0</v>
-      </c>
-      <c r="M35" s="6">
-        <v>0</v>
-      </c>
-      <c r="N35" s="6">
-        <v>0</v>
-      </c>
-      <c r="O35" s="6">
-        <v>0</v>
-      </c>
-      <c r="P35" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="6">
-        <v>0</v>
-      </c>
-      <c r="R35" s="6">
-        <v>0</v>
-      </c>
-      <c r="S35" s="6">
-        <v>0</v>
-      </c>
-      <c r="T35">
+      <c r="B55" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D55" s="23">
+        <v>22</v>
+      </c>
+      <c r="E55" s="23">
+        <v>4</v>
+      </c>
+      <c r="F55" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="G55" s="23">
+        <v>200</v>
+      </c>
+      <c r="H55" s="23">
+        <v>93</v>
+      </c>
+      <c r="I55" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" s="24">
+        <v>0</v>
+      </c>
+      <c r="K55" s="24">
+        <v>0</v>
+      </c>
+      <c r="L55" s="24">
+        <v>0</v>
+      </c>
+      <c r="M55" s="24">
+        <v>0</v>
+      </c>
+      <c r="N55" s="24">
+        <v>0</v>
+      </c>
+      <c r="O55" s="24">
+        <v>0</v>
+      </c>
+      <c r="P55" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="24">
+        <v>0</v>
+      </c>
+      <c r="R55" s="24">
+        <v>0</v>
+      </c>
+      <c r="S55" s="24">
+        <v>0</v>
+      </c>
+      <c r="T55" s="23">
         <v>2</v>
       </c>
-      <c r="U35">
+      <c r="U55" s="23">
         <v>10</v>
       </c>
-      <c r="V35">
-        <v>1</v>
-      </c>
-      <c r="W35">
+      <c r="V55" s="23">
+        <v>1</v>
+      </c>
+      <c r="W55" s="23">
         <v>7</v>
       </c>
-      <c r="X35">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36">
-        <v>16</v>
-      </c>
-      <c r="E36">
+      <c r="X55" s="23">
+        <v>50000</v>
+      </c>
+      <c r="Y55" s="14">
+        <v>9001</v>
+      </c>
+      <c r="Z55" s="14">
+        <v>5000</v>
+      </c>
+      <c r="AA55" s="14">
+        <v>9001</v>
+      </c>
+      <c r="AB55" s="9">
+        <v>5000</v>
+      </c>
+      <c r="AC55" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD55" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="9">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="25">
+        <v>54</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="25">
+        <v>24</v>
+      </c>
+      <c r="E56" s="25">
         <v>4</v>
       </c>
-      <c r="F36">
+      <c r="F56" s="25">
         <v>1.2</v>
       </c>
-      <c r="G36">
+      <c r="G56" s="25">
         <v>200</v>
       </c>
-      <c r="H36">
+      <c r="H56" s="25">
+        <v>95</v>
+      </c>
+      <c r="I56" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" s="26">
+        <v>0</v>
+      </c>
+      <c r="K56" s="26">
+        <v>0</v>
+      </c>
+      <c r="L56" s="26">
+        <v>0</v>
+      </c>
+      <c r="M56" s="26">
+        <v>0</v>
+      </c>
+      <c r="N56" s="26">
+        <v>0</v>
+      </c>
+      <c r="O56" s="26">
+        <v>0</v>
+      </c>
+      <c r="P56" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="26">
+        <v>0</v>
+      </c>
+      <c r="R56" s="26">
+        <v>0</v>
+      </c>
+      <c r="S56" s="26">
+        <v>0</v>
+      </c>
+      <c r="T56" s="25">
+        <v>2</v>
+      </c>
+      <c r="U56" s="25">
+        <v>10</v>
+      </c>
+      <c r="V56" s="25">
+        <v>1</v>
+      </c>
+      <c r="W56" s="25">
+        <v>7</v>
+      </c>
+      <c r="X56" s="25">
+        <v>52000</v>
+      </c>
+      <c r="Y56" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z56" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AA56" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB56" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AC56" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD56" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="9">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="25">
         <v>55</v>
       </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" s="6">
-        <v>0</v>
-      </c>
-      <c r="K36" s="6">
-        <v>0</v>
-      </c>
-      <c r="L36" s="6">
-        <v>0</v>
-      </c>
-      <c r="M36" s="6">
-        <v>0</v>
-      </c>
-      <c r="N36" s="6">
-        <v>0</v>
-      </c>
-      <c r="O36" s="6">
-        <v>0</v>
-      </c>
-      <c r="P36" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="6">
-        <v>0</v>
-      </c>
-      <c r="R36" s="6">
-        <v>0</v>
-      </c>
-      <c r="S36" s="6">
-        <v>0</v>
-      </c>
-      <c r="T36">
+      <c r="B57" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" s="25">
+        <v>24</v>
+      </c>
+      <c r="E57" s="25">
+        <v>4</v>
+      </c>
+      <c r="F57" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G57" s="25">
+        <v>200</v>
+      </c>
+      <c r="H57" s="25">
+        <v>120</v>
+      </c>
+      <c r="I57" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" s="26">
+        <v>0</v>
+      </c>
+      <c r="K57" s="26">
+        <v>0</v>
+      </c>
+      <c r="L57" s="26">
+        <v>0</v>
+      </c>
+      <c r="M57" s="26">
+        <v>0</v>
+      </c>
+      <c r="N57" s="26">
+        <v>0</v>
+      </c>
+      <c r="O57" s="26">
+        <v>0</v>
+      </c>
+      <c r="P57" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="26">
+        <v>0</v>
+      </c>
+      <c r="R57" s="26">
+        <v>0</v>
+      </c>
+      <c r="S57" s="26">
+        <v>0</v>
+      </c>
+      <c r="T57" s="25">
         <v>2</v>
       </c>
-      <c r="U36">
+      <c r="U57" s="25">
         <v>10</v>
       </c>
-      <c r="V36">
-        <v>1</v>
-      </c>
-      <c r="W36">
+      <c r="V57" s="25">
+        <v>1</v>
+      </c>
+      <c r="W57" s="25">
         <v>7</v>
       </c>
-      <c r="X36">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37">
-        <v>18</v>
-      </c>
-      <c r="E37">
+      <c r="X57" s="25">
+        <v>54000</v>
+      </c>
+      <c r="Y57" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z57" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AA57" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB57" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AC57" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD57" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="9">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" s="10" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="10">
+        <v>56</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="10">
+        <v>9</v>
+      </c>
+      <c r="E58" s="10">
         <v>4</v>
       </c>
-      <c r="F37">
+      <c r="F58" s="10">
         <v>1.2</v>
       </c>
-      <c r="G37">
+      <c r="G58" s="10">
         <v>200</v>
       </c>
-      <c r="H37">
-        <v>58</v>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" s="6">
-        <v>0</v>
-      </c>
-      <c r="K37" s="6">
-        <v>0</v>
-      </c>
-      <c r="L37" s="6">
-        <v>0</v>
-      </c>
-      <c r="M37" s="6">
-        <v>0</v>
-      </c>
-      <c r="N37" s="6">
-        <v>0</v>
-      </c>
-      <c r="O37" s="6">
-        <v>0</v>
-      </c>
-      <c r="P37" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>0</v>
-      </c>
-      <c r="R37" s="6">
-        <v>0</v>
-      </c>
-      <c r="S37" s="6">
-        <v>0</v>
-      </c>
-      <c r="T37">
+      <c r="H58" s="10">
+        <v>75</v>
+      </c>
+      <c r="I58" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" s="11">
+        <v>0</v>
+      </c>
+      <c r="K58" s="11">
+        <v>0</v>
+      </c>
+      <c r="L58" s="11">
+        <v>0</v>
+      </c>
+      <c r="M58" s="11">
+        <v>0</v>
+      </c>
+      <c r="N58" s="11">
+        <v>0</v>
+      </c>
+      <c r="O58" s="11">
+        <v>0</v>
+      </c>
+      <c r="P58" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="11">
+        <v>0</v>
+      </c>
+      <c r="R58" s="11">
+        <v>0</v>
+      </c>
+      <c r="S58" s="11">
+        <v>0</v>
+      </c>
+      <c r="T58" s="10">
         <v>2</v>
       </c>
-      <c r="U37">
+      <c r="U58" s="10">
         <v>10</v>
       </c>
-      <c r="V37">
-        <v>1</v>
-      </c>
-      <c r="W37">
+      <c r="V58" s="10">
+        <v>1</v>
+      </c>
+      <c r="W58" s="10">
         <v>7</v>
       </c>
-      <c r="X37">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38">
-        <v>18</v>
-      </c>
-      <c r="E38">
-        <v>4</v>
-      </c>
-      <c r="F38">
-        <v>1.2</v>
-      </c>
-      <c r="G38">
-        <v>200</v>
-      </c>
-      <c r="H38">
-        <v>59</v>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" s="6">
-        <v>0</v>
-      </c>
-      <c r="K38" s="6">
-        <v>0</v>
-      </c>
-      <c r="L38" s="6">
-        <v>0</v>
-      </c>
-      <c r="M38" s="6">
-        <v>0</v>
-      </c>
-      <c r="N38" s="6">
-        <v>0</v>
-      </c>
-      <c r="O38" s="6">
-        <v>0</v>
-      </c>
-      <c r="P38" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="6">
-        <v>0</v>
-      </c>
-      <c r="R38" s="6">
-        <v>0</v>
-      </c>
-      <c r="S38" s="6">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>2</v>
-      </c>
-      <c r="U38">
-        <v>10</v>
-      </c>
-      <c r="V38">
-        <v>1</v>
-      </c>
-      <c r="W38">
-        <v>7</v>
-      </c>
-      <c r="X38">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39">
-        <v>18</v>
-      </c>
-      <c r="E39">
-        <v>4</v>
-      </c>
-      <c r="F39">
-        <v>1.2</v>
-      </c>
-      <c r="G39">
-        <v>200</v>
-      </c>
-      <c r="H39">
-        <v>60</v>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" s="6">
-        <v>0</v>
-      </c>
-      <c r="K39" s="6">
-        <v>0</v>
-      </c>
-      <c r="L39" s="6">
-        <v>0</v>
-      </c>
-      <c r="M39" s="6">
-        <v>0</v>
-      </c>
-      <c r="N39" s="6">
-        <v>0</v>
-      </c>
-      <c r="O39" s="6">
-        <v>0</v>
-      </c>
-      <c r="P39" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="6">
-        <v>0</v>
-      </c>
-      <c r="R39" s="6">
-        <v>0</v>
-      </c>
-      <c r="S39" s="6">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>2</v>
-      </c>
-      <c r="U39">
-        <v>10</v>
-      </c>
-      <c r="V39">
-        <v>1</v>
-      </c>
-      <c r="W39">
-        <v>7</v>
-      </c>
-      <c r="X39">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40">
-        <v>18</v>
-      </c>
-      <c r="E40">
-        <v>4</v>
-      </c>
-      <c r="F40">
-        <v>1.2</v>
-      </c>
-      <c r="G40">
-        <v>200</v>
-      </c>
-      <c r="H40">
-        <v>61</v>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" s="6">
-        <v>0</v>
-      </c>
-      <c r="K40" s="6">
-        <v>0</v>
-      </c>
-      <c r="L40" s="6">
-        <v>0</v>
-      </c>
-      <c r="M40" s="6">
-        <v>0</v>
-      </c>
-      <c r="N40" s="6">
-        <v>0</v>
-      </c>
-      <c r="O40" s="6">
-        <v>0</v>
-      </c>
-      <c r="P40" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="6">
-        <v>0</v>
-      </c>
-      <c r="R40" s="6">
-        <v>0</v>
-      </c>
-      <c r="S40" s="6">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>2</v>
-      </c>
-      <c r="U40">
-        <v>10</v>
-      </c>
-      <c r="V40">
-        <v>1</v>
-      </c>
-      <c r="W40">
-        <v>7</v>
-      </c>
-      <c r="X40">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41">
-        <v>18</v>
-      </c>
-      <c r="E41">
-        <v>4</v>
-      </c>
-      <c r="F41">
-        <v>1.2</v>
-      </c>
-      <c r="G41">
-        <v>200</v>
-      </c>
-      <c r="H41">
-        <v>62</v>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" s="6">
-        <v>0</v>
-      </c>
-      <c r="K41" s="6">
-        <v>0</v>
-      </c>
-      <c r="L41" s="6">
-        <v>0</v>
-      </c>
-      <c r="M41" s="6">
-        <v>0</v>
-      </c>
-      <c r="N41" s="6">
-        <v>0</v>
-      </c>
-      <c r="O41" s="6">
-        <v>0</v>
-      </c>
-      <c r="P41" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="6">
-        <v>0</v>
-      </c>
-      <c r="R41" s="6">
-        <v>0</v>
-      </c>
-      <c r="S41" s="6">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>2</v>
-      </c>
-      <c r="U41">
-        <v>10</v>
-      </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
-      <c r="W41">
-        <v>7</v>
-      </c>
-      <c r="X41">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42">
-        <v>18</v>
-      </c>
-      <c r="E42">
-        <v>4</v>
-      </c>
-      <c r="F42">
-        <v>1.2</v>
-      </c>
-      <c r="G42">
-        <v>200</v>
-      </c>
-      <c r="H42">
-        <v>67</v>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" s="6">
-        <v>0</v>
-      </c>
-      <c r="K42" s="6">
-        <v>0</v>
-      </c>
-      <c r="L42" s="6">
-        <v>0</v>
-      </c>
-      <c r="M42" s="6">
-        <v>0</v>
-      </c>
-      <c r="N42" s="6">
-        <v>0</v>
-      </c>
-      <c r="O42" s="6">
-        <v>0</v>
-      </c>
-      <c r="P42" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="6">
-        <v>0</v>
-      </c>
-      <c r="R42" s="6">
-        <v>0</v>
-      </c>
-      <c r="S42" s="6">
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <v>2</v>
-      </c>
-      <c r="U42">
-        <v>10</v>
-      </c>
-      <c r="V42">
-        <v>1</v>
-      </c>
-      <c r="W42">
-        <v>7</v>
-      </c>
-      <c r="X42">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43">
-        <v>18</v>
-      </c>
-      <c r="E43">
-        <v>4</v>
-      </c>
-      <c r="F43">
-        <v>1.2</v>
-      </c>
-      <c r="G43">
-        <v>200</v>
-      </c>
-      <c r="H43">
-        <v>68</v>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" s="6">
-        <v>0</v>
-      </c>
-      <c r="K43" s="6">
-        <v>0</v>
-      </c>
-      <c r="L43" s="6">
-        <v>0</v>
-      </c>
-      <c r="M43" s="6">
-        <v>0</v>
-      </c>
-      <c r="N43" s="6">
-        <v>0</v>
-      </c>
-      <c r="O43" s="6">
-        <v>0</v>
-      </c>
-      <c r="P43" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="6">
-        <v>0</v>
-      </c>
-      <c r="R43" s="6">
-        <v>0</v>
-      </c>
-      <c r="S43" s="6">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>2</v>
-      </c>
-      <c r="U43">
-        <v>10</v>
-      </c>
-      <c r="V43">
-        <v>1</v>
-      </c>
-      <c r="W43">
-        <v>7</v>
-      </c>
-      <c r="X43">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" t="s">
-        <v>124</v>
-      </c>
-      <c r="D44">
-        <v>22</v>
-      </c>
-      <c r="E44">
-        <v>4</v>
-      </c>
-      <c r="F44">
-        <v>1.2</v>
-      </c>
-      <c r="G44">
-        <v>200</v>
-      </c>
-      <c r="H44">
-        <v>72</v>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" s="6">
-        <v>0</v>
-      </c>
-      <c r="K44" s="6">
-        <v>0</v>
-      </c>
-      <c r="L44" s="6">
-        <v>0</v>
-      </c>
-      <c r="M44" s="6">
-        <v>0</v>
-      </c>
-      <c r="N44" s="6">
-        <v>0</v>
-      </c>
-      <c r="O44" s="6">
-        <v>0</v>
-      </c>
-      <c r="P44" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="6">
-        <v>0</v>
-      </c>
-      <c r="R44" s="6">
-        <v>0</v>
-      </c>
-      <c r="S44" s="6">
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <v>2</v>
-      </c>
-      <c r="U44">
-        <v>10</v>
-      </c>
-      <c r="V44">
-        <v>1</v>
-      </c>
-      <c r="W44">
-        <v>7</v>
-      </c>
-      <c r="X44">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" t="s">
-        <v>124</v>
-      </c>
-      <c r="D45">
-        <v>22</v>
-      </c>
-      <c r="E45">
-        <v>4</v>
-      </c>
-      <c r="F45">
-        <v>1.2</v>
-      </c>
-      <c r="G45">
-        <v>200</v>
-      </c>
-      <c r="H45">
-        <v>73</v>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" s="6">
-        <v>0</v>
-      </c>
-      <c r="K45" s="6">
-        <v>0</v>
-      </c>
-      <c r="L45" s="6">
-        <v>0</v>
-      </c>
-      <c r="M45" s="6">
-        <v>0</v>
-      </c>
-      <c r="N45" s="6">
-        <v>0</v>
-      </c>
-      <c r="O45" s="6">
-        <v>0</v>
-      </c>
-      <c r="P45" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="6">
-        <v>0</v>
-      </c>
-      <c r="R45" s="6">
-        <v>0</v>
-      </c>
-      <c r="S45" s="6">
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <v>2</v>
-      </c>
-      <c r="U45">
-        <v>10</v>
-      </c>
-      <c r="V45">
-        <v>1</v>
-      </c>
-      <c r="W45">
-        <v>7</v>
-      </c>
-      <c r="X45">
-        <v>34000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46">
-        <v>22</v>
-      </c>
-      <c r="E46">
-        <v>4</v>
-      </c>
-      <c r="F46">
-        <v>1.2</v>
-      </c>
-      <c r="G46">
-        <v>200</v>
-      </c>
-      <c r="H46">
-        <v>74</v>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" s="6">
-        <v>0</v>
-      </c>
-      <c r="K46" s="6">
-        <v>0</v>
-      </c>
-      <c r="L46" s="6">
-        <v>0</v>
-      </c>
-      <c r="M46" s="6">
-        <v>0</v>
-      </c>
-      <c r="N46" s="6">
-        <v>0</v>
-      </c>
-      <c r="O46" s="6">
-        <v>0</v>
-      </c>
-      <c r="P46" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="6">
-        <v>0</v>
-      </c>
-      <c r="R46" s="6">
-        <v>0</v>
-      </c>
-      <c r="S46" s="6">
-        <v>0</v>
-      </c>
-      <c r="T46">
-        <v>2</v>
-      </c>
-      <c r="U46">
-        <v>10</v>
-      </c>
-      <c r="V46">
-        <v>1</v>
-      </c>
-      <c r="W46">
-        <v>7</v>
-      </c>
-      <c r="X46">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47">
-        <v>9</v>
-      </c>
-      <c r="E47">
-        <v>4</v>
-      </c>
-      <c r="F47">
-        <v>1.2</v>
-      </c>
-      <c r="G47">
-        <v>200</v>
-      </c>
-      <c r="H47">
-        <v>75</v>
-      </c>
-      <c r="I47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J47" s="6">
-        <v>0</v>
-      </c>
-      <c r="K47" s="6">
-        <v>0</v>
-      </c>
-      <c r="L47" s="6">
-        <v>0</v>
-      </c>
-      <c r="M47" s="6">
-        <v>0</v>
-      </c>
-      <c r="N47" s="6">
-        <v>0</v>
-      </c>
-      <c r="O47" s="6">
-        <v>0</v>
-      </c>
-      <c r="P47" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="6">
-        <v>0</v>
-      </c>
-      <c r="R47" s="6">
-        <v>0</v>
-      </c>
-      <c r="S47" s="6">
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>2</v>
-      </c>
-      <c r="U47">
-        <v>10</v>
-      </c>
-      <c r="V47">
-        <v>1</v>
-      </c>
-      <c r="W47">
-        <v>7</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" t="s">
-        <v>124</v>
-      </c>
-      <c r="D48">
-        <v>22</v>
-      </c>
-      <c r="E48">
-        <v>4</v>
-      </c>
-      <c r="F48">
-        <v>1.2</v>
-      </c>
-      <c r="G48">
-        <v>200</v>
-      </c>
-      <c r="H48">
-        <v>78</v>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" s="6">
-        <v>0</v>
-      </c>
-      <c r="K48" s="6">
-        <v>0</v>
-      </c>
-      <c r="L48" s="6">
-        <v>0</v>
-      </c>
-      <c r="M48" s="6">
-        <v>0</v>
-      </c>
-      <c r="N48" s="6">
-        <v>0</v>
-      </c>
-      <c r="O48" s="6">
-        <v>0</v>
-      </c>
-      <c r="P48" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="6">
-        <v>0</v>
-      </c>
-      <c r="R48" s="6">
-        <v>0</v>
-      </c>
-      <c r="S48" s="6">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>2</v>
-      </c>
-      <c r="U48">
-        <v>10</v>
-      </c>
-      <c r="V48">
-        <v>1</v>
-      </c>
-      <c r="W48">
-        <v>7</v>
-      </c>
-      <c r="X48">
-        <v>38000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" t="s">
-        <v>124</v>
-      </c>
-      <c r="D49">
-        <v>22</v>
-      </c>
-      <c r="E49">
-        <v>4</v>
-      </c>
-      <c r="F49">
-        <v>1.2</v>
-      </c>
-      <c r="G49">
-        <v>200</v>
-      </c>
-      <c r="H49">
-        <v>79</v>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" s="6">
-        <v>0</v>
-      </c>
-      <c r="K49" s="6">
-        <v>0</v>
-      </c>
-      <c r="L49" s="6">
-        <v>0</v>
-      </c>
-      <c r="M49" s="6">
-        <v>0</v>
-      </c>
-      <c r="N49" s="6">
-        <v>0</v>
-      </c>
-      <c r="O49" s="6">
-        <v>0</v>
-      </c>
-      <c r="P49" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="6">
-        <v>0</v>
-      </c>
-      <c r="R49" s="6">
-        <v>0</v>
-      </c>
-      <c r="S49" s="6">
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <v>2</v>
-      </c>
-      <c r="U49">
-        <v>10</v>
-      </c>
-      <c r="V49">
-        <v>1</v>
-      </c>
-      <c r="W49">
-        <v>7</v>
-      </c>
-      <c r="X49">
-        <v>40000</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>129</v>
-      </c>
-      <c r="C50" t="s">
-        <v>124</v>
-      </c>
-      <c r="D50">
-        <v>22</v>
-      </c>
-      <c r="E50">
-        <v>4</v>
-      </c>
-      <c r="F50">
-        <v>1.2</v>
-      </c>
-      <c r="G50">
-        <v>200</v>
-      </c>
-      <c r="H50">
-        <v>82</v>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" s="6">
-        <v>0</v>
-      </c>
-      <c r="K50" s="6">
-        <v>0</v>
-      </c>
-      <c r="L50" s="6">
-        <v>0</v>
-      </c>
-      <c r="M50" s="6">
-        <v>0</v>
-      </c>
-      <c r="N50" s="6">
-        <v>0</v>
-      </c>
-      <c r="O50" s="6">
-        <v>0</v>
-      </c>
-      <c r="P50" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="6">
-        <v>0</v>
-      </c>
-      <c r="R50" s="6">
-        <v>0</v>
-      </c>
-      <c r="S50" s="6">
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <v>2</v>
-      </c>
-      <c r="U50">
-        <v>10</v>
-      </c>
-      <c r="V50">
-        <v>1</v>
-      </c>
-      <c r="W50">
-        <v>7</v>
-      </c>
-      <c r="X50">
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>130</v>
-      </c>
-      <c r="C51" t="s">
-        <v>124</v>
-      </c>
-      <c r="D51">
-        <v>22</v>
-      </c>
-      <c r="E51">
-        <v>4</v>
-      </c>
-      <c r="F51">
-        <v>1.2</v>
-      </c>
-      <c r="G51">
-        <v>200</v>
-      </c>
-      <c r="H51">
-        <v>83</v>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" s="6">
-        <v>0</v>
-      </c>
-      <c r="K51" s="6">
-        <v>0</v>
-      </c>
-      <c r="L51" s="6">
-        <v>0</v>
-      </c>
-      <c r="M51" s="6">
-        <v>0</v>
-      </c>
-      <c r="N51" s="6">
-        <v>0</v>
-      </c>
-      <c r="O51" s="6">
-        <v>0</v>
-      </c>
-      <c r="P51" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="6">
-        <v>0</v>
-      </c>
-      <c r="R51" s="6">
-        <v>0</v>
-      </c>
-      <c r="S51" s="6">
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <v>2</v>
-      </c>
-      <c r="U51">
-        <v>10</v>
-      </c>
-      <c r="V51">
-        <v>1</v>
-      </c>
-      <c r="W51">
-        <v>7</v>
-      </c>
-      <c r="X51">
-        <v>44000</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52">
-        <v>9</v>
-      </c>
-      <c r="E52">
-        <v>4</v>
-      </c>
-      <c r="F52">
-        <v>1.2</v>
-      </c>
-      <c r="G52">
-        <v>200</v>
-      </c>
-      <c r="H52">
-        <v>75</v>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" s="6">
-        <v>0</v>
-      </c>
-      <c r="K52" s="6">
-        <v>0</v>
-      </c>
-      <c r="L52" s="6">
-        <v>0</v>
-      </c>
-      <c r="M52" s="6">
-        <v>0</v>
-      </c>
-      <c r="N52" s="6">
-        <v>0</v>
-      </c>
-      <c r="O52" s="6">
-        <v>0</v>
-      </c>
-      <c r="P52" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="6">
-        <v>0</v>
-      </c>
-      <c r="R52" s="6">
-        <v>0</v>
-      </c>
-      <c r="S52" s="6">
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <v>2</v>
-      </c>
-      <c r="U52">
-        <v>10</v>
-      </c>
-      <c r="V52">
-        <v>1</v>
-      </c>
-      <c r="W52">
-        <v>7</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>132</v>
-      </c>
-      <c r="C53" t="s">
-        <v>124</v>
-      </c>
-      <c r="D53">
-        <v>22</v>
-      </c>
-      <c r="E53">
-        <v>4</v>
-      </c>
-      <c r="F53">
-        <v>1.2</v>
-      </c>
-      <c r="G53">
-        <v>200</v>
-      </c>
-      <c r="H53">
-        <v>91</v>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" s="6">
-        <v>0</v>
-      </c>
-      <c r="K53" s="6">
-        <v>0</v>
-      </c>
-      <c r="L53" s="6">
-        <v>0</v>
-      </c>
-      <c r="M53" s="6">
-        <v>0</v>
-      </c>
-      <c r="N53" s="6">
-        <v>0</v>
-      </c>
-      <c r="O53" s="6">
-        <v>0</v>
-      </c>
-      <c r="P53" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="6">
-        <v>0</v>
-      </c>
-      <c r="R53" s="6">
-        <v>0</v>
-      </c>
-      <c r="S53" s="6">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>2</v>
-      </c>
-      <c r="U53">
-        <v>10</v>
-      </c>
-      <c r="V53">
-        <v>1</v>
-      </c>
-      <c r="W53">
-        <v>7</v>
-      </c>
-      <c r="X53">
-        <v>46000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" t="s">
-        <v>124</v>
-      </c>
-      <c r="D54">
-        <v>22</v>
-      </c>
-      <c r="E54">
-        <v>4</v>
-      </c>
-      <c r="F54">
-        <v>1.2</v>
-      </c>
-      <c r="G54">
-        <v>200</v>
-      </c>
-      <c r="H54">
-        <v>92</v>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" s="6">
-        <v>0</v>
-      </c>
-      <c r="K54" s="6">
-        <v>0</v>
-      </c>
-      <c r="L54" s="6">
-        <v>0</v>
-      </c>
-      <c r="M54" s="6">
-        <v>0</v>
-      </c>
-      <c r="N54" s="6">
-        <v>0</v>
-      </c>
-      <c r="O54" s="6">
-        <v>0</v>
-      </c>
-      <c r="P54" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="6">
-        <v>0</v>
-      </c>
-      <c r="R54" s="6">
-        <v>0</v>
-      </c>
-      <c r="S54" s="6">
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <v>2</v>
-      </c>
-      <c r="U54">
-        <v>10</v>
-      </c>
-      <c r="V54">
-        <v>1</v>
-      </c>
-      <c r="W54">
-        <v>7</v>
-      </c>
-      <c r="X54">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>134</v>
-      </c>
-      <c r="C55" t="s">
-        <v>124</v>
-      </c>
-      <c r="D55">
-        <v>22</v>
-      </c>
-      <c r="E55">
-        <v>4</v>
-      </c>
-      <c r="F55">
-        <v>1.2</v>
-      </c>
-      <c r="G55">
-        <v>200</v>
-      </c>
-      <c r="H55">
-        <v>93</v>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" s="6">
-        <v>0</v>
-      </c>
-      <c r="K55" s="6">
-        <v>0</v>
-      </c>
-      <c r="L55" s="6">
-        <v>0</v>
-      </c>
-      <c r="M55" s="6">
-        <v>0</v>
-      </c>
-      <c r="N55" s="6">
-        <v>0</v>
-      </c>
-      <c r="O55" s="6">
-        <v>0</v>
-      </c>
-      <c r="P55" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="6">
-        <v>0</v>
-      </c>
-      <c r="R55" s="6">
-        <v>0</v>
-      </c>
-      <c r="S55" s="6">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>2</v>
-      </c>
-      <c r="U55">
-        <v>10</v>
-      </c>
-      <c r="V55">
-        <v>1</v>
-      </c>
-      <c r="W55">
-        <v>7</v>
-      </c>
-      <c r="X55">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>135</v>
-      </c>
-      <c r="C56" t="s">
-        <v>136</v>
-      </c>
-      <c r="D56">
-        <v>24</v>
-      </c>
-      <c r="E56">
-        <v>4</v>
-      </c>
-      <c r="F56">
-        <v>1.2</v>
-      </c>
-      <c r="G56">
-        <v>200</v>
-      </c>
-      <c r="H56">
-        <v>95</v>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" s="6">
-        <v>0</v>
-      </c>
-      <c r="K56" s="6">
-        <v>0</v>
-      </c>
-      <c r="L56" s="6">
-        <v>0</v>
-      </c>
-      <c r="M56" s="6">
-        <v>0</v>
-      </c>
-      <c r="N56" s="6">
-        <v>0</v>
-      </c>
-      <c r="O56" s="6">
-        <v>0</v>
-      </c>
-      <c r="P56" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="6">
-        <v>0</v>
-      </c>
-      <c r="R56" s="6">
-        <v>0</v>
-      </c>
-      <c r="S56" s="6">
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <v>2</v>
-      </c>
-      <c r="U56">
-        <v>10</v>
-      </c>
-      <c r="V56">
-        <v>1</v>
-      </c>
-      <c r="W56">
-        <v>7</v>
-      </c>
-      <c r="X56">
-        <v>52000</v>
+      <c r="X58" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="9">
+        <v>5700000</v>
+      </c>
+      <c r="AA58" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="9">
+        <v>5700</v>
+      </c>
+      <c r="AC58" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD58" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="9">
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X56" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
+  <autoFilter ref="A1:AE58" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
+    <filterColumn colId="28">
+      <filters>
+        <filter val="Normal"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12264C9A-0193-4C50-A880-589F5F2F5D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C808DCFB-D853-4B76-8CB4-D2463EE3FA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
     <sheet name="Prob" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MagicBook!$A$1:$AE$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MagicBook!$A$1:$AE$60</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="189">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -513,212 +513,229 @@
     <t>magicBook54</t>
   </si>
   <si>
+    <t>magicBook56</t>
+  </si>
+  <si>
+    <t>CollectionEffectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectionEffectValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardType0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardValue0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicBookType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardValue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현무 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황룡 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑룡 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해태 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병아리 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼족오 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기린 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달토끼 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼목구 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천마 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구미호 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여래 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강림 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차사 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>염라 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불멸 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적선녀 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등선녀 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황선녀 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹선녀 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청선녀 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남선녀 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자선녀 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈량 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇌량 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암량 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화량 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설량 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미량 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>까치 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑량 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파랑새 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남량 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여량 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우량 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지국천왕 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광목천왕 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>magicBook55</t>
-  </si>
-  <si>
-    <t>magicBook56</t>
-  </si>
-  <si>
-    <t>CollectionEffectType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CollectionEffectValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardType0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardValue0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardType1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicBookType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardValue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현무 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백호 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주작 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청룡 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황룡 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흑룡 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해태 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병아리 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼족오 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기린 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>달토끼 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼목구 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천마 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구미호 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여래 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강림 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차사 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>염라 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불멸 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적선녀 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등선녀 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황선녀 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>녹선녀 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청선녀 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남선녀 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자선녀 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혈량 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뇌량 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암량 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화량 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설량 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미량 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>까치 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흑량 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파랑새 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남량 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여량 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우량 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지국천왕 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광목천왕 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패스 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증장천왕 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다문천왕 노리개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1251,19 +1268,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AE58"/>
+  <dimension ref="A1:AE60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD21" sqref="AD21"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.375" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
@@ -1275,7 +1291,8 @@
     <col min="16" max="16" width="13" customWidth="1"/>
     <col min="17" max="18" width="13.875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.75" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
@@ -1358,28 +1375,28 @@
         <v>98</v>
       </c>
       <c r="Y1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z1" t="s">
         <v>138</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>139</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC1" t="s">
         <v>140</v>
       </c>
-      <c r="AB1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>141</v>
-      </c>
       <c r="AD1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE1" t="s">
         <v>134</v>
       </c>
-      <c r="AE1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1465,7 +1482,7 @@
         <v>100</v>
       </c>
       <c r="AC2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD2" s="9">
         <v>0</v>
@@ -1474,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1560,7 +1577,7 @@
         <v>200</v>
       </c>
       <c r="AC3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD3" s="9">
         <v>0</v>
@@ -1569,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1655,7 +1672,7 @@
         <v>300</v>
       </c>
       <c r="AC4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD4" s="9">
         <v>0</v>
@@ -1664,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1750,7 +1767,7 @@
         <v>400</v>
       </c>
       <c r="AC5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD5" s="9">
         <v>0</v>
@@ -1759,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1845,7 +1862,7 @@
         <v>500</v>
       </c>
       <c r="AC6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD6" s="9">
         <v>0</v>
@@ -1854,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1940,7 +1957,7 @@
         <v>600</v>
       </c>
       <c r="AC7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD7" s="9">
         <v>0</v>
@@ -1949,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2035,7 +2052,7 @@
         <v>700</v>
       </c>
       <c r="AC8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD8" s="9">
         <v>0</v>
@@ -2044,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2130,7 +2147,7 @@
         <v>800</v>
       </c>
       <c r="AC9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD9" s="9">
         <v>0</v>
@@ -2139,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2225,7 +2242,7 @@
         <v>900</v>
       </c>
       <c r="AC10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD10" s="9">
         <v>0</v>
@@ -2234,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2320,7 +2337,7 @@
         <v>1000</v>
       </c>
       <c r="AC11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD11" s="9">
         <v>0</v>
@@ -2329,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -2415,7 +2432,7 @@
         <v>1100</v>
       </c>
       <c r="AC12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD12" s="9">
         <v>0</v>
@@ -2424,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2510,7 +2527,7 @@
         <v>1200</v>
       </c>
       <c r="AC13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD13" s="9">
         <v>0</v>
@@ -2519,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2605,7 +2622,7 @@
         <v>1300</v>
       </c>
       <c r="AC14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD14" s="9">
         <v>0</v>
@@ -2614,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2700,7 +2717,7 @@
         <v>1400</v>
       </c>
       <c r="AC15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD15" s="9">
         <v>0</v>
@@ -2709,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2795,7 +2812,7 @@
         <v>1500</v>
       </c>
       <c r="AC16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD16" s="9">
         <v>0</v>
@@ -2804,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2890,7 +2907,7 @@
         <v>1600</v>
       </c>
       <c r="AC17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD17" s="9">
         <v>0</v>
@@ -2907,7 +2924,7 @@
         <v>91</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
@@ -2985,7 +3002,7 @@
         <v>50000000</v>
       </c>
       <c r="AC18" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD18" s="9">
         <v>0</v>
@@ -3002,7 +3019,7 @@
         <v>92</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D19" s="12">
         <v>5</v>
@@ -3080,7 +3097,7 @@
         <v>50000000</v>
       </c>
       <c r="AC19" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD19" s="9">
         <v>0</v>
@@ -3097,7 +3114,7 @@
         <v>93</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D20" s="12">
         <v>5</v>
@@ -3175,7 +3192,7 @@
         <v>50000000</v>
       </c>
       <c r="AC20" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD20" s="9">
         <v>0</v>
@@ -3192,7 +3209,7 @@
         <v>94</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" s="12">
         <v>5</v>
@@ -3270,7 +3287,7 @@
         <v>50000000</v>
       </c>
       <c r="AC21" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD21" s="9">
         <v>0</v>
@@ -3287,7 +3304,7 @@
         <v>96</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="12">
         <v>6</v>
@@ -3365,7 +3382,7 @@
         <v>50000000</v>
       </c>
       <c r="AC22" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD22" s="9">
         <v>0</v>
@@ -3382,7 +3399,7 @@
         <v>97</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D23" s="15">
         <v>7</v>
@@ -3460,7 +3477,7 @@
         <v>50000000</v>
       </c>
       <c r="AC23" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD23" s="9">
         <v>0</v>
@@ -3477,7 +3494,7 @@
         <v>99</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D24" s="15">
         <v>8</v>
@@ -3555,7 +3572,7 @@
         <v>50000000</v>
       </c>
       <c r="AC24" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD24" s="9">
         <v>0</v>
@@ -3564,7 +3581,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="25" spans="1:31" s="10" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -3572,7 +3589,7 @@
         <v>100</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D25" s="10">
         <v>9</v>
@@ -3650,7 +3667,7 @@
         <v>2400</v>
       </c>
       <c r="AC25" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AD25" s="9">
         <v>0</v>
@@ -3667,7 +3684,7 @@
         <v>101</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D26" s="17">
         <v>8</v>
@@ -3745,7 +3762,7 @@
         <v>100000000</v>
       </c>
       <c r="AC26" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD26" s="9">
         <v>0</v>
@@ -3762,7 +3779,7 @@
         <v>102</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D27" s="17">
         <v>8</v>
@@ -3840,7 +3857,7 @@
         <v>100000000</v>
       </c>
       <c r="AC27" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD27" s="9">
         <v>0</v>
@@ -3857,7 +3874,7 @@
         <v>103</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D28" s="17">
         <v>8</v>
@@ -3935,7 +3952,7 @@
         <v>100000000</v>
       </c>
       <c r="AC28" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD28" s="9">
         <v>0</v>
@@ -3952,7 +3969,7 @@
         <v>104</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D29" s="17">
         <v>8</v>
@@ -4030,7 +4047,7 @@
         <v>100000000</v>
       </c>
       <c r="AC29" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD29" s="9">
         <v>0</v>
@@ -4047,7 +4064,7 @@
         <v>105</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D30" s="17">
         <v>10</v>
@@ -4125,7 +4142,7 @@
         <v>100000000</v>
       </c>
       <c r="AC30" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD30" s="9">
         <v>0</v>
@@ -4142,7 +4159,7 @@
         <v>106</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D31" s="17">
         <v>10</v>
@@ -4220,7 +4237,7 @@
         <v>100000000</v>
       </c>
       <c r="AC31" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD31" s="9">
         <v>0</v>
@@ -4237,7 +4254,7 @@
         <v>107</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D32" s="19">
         <v>16</v>
@@ -4315,7 +4332,7 @@
         <v>5000</v>
       </c>
       <c r="AC32" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD32" s="9">
         <v>0</v>
@@ -4332,7 +4349,7 @@
         <v>109</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D33" s="19">
         <v>16</v>
@@ -4410,7 +4427,7 @@
         <v>5000</v>
       </c>
       <c r="AC33" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD33" s="9">
         <v>0</v>
@@ -4427,7 +4444,7 @@
         <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D34">
         <v>17</v>
@@ -4505,7 +4522,7 @@
         <v>5000</v>
       </c>
       <c r="AC34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD34" s="9">
         <v>0</v>
@@ -4522,7 +4539,7 @@
         <v>110</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D35" s="19">
         <v>16</v>
@@ -4600,7 +4617,7 @@
         <v>5000</v>
       </c>
       <c r="AC35" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD35" s="9">
         <v>0</v>
@@ -4617,7 +4634,7 @@
         <v>111</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D36" s="19">
         <v>16</v>
@@ -4695,7 +4712,7 @@
         <v>5000</v>
       </c>
       <c r="AC36" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD36" s="9">
         <v>0</v>
@@ -4712,7 +4729,7 @@
         <v>112</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D37" s="21">
         <v>18</v>
@@ -4790,7 +4807,7 @@
         <v>5000</v>
       </c>
       <c r="AC37" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD37" s="9">
         <v>0</v>
@@ -4807,7 +4824,7 @@
         <v>113</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D38" s="21">
         <v>18</v>
@@ -4885,7 +4902,7 @@
         <v>5000</v>
       </c>
       <c r="AC38" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD38" s="9">
         <v>0</v>
@@ -4902,7 +4919,7 @@
         <v>114</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D39" s="21">
         <v>18</v>
@@ -4980,7 +4997,7 @@
         <v>5000</v>
       </c>
       <c r="AC39" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD39" s="9">
         <v>0</v>
@@ -4997,7 +5014,7 @@
         <v>115</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D40" s="21">
         <v>18</v>
@@ -5075,7 +5092,7 @@
         <v>5000</v>
       </c>
       <c r="AC40" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD40" s="9">
         <v>0</v>
@@ -5092,7 +5109,7 @@
         <v>116</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D41" s="21">
         <v>18</v>
@@ -5170,7 +5187,7 @@
         <v>5000</v>
       </c>
       <c r="AC41" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD41" s="9">
         <v>0</v>
@@ -5187,7 +5204,7 @@
         <v>117</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D42" s="21">
         <v>18</v>
@@ -5265,7 +5282,7 @@
         <v>5000</v>
       </c>
       <c r="AC42" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD42" s="9">
         <v>0</v>
@@ -5282,7 +5299,7 @@
         <v>118</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D43" s="21">
         <v>18</v>
@@ -5360,7 +5377,7 @@
         <v>5000</v>
       </c>
       <c r="AC43" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD43" s="9">
         <v>0</v>
@@ -5377,7 +5394,7 @@
         <v>119</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D44" s="23">
         <v>22</v>
@@ -5455,7 +5472,7 @@
         <v>5000</v>
       </c>
       <c r="AC44" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD44" s="9">
         <v>0</v>
@@ -5472,7 +5489,7 @@
         <v>120</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D45" s="23">
         <v>22</v>
@@ -5550,7 +5567,7 @@
         <v>5000</v>
       </c>
       <c r="AC45" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD45" s="9">
         <v>0</v>
@@ -5567,7 +5584,7 @@
         <v>121</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D46" s="23">
         <v>22</v>
@@ -5645,7 +5662,7 @@
         <v>5000</v>
       </c>
       <c r="AC46" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD46" s="9">
         <v>0</v>
@@ -5654,7 +5671,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="47" spans="1:31" s="10" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>45</v>
       </c>
@@ -5662,7 +5679,7 @@
         <v>122</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D47" s="10">
         <v>9</v>
@@ -5740,7 +5757,7 @@
         <v>4600</v>
       </c>
       <c r="AC47" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AD47" s="9">
         <v>0</v>
@@ -5757,7 +5774,7 @@
         <v>123</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D48" s="23">
         <v>22</v>
@@ -5835,7 +5852,7 @@
         <v>5000</v>
       </c>
       <c r="AC48" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD48" s="9">
         <v>0</v>
@@ -5852,7 +5869,7 @@
         <v>124</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D49" s="23">
         <v>22</v>
@@ -5930,7 +5947,7 @@
         <v>5000</v>
       </c>
       <c r="AC49" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD49" s="9">
         <v>0</v>
@@ -5947,7 +5964,7 @@
         <v>125</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D50" s="23">
         <v>22</v>
@@ -6025,7 +6042,7 @@
         <v>5000</v>
       </c>
       <c r="AC50" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD50" s="9">
         <v>0</v>
@@ -6042,7 +6059,7 @@
         <v>126</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D51" s="23">
         <v>22</v>
@@ -6120,7 +6137,7 @@
         <v>5000</v>
       </c>
       <c r="AC51" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD51" s="9">
         <v>0</v>
@@ -6129,7 +6146,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="52" spans="1:31" s="10" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>50</v>
       </c>
@@ -6137,7 +6154,7 @@
         <v>127</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D52" s="10">
         <v>9</v>
@@ -6215,7 +6232,7 @@
         <v>5100</v>
       </c>
       <c r="AC52" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AD52" s="9">
         <v>0</v>
@@ -6232,7 +6249,7 @@
         <v>128</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D53" s="23">
         <v>22</v>
@@ -6310,7 +6327,7 @@
         <v>5000</v>
       </c>
       <c r="AC53" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD53" s="9">
         <v>0</v>
@@ -6327,7 +6344,7 @@
         <v>129</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D54" s="23">
         <v>22</v>
@@ -6405,7 +6422,7 @@
         <v>5000</v>
       </c>
       <c r="AC54" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD54" s="9">
         <v>0</v>
@@ -6422,7 +6439,7 @@
         <v>130</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D55" s="23">
         <v>22</v>
@@ -6500,7 +6517,7 @@
         <v>5000</v>
       </c>
       <c r="AC55" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD55" s="9">
         <v>0</v>
@@ -6517,7 +6534,7 @@
         <v>131</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D56" s="25">
         <v>24</v>
@@ -6595,7 +6612,7 @@
         <v>10000</v>
       </c>
       <c r="AC56" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD56" s="9">
         <v>0</v>
@@ -6609,10 +6626,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D57" s="25">
         <v>24</v>
@@ -6690,7 +6707,7 @@
         <v>10000</v>
       </c>
       <c r="AC57" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD57" s="9">
         <v>0</v>
@@ -6699,15 +6716,15 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="58" spans="1:31" s="10" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
         <v>56</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D58" s="10">
         <v>9</v>
@@ -6785,7 +6802,7 @@
         <v>5700</v>
       </c>
       <c r="AC58" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AD58" s="9">
         <v>0</v>
@@ -6794,14 +6811,198 @@
         <v>1000000</v>
       </c>
     </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A59" s="25">
+        <v>57</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="25">
+        <v>24</v>
+      </c>
+      <c r="E59" s="25">
+        <v>4</v>
+      </c>
+      <c r="F59" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G59" s="25">
+        <v>200</v>
+      </c>
+      <c r="H59" s="25">
+        <v>123</v>
+      </c>
+      <c r="I59" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" s="26">
+        <v>0</v>
+      </c>
+      <c r="K59" s="26">
+        <v>0</v>
+      </c>
+      <c r="L59" s="26">
+        <v>0</v>
+      </c>
+      <c r="M59" s="26">
+        <v>0</v>
+      </c>
+      <c r="N59" s="26">
+        <v>0</v>
+      </c>
+      <c r="O59" s="26">
+        <v>0</v>
+      </c>
+      <c r="P59" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="26">
+        <v>0</v>
+      </c>
+      <c r="R59" s="26">
+        <v>0</v>
+      </c>
+      <c r="S59" s="26">
+        <v>0</v>
+      </c>
+      <c r="T59" s="25">
+        <v>2</v>
+      </c>
+      <c r="U59" s="25">
+        <v>10</v>
+      </c>
+      <c r="V59" s="25">
+        <v>1</v>
+      </c>
+      <c r="W59" s="25">
+        <v>7</v>
+      </c>
+      <c r="X59" s="25">
+        <v>56000</v>
+      </c>
+      <c r="Y59" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z59" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AA59" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB59" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AC59" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD59" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="9">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A60" s="25">
+        <v>58</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D60" s="25">
+        <v>24</v>
+      </c>
+      <c r="E60" s="25">
+        <v>4</v>
+      </c>
+      <c r="F60" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G60" s="25">
+        <v>200</v>
+      </c>
+      <c r="H60" s="25">
+        <v>124</v>
+      </c>
+      <c r="I60" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" s="26">
+        <v>0</v>
+      </c>
+      <c r="K60" s="26">
+        <v>0</v>
+      </c>
+      <c r="L60" s="26">
+        <v>0</v>
+      </c>
+      <c r="M60" s="26">
+        <v>0</v>
+      </c>
+      <c r="N60" s="26">
+        <v>0</v>
+      </c>
+      <c r="O60" s="26">
+        <v>0</v>
+      </c>
+      <c r="P60" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="26">
+        <v>0</v>
+      </c>
+      <c r="R60" s="26">
+        <v>0</v>
+      </c>
+      <c r="S60" s="26">
+        <v>0</v>
+      </c>
+      <c r="T60" s="25">
+        <v>2</v>
+      </c>
+      <c r="U60" s="25">
+        <v>10</v>
+      </c>
+      <c r="V60" s="25">
+        <v>1</v>
+      </c>
+      <c r="W60" s="25">
+        <v>7</v>
+      </c>
+      <c r="X60" s="25">
+        <v>58000</v>
+      </c>
+      <c r="Y60" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z60" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AA60" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB60" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AC60" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD60" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="9">
+        <v>15000000</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AE58" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-    <filterColumn colId="28">
-      <filters>
-        <filter val="Normal"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AE60" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
